--- a/dataset.xlsx
+++ b/dataset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ciiindia-my.sharepoint.com/personal/alan_sam_cii_in/Documents/Documents/Tracker Map Code + Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="13_ncr:1_{1A41A2D0-B556-4CF2-B1FD-C6BB52EFC2FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FEEE2AF0-A15A-4F35-9ACF-8D828B955A3E}"/>
+  <xr:revisionPtr revIDLastSave="21" documentId="13_ncr:1_{1A41A2D0-B556-4CF2-B1FD-C6BB52EFC2FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CC1CE66B-C5E1-49CB-982F-47D7A30FCF08}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4F9A9B44-54FA-4D5C-A39D-44836A046FE4}"/>
   </bookViews>
@@ -1552,63 +1552,56 @@
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="1006"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="1008"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="1011"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="1014"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="1016"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="1019"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="1022"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="1024"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="1026"/>
+          <xlrd:rvb i="1005"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="1009"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="1012"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="1015"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="1017"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="1020"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="1023"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="1025"/>
         </ext>
       </extLst>
     </bk>
@@ -1622,84 +1615,91 @@
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="1030"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="1035"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="1038"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="1041"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="1045"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="1048"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="1059"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="1062"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="1064"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="1067"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="1071"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="1073"/>
+          <xlrd:rvb i="1028"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="1031"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="1036"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="1039"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="1042"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="1046"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="1049"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="1060"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="1063"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="1065"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="1068"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="1072"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="1074"/>
         </ext>
       </extLst>
     </bk>
@@ -1713,42 +1713,42 @@
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="1076"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="1079"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="1081"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="1084"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="1087"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="1089"/>
+          <xlrd:rvb i="1077"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="1080"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="1082"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="1085"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="1088"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="1090"/>
         </ext>
       </extLst>
     </bk>
@@ -1762,49 +1762,42 @@
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="1091"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="1093"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="1095"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="1098"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="1102"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="1104"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="1112"/>
+          <xlrd:rvb i="1092"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="1094"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="1096"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="1099"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="1103"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="1105"/>
         </ext>
       </extLst>
     </bk>
@@ -1818,98 +1811,105 @@
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="1115"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="1117"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="1120"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="1122"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="1099"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="1125"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="1128"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="1130"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="1132"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="1136"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="1138"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="1141"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="1144"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="1148"/>
+          <xlrd:rvb i="1114"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="1116"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="1118"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="1121"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="1123"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="1100"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="1126"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="1129"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="1131"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="1133"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="1137"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="1139"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="1142"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="1145"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="1149"/>
         </ext>
       </extLst>
     </bk>
@@ -1937,105 +1937,105 @@
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="1151"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="1155"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="1159"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="1161"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="1165"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="1167"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="1170"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="1173"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="1177"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="1180"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="1183"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="1185"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="1188"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="1190"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="1192"/>
+          <xlrd:rvb i="1152"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="1156"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="1160"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="1162"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="1166"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="1168"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="1171"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="1174"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="1178"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="1181"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="1184"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="1186"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="1189"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="1191"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="1193"/>
         </ext>
       </extLst>
     </bk>
@@ -2063,91 +2063,91 @@
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="1194"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="1197"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="1201"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="1204"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="1206"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="1208"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="1211"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="1258"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="1262"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="1266"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="1269"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="1272"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="1277"/>
+          <xlrd:rvb i="1195"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="1198"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="1202"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="1205"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="1207"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="1209"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="1212"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="1259"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="1263"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="1267"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="1270"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="1273"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="1278"/>
         </ext>
       </extLst>
     </bk>
@@ -2161,133 +2161,133 @@
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="1280"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="1282"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="1284"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="1287"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="1291"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="1295"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="1298"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="1301"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="1303"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="1305"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="1315"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="1318"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="1322"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="1325"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="1328"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="1332"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="1335"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="1339"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="1343"/>
+          <xlrd:rvb i="1281"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="1283"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="1285"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="1288"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="1292"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="1296"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="1299"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="1302"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="1304"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="1306"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="1316"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="1319"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="1323"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="1326"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="1329"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="1333"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="1336"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="1340"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="1344"/>
         </ext>
       </extLst>
     </bk>
@@ -2336,35 +2336,35 @@
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="1346"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="1350"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="1356"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="1360"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="1362"/>
+          <xlrd:rvb i="1347"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="1351"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="1357"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="1361"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="1363"/>
         </ext>
       </extLst>
     </bk>
@@ -2378,13 +2378,6 @@
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="1365"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="1366"/>
         </ext>
       </extLst>
@@ -2392,28 +2385,35 @@
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="1368"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="1371"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="1375"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="1379"/>
+          <xlrd:rvb i="1367"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="1369"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="1372"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="1376"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="1380"/>
         </ext>
       </extLst>
     </bk>
@@ -2441,21 +2441,21 @@
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="1382"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="1385"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="1389"/>
+          <xlrd:rvb i="1383"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="1386"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="1390"/>
         </ext>
       </extLst>
     </bk>
@@ -2483,140 +2483,140 @@
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="1392"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="1395"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="1397"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="1400"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="1403"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="1405"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="1408"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="1410"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="1412"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="1415"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="1418"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="1421"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="1423"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="1425"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="1428"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="1431"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="1435"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="1438"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="1442"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="1446"/>
+          <xlrd:rvb i="1393"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="1396"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="1398"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="1401"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="1404"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="1406"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="1409"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="1411"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="1413"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="1416"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="1419"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="1422"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="1424"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="1426"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="1429"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="1432"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="1436"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="1439"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="1443"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="1447"/>
         </ext>
       </extLst>
     </bk>
@@ -2630,84 +2630,84 @@
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="1449"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="1453"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="1457"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="1460"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="1463"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="1465"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="1468"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="1471"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="1473"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="1476"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="1479"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="1481"/>
+          <xlrd:rvb i="1450"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="1454"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="1458"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="1461"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="1464"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="1466"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="1469"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="1472"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="1474"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="1477"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="1480"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="1482"/>
         </ext>
       </extLst>
     </bk>
@@ -2728,42 +2728,42 @@
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="1484"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="1486"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="1488"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="1491"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="1493"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="1497"/>
+          <xlrd:rvb i="1485"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="1487"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="1489"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="1492"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="1494"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="1498"/>
         </ext>
       </extLst>
     </bk>
@@ -2777,70 +2777,63 @@
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="1500"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="1505"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="1509"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="1512"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="1516"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="1520"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="1523"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="1526"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="1528"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="1531"/>
+          <xlrd:rvb i="1501"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="1506"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="1510"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="1513"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="1517"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="1521"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="1524"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="1527"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="1529"/>
         </ext>
       </extLst>
     </bk>
@@ -2861,35 +2854,42 @@
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="1535"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="1537"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="1539"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="1541"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="1543"/>
+          <xlrd:rvb i="1534"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="1536"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="1538"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="1540"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="1542"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="1544"/>
         </ext>
       </extLst>
     </bk>
@@ -2917,49 +2917,49 @@
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="1546"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="1553"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="1556"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="1558"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="1561"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="1564"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="1566"/>
+          <xlrd:rvb i="1547"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="1554"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="1557"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="1559"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="1562"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="1565"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="1567"/>
         </ext>
       </extLst>
     </bk>
@@ -2987,147 +2987,147 @@
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="1569"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="1572"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="1574"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="1577"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="1580"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="1582"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="1585"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="1588"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="1590"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="1593"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="1595"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="1597"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="1600"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="1602"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="1604"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="1607"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="1610"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="1612"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="1615"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="1619"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="1621"/>
+          <xlrd:rvb i="1570"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="1573"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="1575"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="1578"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="1581"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="1583"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="1586"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="1589"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="1591"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="1594"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="1596"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="1598"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="1601"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="1603"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="1605"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="1608"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="1611"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="1613"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="1616"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="1620"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="1622"/>
         </ext>
       </extLst>
     </bk>
@@ -6774,7 +6774,7 @@
 </file>
 
 <file path=xl/richData/rdarray.xml><?xml version="1.0" encoding="utf-8"?>
-<arrayData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="99">
+<arrayData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="100">
   <a r="1">
     <v t="s">UTC+05:30</v>
   </a>
@@ -7098,33 +7098,36 @@
     <v t="r">947</v>
     <v t="r">948</v>
   </a>
+  <a r="1">
+    <v t="r">1006</v>
+  </a>
   <a r="2">
-    <v t="r">1031</v>
     <v t="r">1032</v>
+    <v t="r">1033</v>
   </a>
   <a r="1">
-    <v t="r">1042</v>
+    <v t="r">1043</v>
   </a>
   <a r="1">
     <v t="s">UTC+04:00</v>
   </a>
   <a r="1">
-    <v t="r">1145</v>
+    <v t="r">1146</v>
   </a>
   <a r="1">
-    <v t="r">1156</v>
+    <v t="r">1157</v>
   </a>
   <a r="1">
-    <v t="r">1174</v>
+    <v t="r">1175</v>
   </a>
   <a r="1">
-    <v t="r">1198</v>
+    <v t="r">1199</v>
   </a>
   <a r="4">
-    <v t="r">1231</v>
     <v t="r">1232</v>
     <v t="r">1233</v>
     <v t="r">1234</v>
+    <v t="r">1235</v>
   </a>
   <a r="1">
     <v t="s">Nepali language</v>
@@ -7133,50 +7136,50 @@
     <v t="s">Nepal Standard Time</v>
   </a>
   <a r="1">
-    <v t="r">1263</v>
+    <v t="r">1264</v>
   </a>
   <a r="2">
-    <v t="r">1273</v>
     <v t="r">1274</v>
+    <v t="r">1275</v>
   </a>
   <a r="1">
-    <v t="r">1292</v>
+    <v t="r">1293</v>
   </a>
   <a r="1">
-    <v t="r">1319</v>
+    <v t="r">1320</v>
   </a>
   <a r="1">
-    <v t="r">1329</v>
+    <v t="r">1330</v>
   </a>
   <a r="1">
-    <v t="r">1340</v>
+    <v t="r">1341</v>
   </a>
   <a r="1">
-    <v t="r">1351</v>
+    <v t="r">1352</v>
   </a>
   <a r="1">
-    <v t="r">1376</v>
+    <v t="r">1377</v>
   </a>
   <a r="1">
-    <v t="r">1386</v>
+    <v t="r">1387</v>
   </a>
   <a r="1">
-    <v t="r">1432</v>
+    <v t="r">1433</v>
   </a>
   <a r="1">
-    <v t="r">1443</v>
+    <v t="r">1444</v>
   </a>
   <a r="1">
-    <v t="r">1454</v>
+    <v t="r">1455</v>
   </a>
   <a r="1">
-    <v t="r">1494</v>
+    <v t="r">1495</v>
   </a>
   <a r="1">
-    <v t="r">1506</v>
+    <v t="r">1507</v>
   </a>
   <a r="1">
-    <v t="r">1517</v>
+    <v t="r">1518</v>
   </a>
   <a r="1">
     <v t="s">Arabic</v>
@@ -7185,7 +7188,7 @@
 </file>
 
 <file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
-<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1624">
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1625">
   <rv s="0">
     <v>536870912</v>
     <v>Kutch district</v>
@@ -14757,15 +14760,8 @@
   </rv>
   <rv s="0">
     <v>536870912</v>
-    <v>Dalur</v>
-    <v>1c438ba2-33da-daa4-0404-9c3860bdc373</v>
-    <v>en-US</v>
-    <v>Map</v>
-  </rv>
-  <rv s="0">
-    <v>536870912</v>
-    <v>Faroe Islands</v>
-    <v>babd3fe8-45a7-a7a2-1f92-d0fa4a3bc6de</v>
+    <v>Himatnagar</v>
+    <v>d928b393-944e-3f84-fb6c-65da35302525</v>
     <v>en-US</v>
     <v>Map</v>
   </rv>
@@ -14775,48 +14771,59 @@
     <v>332</v>
     <v>7</v>
     <v>0</v>
-    <v>Image of Dalur</v>
-  </rv>
-  <rv s="1">
-    <fb>61.782222222222003</fb>
+    <v>Image of Himatnagar</v>
+  </rv>
+  <rv s="1">
+    <fb>23.6</fb>
     <v>46</v>
   </rv>
+  <rv s="0">
+    <v>805306368</v>
+    <v>Anirudh Bhai Sorathiya (Mayor)</v>
+    <v>f1702f95-8bf0-3967-63b6-b1b79ae1032d</v>
+    <v>en-US</v>
+    <v>Generic</v>
+  </rv>
+  <rv s="4">
+    <v>73</v>
+  </rv>
   <rv s="3">
-    <v>https://www.bing.com/search?q=dalur+faroe+islands&amp;form=skydnc</v>
+    <v>https://www.bing.com/search?q=himatnagar+india&amp;form=skydnc</v>
     <v>Learn more on Bing</v>
   </rv>
   <rv s="1">
-    <fb>-6.6755555555555999</fb>
+    <fb>72.95</fb>
     <v>46</v>
   </rv>
   <rv s="1">
-    <fb>37</fb>
+    <fb>181137</fb>
     <v>8</v>
   </rv>
-  <rv s="31">
+  <rv s="42">
     <v>#VALUE!</v>
     <v>en-US</v>
-    <v>1c438ba2-33da-daa4-0404-9c3860bdc373</v>
+    <v>d928b393-944e-3f84-fb6c-65da35302525</v>
     <v>536870912</v>
     <v>1</v>
-    <v>333</v>
-    <v>232</v>
-    <v>Dalur</v>
+    <v>334</v>
+    <v>335</v>
+    <v>Himatnagar</v>
     <v>13</v>
     <v>5</v>
     <v>Map</v>
     <v>6</v>
-    <v>334</v>
+    <v>233</v>
+    <v>3</v>
+    <v>Himatnagar or Himmatnagar is a municipality in Sabarkantha district in the Indian state of Gujarat. It is the administrative headquarters of the district. The city is on the bank of the river Hathmati.</v>
     <v>1004</v>
-    <v>Dalur is a village in the Faroe Islands. Dalur is located on the east-side of Sandoy. The village lies in the bottom of a relatively large valley. Dalur means valley in Faroese. A little road leads from Dalur to the south-tip of the island. From ...</v>
     <v>1005</v>
-    <v>1006</v>
     <v>1007</v>
     <v>1008</v>
-    <v>Dalur</v>
     <v>1009</v>
-    <v>Dalur</v>
-    <v>mdp/vdpid/5454572758937632769</v>
+    <v>Himatnagar</v>
+    <v>1010</v>
+    <v>Himatnagar</v>
+    <v>mdp/vdpid/7410584146612846593</v>
   </rv>
   <rv s="0">
     <v>536870912</v>
@@ -14832,7 +14839,7 @@
   <rv s="2">
     <v>100</v>
     <v>6</v>
-    <v>336</v>
+    <v>337</v>
     <v>7</v>
     <v>0</v>
     <v>Image of Morbi</v>
@@ -14859,7 +14866,7 @@
     <v>bde01640-1e05-2371-a251-12a7f5a57fc5</v>
     <v>536870912</v>
     <v>1</v>
-    <v>337</v>
+    <v>338</v>
     <v>225</v>
     <v>Morbi</v>
     <v>13</v>
@@ -14867,15 +14874,15 @@
     <v>Map</v>
     <v>6</v>
     <v>7</v>
-    <v>1012</v>
+    <v>1013</v>
     <v>3</v>
     <v>Morbi or Morvi is a city known as a ceramics capital of India is in the Morbi district in the state of Gujarat, India. It is situated on the Kathiawar peninsula. In 2011, the city's population was determined to be 194,947. The city is on the ...</v>
-    <v>1013</v>
     <v>1014</v>
     <v>1015</v>
     <v>1016</v>
+    <v>1017</v>
     <v>Morbi</v>
-    <v>1017</v>
+    <v>1018</v>
     <v>Morbi</v>
     <v>mdp/vdpid/7410489276422422529</v>
   </rv>
@@ -14896,7 +14903,7 @@
   <rv s="2">
     <v>101</v>
     <v>6</v>
-    <v>338</v>
+    <v>339</v>
     <v>7</v>
     <v>0</v>
     <v>Image of Tajpur, West Bengal</v>
@@ -14913,26 +14920,26 @@
     <fb>85.666600000000003</fb>
     <v>46</v>
   </rv>
-  <rv s="42">
+  <rv s="43">
     <v>#VALUE!</v>
     <v>en-US</v>
     <v>4291e9f2-3c46-e4f2-87d8-93c3f6950030</v>
     <v>536870912</v>
     <v>1</v>
-    <v>339</v>
     <v>340</v>
+    <v>341</v>
     <v>Tajpur, West Bengal</v>
     <v>182</v>
     <v>5</v>
     <v>Map</v>
     <v>6</v>
-    <v>1020</v>
+    <v>1021</v>
     <v>3</v>
     <v>Tajpur is located in Purba Medinipur, in the state of West Bengal, India on the shore of Bay of Bengal. Tajpur is set between Mandarmani and Shankarpur. Tajpur is 172.9 km via NH16 and NH116B from the state capital Kolkata. It is located under ...</v>
-    <v>1021</v>
     <v>1022</v>
     <v>1023</v>
     <v>1024</v>
+    <v>1025</v>
     <v>Tajpur, West Bengal</v>
     <v>Tajpur, West Bengal</v>
   </rv>
@@ -14957,7 +14964,7 @@
   <rv s="2">
     <v>102</v>
     <v>6</v>
-    <v>341</v>
+    <v>342</v>
     <v>7</v>
     <v>0</v>
     <v>Image of Dindigul</v>
@@ -14981,7 +14988,7 @@
     <v>Generic</v>
   </rv>
   <rv s="4">
-    <v>73</v>
+    <v>74</v>
   </rv>
   <rv s="3">
     <v>https://www.bing.com/search?q=dindigul+india&amp;form=skydnc</v>
@@ -15001,7 +15008,7 @@
     <v>96dc2ec4-1a39-2203-433b-4a2e36916bff</v>
     <v>536870912</v>
     <v>1</v>
-    <v>342</v>
+    <v>343</v>
     <v>147</v>
     <v>Dindigul</v>
     <v>13</v>
@@ -15010,16 +15017,16 @@
     <v>6</v>
     <v>7</v>
     <v>81</v>
-    <v>1028</v>
+    <v>1029</v>
     <v>3</v>
     <v>Thindukkalalso spelt, Dindigul, is a city in the Indian state of Tamil Nadu. It is the administrative headquarters of the Dindigul district. Dindigul is located 420 km southwest from the state capital, Chennai, 100 km away from Tiruchirappalli, ...</v>
-    <v>1029</v>
     <v>1030</v>
-    <v>1033</v>
+    <v>1031</v>
     <v>1034</v>
     <v>1035</v>
+    <v>1036</v>
     <v>Dindigul</v>
-    <v>1036</v>
+    <v>1037</v>
     <v>Dindigul</v>
     <v>mdp/vdpid/7479016827863957506</v>
   </rv>
@@ -15037,7 +15044,7 @@
   <rv s="2">
     <v>103</v>
     <v>6</v>
-    <v>343</v>
+    <v>344</v>
     <v>7</v>
     <v>0</v>
     <v>Image of Tirunelveli</v>
@@ -15054,7 +15061,7 @@
     <v>Generic</v>
   </rv>
   <rv s="4">
-    <v>74</v>
+    <v>75</v>
   </rv>
   <rv s="3">
     <v>https://www.bing.com/search?q=tirunelveli&amp;form=skydnc</v>
@@ -15074,7 +15081,7 @@
     <v>c898bf7f-5176-4c91-8ba3-7994953ba7e2</v>
     <v>536870912</v>
     <v>1</v>
-    <v>344</v>
+    <v>345</v>
     <v>44</v>
     <v>Tirunelveli</v>
     <v>13</v>
@@ -15083,16 +15090,16 @@
     <v>6</v>
     <v>7</v>
     <v>81</v>
-    <v>1039</v>
+    <v>1040</v>
     <v>3</v>
     <v>Tirunelveli, also known as Nellai and historically as Tinnevelly, is a major city in the Indian state of Tamil Nadu. It is the administrative headquarters of the Tirunelveli District. It is the fourth-largest municipal corporation in the state ...</v>
-    <v>1040</v>
     <v>1041</v>
-    <v>1043</v>
+    <v>1042</v>
     <v>1044</v>
     <v>1045</v>
+    <v>1046</v>
     <v>Tirunelveli</v>
-    <v>1046</v>
+    <v>1047</v>
     <v>8</v>
     <v>Tirunelveli</v>
     <v>mdp/vdpid/7479309441888681986</v>
@@ -15125,7 +15132,7 @@
   <rv s="2">
     <v>104</v>
     <v>6</v>
-    <v>345</v>
+    <v>346</v>
     <v>7</v>
     <v>0</v>
     <v>Image of Abu Dhabi</v>
@@ -15147,7 +15154,7 @@
     <v>8</v>
   </rv>
   <rv s="4">
-    <v>75</v>
+    <v>76</v>
   </rv>
   <rv s="22">
     <v>#VALUE!</v>
@@ -15155,7 +15162,7 @@
     <v>5c13f73c-6c26-b05a-8294-4e5d670b582c</v>
     <v>536870912</v>
     <v>1</v>
-    <v>346</v>
+    <v>347</v>
     <v>153</v>
     <v>Abu Dhabi</v>
     <v>13</v>
@@ -15163,17 +15170,17 @@
     <v>Map</v>
     <v>6</v>
     <v>228</v>
-    <v>1049</v>
     <v>1050</v>
     <v>1051</v>
+    <v>1052</v>
     <v>Abu Dhabi is the capital city of the United Arab Emirates. The city is the seat of the Abu Dhabi Central Capital District, the capital city of the Emirate of Abu Dhabi, and the UAE's second-most populous city, after Dubai. The city is situated ...</v>
-    <v>1052</v>
     <v>1053</v>
     <v>1054</v>
     <v>1055</v>
+    <v>1056</v>
     <v>Abu Dhabi</v>
-    <v>1056</v>
     <v>1057</v>
+    <v>1058</v>
     <v>Abu Dhabi</v>
     <v>mdp/vdpid/7376443939491938305</v>
   </rv>
@@ -15191,7 +15198,7 @@
   <rv s="2">
     <v>105</v>
     <v>6</v>
-    <v>347</v>
+    <v>348</v>
     <v>7</v>
     <v>0</v>
     <v>Image of Srikalahasti</v>
@@ -15218,7 +15225,7 @@
     <v>8d32d98c-f73f-d522-ab5d-56d46c9ae65f</v>
     <v>536870912</v>
     <v>1</v>
-    <v>348</v>
+    <v>349</v>
     <v>225</v>
     <v>Srikalahasti</v>
     <v>13</v>
@@ -15226,15 +15233,15 @@
     <v>Map</v>
     <v>6</v>
     <v>7</v>
-    <v>1060</v>
+    <v>1061</v>
     <v>3</v>
     <v>Srikalahasti is a town in Tirupati district located in the Indian state of Andhra Pradesh. It is a municipality and the revenue division of Srikalahasti mandal and Srikalahasti revenue division. It is a part of the Tirupati Urban Development ...</v>
-    <v>1061</v>
     <v>1062</v>
     <v>1063</v>
     <v>1064</v>
+    <v>1065</v>
     <v>Srikalahasti</v>
-    <v>1065</v>
+    <v>1066</v>
     <v>Srikalahasti</v>
     <v>mdp/vdpid/7472640822916153345</v>
   </rv>
@@ -15259,7 +15266,7 @@
   <rv s="2">
     <v>106</v>
     <v>6</v>
-    <v>349</v>
+    <v>350</v>
     <v>7</v>
     <v>0</v>
     <v>Image of Hindupur</v>
@@ -15286,7 +15293,7 @@
     <v>86b41797-556b-e1b2-7cca-47435dd3f45f</v>
     <v>536870912</v>
     <v>1</v>
-    <v>350</v>
+    <v>351</v>
     <v>153</v>
     <v>Hindupur</v>
     <v>13</v>
@@ -15294,16 +15301,16 @@
     <v>Map</v>
     <v>6</v>
     <v>7</v>
-    <v>1068</v>
     <v>1069</v>
+    <v>1070</v>
     <v>435</v>
     <v>Hindupuram is the largest city in Sri Sathya Sai district of the Indian state of Andhra Pradesh. It is located to the edge of the Andhra–Karnataka border and is the headquarters of Hindupuram mandalam. Hindupuram is the Parliamentary ...</v>
-    <v>1070</v>
     <v>1071</v>
     <v>1072</v>
     <v>1073</v>
+    <v>1074</v>
     <v>Hindupur</v>
-    <v>1074</v>
+    <v>1075</v>
     <v>8</v>
     <v>Hindupur</v>
     <v>mdp/vdpid/7466551363019735041</v>
@@ -15322,7 +15329,7 @@
   <rv s="2">
     <v>107</v>
     <v>6</v>
-    <v>351</v>
+    <v>352</v>
     <v>7</v>
     <v>0</v>
     <v>Image of Palani</v>
@@ -15349,7 +15356,7 @@
     <v>55107b20-5f79-c4a7-f4cf-afb551c31899</v>
     <v>536870912</v>
     <v>1</v>
-    <v>352</v>
+    <v>353</v>
     <v>261</v>
     <v>Palani</v>
     <v>13</v>
@@ -15358,15 +15365,15 @@
     <v>6</v>
     <v>7</v>
     <v>81</v>
-    <v>1077</v>
+    <v>1078</v>
     <v>3</v>
     <v>Palani (Tamil:, is a town and a taluk headquarters in Dindigul district of the western part of Tamil Nadu state in India. It is located about 106 kilometres south-east of Coimbatore and 122 kilometres north-west of Madurai, 67 kilometres from ...</v>
-    <v>1078</v>
     <v>1079</v>
     <v>1080</v>
     <v>1081</v>
+    <v>1082</v>
     <v>Palani</v>
-    <v>1082</v>
+    <v>1083</v>
     <v>Palani</v>
     <v>mdp/vdpid/7479003078415351809</v>
   </rv>
@@ -15384,7 +15391,7 @@
   <rv s="2">
     <v>108</v>
     <v>6</v>
-    <v>354</v>
+    <v>355</v>
     <v>7</v>
     <v>0</v>
     <v>Image of Vapi</v>
@@ -15401,27 +15408,27 @@
     <fb>72.900000000000006</fb>
     <v>46</v>
   </rv>
-  <rv s="43">
+  <rv s="44">
     <v>#VALUE!</v>
     <v>en-US</v>
     <v>ffe516fe-6177-4e76-dfa9-062083dd13ba</v>
     <v>536870912</v>
     <v>1</v>
-    <v>355</v>
     <v>356</v>
+    <v>357</v>
     <v>Vapi</v>
     <v>13</v>
     <v>5</v>
     <v>Map</v>
     <v>6</v>
     <v>219</v>
-    <v>1085</v>
+    <v>1086</v>
     <v>435</v>
     <v>Vapi, is a city and Municipal Corporation in Valsad district in the state of Gujarat, India. It is situated near the banks of the Daman Ganga River, around 28 km south of the district headquarters in the city of Valsad, and it is surrounded by ...</v>
-    <v>1086</v>
     <v>1087</v>
     <v>1088</v>
     <v>1089</v>
+    <v>1090</v>
     <v>Vapi</v>
     <v>19</v>
     <v>Vapi</v>
@@ -15437,7 +15444,7 @@
   <rv s="2">
     <v>109</v>
     <v>6</v>
-    <v>357</v>
+    <v>358</v>
     <v>7</v>
     <v>0</v>
     <v>Image of Hapur</v>
@@ -15458,14 +15465,14 @@
     <fb>317004</fb>
     <v>8</v>
   </rv>
-  <rv s="44">
+  <rv s="45">
     <v>#VALUE!</v>
     <v>en-US</v>
     <v>d767e6bc-57ad-6d5a-6107-de242d21f466</v>
     <v>536870912</v>
     <v>1</v>
-    <v>359</v>
     <v>360</v>
+    <v>361</v>
     <v>Hapur</v>
     <v>13</v>
     <v>5</v>
@@ -15475,12 +15482,12 @@
     <v>83</v>
     <v>3</v>
     <v>Hapur is a city in, as well as the headquarters of, Hapur district, in Uttar Pradesh, India. Located about 60 kilometres east of New Delhi, the city is part of the Delhi National Capital Region. National Highway 9 passes through the city, ...</v>
-    <v>1092</v>
     <v>1093</v>
     <v>1094</v>
     <v>1095</v>
+    <v>1096</v>
     <v>Hapur</v>
-    <v>1096</v>
+    <v>1097</v>
     <v>Hapur</v>
     <v>mdp/vdpid/7408361117040246785</v>
   </rv>
@@ -15505,7 +15512,7 @@
   <rv s="2">
     <v>110</v>
     <v>6</v>
-    <v>362</v>
+    <v>363</v>
     <v>7</v>
     <v>0</v>
     <v>Image of Jhajjar</v>
@@ -15532,7 +15539,7 @@
     <v>0c46c9e3-fd7d-cfa9-2955-3894d919dd21</v>
     <v>536870912</v>
     <v>1</v>
-    <v>363</v>
+    <v>364</v>
     <v>174</v>
     <v>Jhajjar</v>
     <v>13</v>
@@ -15540,16 +15547,16 @@
     <v>Map</v>
     <v>6</v>
     <v>7</v>
-    <v>1099</v>
     <v>1100</v>
+    <v>1101</v>
     <v>3</v>
     <v>Jhajjar is a town in Jhajjar district in the Indian state of Haryana.It is a part of Delhi National Capital Region and situated on the road connecting Rewari to Rohtak, Loharu to Meerut, Charkhi Dadri to Delhi and Gurgaon to Bhiwani. Jhajjar is ...</v>
-    <v>1101</v>
     <v>1102</v>
     <v>1103</v>
     <v>1104</v>
+    <v>1105</v>
     <v>Jhajjar</v>
-    <v>1105</v>
+    <v>1106</v>
     <v>8</v>
     <v>Jhajjar</v>
     <v>mdp/vdpid/7408250169344393218</v>
@@ -15561,7 +15568,7 @@
   <rv s="2">
     <v>111</v>
     <v>6</v>
-    <v>364</v>
+    <v>365</v>
     <v>7</v>
     <v>0</v>
     <v>Image of Jhajjar district</v>
@@ -15580,7 +15587,7 @@
     <v>f1ab1f51-a875-3fa4-9dc0-a7cc657edc01</v>
     <v>536870912</v>
     <v>1</v>
-    <v>365</v>
+    <v>366</v>
     <v>200</v>
     <v>Jhajjar district</v>
     <v>13</v>
@@ -15589,14 +15596,14 @@
     <v>6</v>
     <v>7</v>
     <v>66</v>
-    <v>1107</v>
+    <v>1108</v>
     <v>3</v>
     <v>Jhajjar district is one of the 22 districts of Haryana state in northern India. Carved out of Rohtak district on 15 July 1997 and with its headquarters in Jhajjar, it lies 29 kilometres from Delhi and had developed into an important industrial ...</v>
-    <v>1108</v>
-    <v>1098</v>
     <v>1109</v>
+    <v>1099</v>
+    <v>1110</v>
     <v>Jhajjar district</v>
-    <v>1110</v>
+    <v>1111</v>
     <v>Jhajjar district</v>
     <v>mdp/vdpid/-7996806754</v>
   </rv>
@@ -15625,7 +15632,7 @@
     <v>f5f44025-2886-5506-2f58-617ddc9fc91a</v>
     <v>536870912</v>
     <v>1</v>
-    <v>367</v>
+    <v>368</v>
     <v>298</v>
     <v>Dahej Port</v>
     <v>13</v>
@@ -15635,9 +15642,9 @@
     <v>1</v>
     <v>3</v>
     <v>Dahej is a cargo port situated on the South-west coast of Gujarat, India in Bharuch district. There is 17.5 million tonnes per year capacity LNG terminal operated by Petronet in Dahej.</v>
-    <v>1113</v>
     <v>1114</v>
     <v>1115</v>
+    <v>1116</v>
     <v>Dahej Port</v>
     <v>Dahej Port</v>
     <v>mdp/vdpid/7458772205443219457</v>
@@ -15656,7 +15663,7 @@
   <rv s="2">
     <v>112</v>
     <v>6</v>
-    <v>368</v>
+    <v>369</v>
     <v>7</v>
     <v>0</v>
     <v>Image of Halol</v>
@@ -15683,7 +15690,7 @@
     <v>f804fdcd-25c9-cbdf-6e84-20360bc1be77</v>
     <v>536870912</v>
     <v>1</v>
-    <v>370</v>
+    <v>371</v>
     <v>225</v>
     <v>Halol</v>
     <v>13</v>
@@ -15691,15 +15698,15 @@
     <v>Map</v>
     <v>6</v>
     <v>148</v>
-    <v>1118</v>
+    <v>1119</v>
     <v>3</v>
     <v>Halol is a city and a municipality in Panchmahal district in the Indian state of Gujarat. Located in western India, it has an average elevation of 499 metres. Halol is a major manufacturing hub of Western India, home to manufacturing facilities ...</v>
-    <v>1119</v>
     <v>1120</v>
     <v>1121</v>
     <v>1122</v>
+    <v>1123</v>
     <v>Halol</v>
-    <v>1123</v>
+    <v>1124</v>
     <v>Halol</v>
     <v>mdp/vdpid/7412177241670418433</v>
   </rv>
@@ -15720,7 +15727,7 @@
   <rv s="2">
     <v>113</v>
     <v>6</v>
-    <v>371</v>
+    <v>372</v>
     <v>7</v>
     <v>0</v>
     <v>Image of Burnpur</v>
@@ -15737,26 +15744,26 @@
     <fb>86.933300000000003</fb>
     <v>46</v>
   </rv>
-  <rv s="45">
+  <rv s="46">
     <v>#VALUE!</v>
     <v>en-US</v>
     <v>fe78c9b7-27b6-6b55-0979-7ade72b94315</v>
     <v>536870912</v>
     <v>1</v>
-    <v>372</v>
     <v>373</v>
+    <v>374</v>
     <v>Burnpur</v>
     <v>13</v>
     <v>5</v>
     <v>Map</v>
     <v>6</v>
-    <v>1126</v>
+    <v>1127</v>
     <v>3</v>
     <v>Burnpur is a captive township of SAIL, the area covered by IISCO Steel Plant and its surroundings in Asansol of Paschim Bardhaman district, in the heart of the mining-industrial belt in the western periphery of the state of West Bengal, India. ...</v>
-    <v>1127</v>
     <v>1128</v>
     <v>1129</v>
     <v>1130</v>
+    <v>1131</v>
     <v>Burnpur</v>
     <v>8</v>
     <v>Burnpur</v>
@@ -15803,30 +15810,30 @@
     <fb>494792</fb>
     <v>8</v>
   </rv>
-  <rv s="46">
+  <rv s="47">
     <v>#VALUE!</v>
     <v>en-US</v>
     <v>e7c0d37d-8727-3012-7a9f-5c8946ef59a2</v>
     <v>536870912</v>
     <v>1</v>
-    <v>375</v>
     <v>376</v>
+    <v>377</v>
     <v>Muzaffarnagar</v>
     <v>13</v>
     <v>299</v>
     <v>Map</v>
     <v>6</v>
     <v>7</v>
-    <v>1133</v>
     <v>1134</v>
     <v>1135</v>
+    <v>1136</v>
     <v>3</v>
     <v>Muzaffarnagar is a city under Muzaffarnagar district in the Indian State of Uttar Pradesh. It is situated midway on the Delhi - Haridwar/Dehradun National Highway and is also well connected with the national railway network. It is known as the ...</v>
-    <v>1136</v>
     <v>1137</v>
     <v>1138</v>
+    <v>1139</v>
     <v>Muzaffarnagar</v>
-    <v>1139</v>
+    <v>1140</v>
     <v>8</v>
     <v>Muzaffarnagar</v>
     <v>mdp/vdpid/7408289752970952705</v>
@@ -15845,7 +15852,7 @@
   <rv s="2">
     <v>114</v>
     <v>6</v>
-    <v>377</v>
+    <v>378</v>
     <v>7</v>
     <v>0</v>
     <v>Image of Haridwar</v>
@@ -15862,7 +15869,7 @@
     <v>Generic</v>
   </rv>
   <rv s="4">
-    <v>76</v>
+    <v>77</v>
   </rv>
   <rv s="3">
     <v>https://www.bing.com/search?q=haridwar&amp;form=skydnc</v>
@@ -15882,7 +15889,7 @@
     <v>1feb6791-f420-21a4-a273-39084e688925</v>
     <v>536870912</v>
     <v>1</v>
-    <v>379</v>
+    <v>380</v>
     <v>147</v>
     <v>Haridwar</v>
     <v>13</v>
@@ -15891,16 +15898,16 @@
     <v>6</v>
     <v>7</v>
     <v>406</v>
-    <v>1142</v>
+    <v>1143</v>
     <v>3</v>
     <v>Haridwar is a city and municipal corporation in the Haridwar district of Uttarakhand, India. With a population of 228,832 in 2011, it is the second-largest city in the state and the largest in the district.</v>
-    <v>1143</v>
     <v>1144</v>
-    <v>1146</v>
+    <v>1145</v>
     <v>1147</v>
     <v>1148</v>
+    <v>1149</v>
     <v>Haridwar</v>
-    <v>1149</v>
+    <v>1150</v>
     <v>Haridwar</v>
     <v>mdp/vdpid/7408110119235354625</v>
   </rv>
@@ -15925,7 +15932,7 @@
   <rv s="2">
     <v>115</v>
     <v>6</v>
-    <v>380</v>
+    <v>381</v>
     <v>7</v>
     <v>0</v>
     <v>Image of Kashipur, Uttarakhand</v>
@@ -15942,7 +15949,7 @@
     <v>Generic</v>
   </rv>
   <rv s="4">
-    <v>77</v>
+    <v>78</v>
   </rv>
   <rv s="3">
     <v>https://www.bing.com/search?q=kashipur%2c+uttarakhand+india&amp;form=skydnc</v>
@@ -15952,29 +15959,29 @@
     <fb>78.955833333333004</fb>
     <v>46</v>
   </rv>
-  <rv s="47">
+  <rv s="48">
     <v>#VALUE!</v>
     <v>en-US</v>
     <v>c2a7d58e-bd7c-940f-9a08-00b1af2bb1d2</v>
     <v>536870912</v>
     <v>1</v>
-    <v>381</v>
     <v>382</v>
+    <v>383</v>
     <v>Kashipur, Uttarakhand</v>
     <v>13</v>
     <v>5</v>
     <v>Map</v>
     <v>6</v>
     <v>219</v>
-    <v>1152</v>
     <v>1153</v>
+    <v>1154</v>
     <v>3</v>
     <v>Kashipur is a city of Udham Singh Nagar district in the Indian state of Uttarakhand, and one of its seven subdivisions. Located in the western part of Udham Singh Nagar district, it is Kumaun's third most populous city and the sixth most ...</v>
-    <v>1154</v>
     <v>1155</v>
-    <v>1157</v>
+    <v>1156</v>
     <v>1158</v>
     <v>1159</v>
+    <v>1160</v>
     <v>Kashipur, Uttarakhand</v>
     <v>8</v>
     <v>Kashipur, Uttarakhand</v>
@@ -16001,7 +16008,7 @@
   <rv s="2">
     <v>116</v>
     <v>6</v>
-    <v>383</v>
+    <v>384</v>
     <v>7</v>
     <v>0</v>
     <v>Image of Tezpur</v>
@@ -16028,7 +16035,7 @@
     <v>669bab7a-7a16-dc0d-9b1f-0348954c070e</v>
     <v>536870912</v>
     <v>1</v>
-    <v>384</v>
+    <v>385</v>
     <v>174</v>
     <v>Tezpur</v>
     <v>13</v>
@@ -16036,16 +16043,16 @@
     <v>Map</v>
     <v>6</v>
     <v>7</v>
-    <v>1162</v>
     <v>1163</v>
+    <v>1164</v>
     <v>3</v>
     <v>Tezpur is a city in Sonitpur district, Assam state, India. Tezpur is located on the banks of the river Brahmaputra, 175 kilometres northeast of Guwahati, and is the largest of the north bank cities. Tezpur was under the rule of the Koch dynasty ...</v>
-    <v>1164</v>
     <v>1165</v>
     <v>1166</v>
     <v>1167</v>
+    <v>1168</v>
     <v>Tezpur</v>
-    <v>1168</v>
+    <v>1169</v>
     <v>8</v>
     <v>Tezpur</v>
     <v>mdp/vdpid/7805207149360971778</v>
@@ -16064,7 +16071,7 @@
   <rv s="2">
     <v>117</v>
     <v>6</v>
-    <v>385</v>
+    <v>386</v>
     <v>7</v>
     <v>0</v>
     <v>Image of Erode</v>
@@ -16081,7 +16088,7 @@
     <v>Generic</v>
   </rv>
   <rv s="4">
-    <v>78</v>
+    <v>79</v>
   </rv>
   <rv s="3">
     <v>https://www.bing.com/search?q=erode+india&amp;form=skydnc</v>
@@ -16101,7 +16108,7 @@
     <v>4803898f-6e56-e932-9e93-e70a8dacc5a1</v>
     <v>536870912</v>
     <v>1</v>
-    <v>386</v>
+    <v>387</v>
     <v>44</v>
     <v>Erode</v>
     <v>13</v>
@@ -16110,16 +16117,16 @@
     <v>6</v>
     <v>7</v>
     <v>81</v>
-    <v>1171</v>
+    <v>1172</v>
     <v>435</v>
     <v>Erode, is a city in the Indian state of Tamil Nadu. It is located on the banks of the Kaveri river and is surrounded by the Western Ghats. Erode is the seventh largest urban agglomeration in Tamil Nadu. It is the administrative capital of Erode ...</v>
-    <v>1172</v>
     <v>1173</v>
-    <v>1175</v>
+    <v>1174</v>
     <v>1176</v>
     <v>1177</v>
+    <v>1178</v>
     <v>Erode</v>
-    <v>1178</v>
+    <v>1179</v>
     <v>8</v>
     <v>Erode</v>
     <v>mdp/vdpid/7466928969229533186</v>
@@ -16141,7 +16148,7 @@
   <rv s="2">
     <v>118</v>
     <v>6</v>
-    <v>387</v>
+    <v>388</v>
     <v>7</v>
     <v>0</v>
     <v>Image of Rangiya</v>
@@ -16162,29 +16169,29 @@
     <fb>26389</fb>
     <v>8</v>
   </rv>
-  <rv s="48">
+  <rv s="49">
     <v>#VALUE!</v>
     <v>en-US</v>
     <v>bd939bed-1e3c-b12b-c732-b684b06cc55d</v>
     <v>536870912</v>
     <v>1</v>
-    <v>389</v>
     <v>390</v>
+    <v>391</v>
     <v>Rangiya</v>
     <v>13</v>
     <v>5</v>
     <v>Map</v>
     <v>6</v>
     <v>233</v>
-    <v>1181</v>
+    <v>1182</v>
     <v>3</v>
     <v>Rangiya is a plantation valley city and a municipal board located in the Kamrup Rural district of Assam, India. Rangiya serves as the sub-district headquarter of Rangiya Sub-district in Kamrup Rural District. One of Rangiya's significant ...</v>
-    <v>1182</v>
     <v>1183</v>
     <v>1184</v>
     <v>1185</v>
+    <v>1186</v>
     <v>Rangiya</v>
-    <v>1186</v>
+    <v>1187</v>
     <v>Rangiya</v>
     <v>mdp/vdpid/7805168196624842753</v>
   </rv>
@@ -16198,7 +16205,7 @@
   <rv s="2">
     <v>119</v>
     <v>6</v>
-    <v>391</v>
+    <v>392</v>
     <v>7</v>
     <v>0</v>
     <v>Image of Cheyyur</v>
@@ -16215,14 +16222,14 @@
     <fb>80.003055560000007</fb>
     <v>46</v>
   </rv>
-  <rv s="49">
+  <rv s="50">
     <v>#VALUE!</v>
     <v>en-US</v>
     <v>f0cf3a3d-961d-4afb-8f13-760dbe2a434a</v>
     <v>536870912</v>
     <v>1</v>
-    <v>392</v>
     <v>393</v>
+    <v>394</v>
     <v>Cheyyur</v>
     <v>13</v>
     <v>5</v>
@@ -16230,10 +16237,10 @@
     <v>6</v>
     <v>3</v>
     <v>Cheyyur, is a town in Chengalpattu district in the Indian state of Tamil Nadu. Cheyyur is surrounded by four sub-areas: North, East, South and West Cheyyur. The town has a Taluk Office and a regional treasury centre. It is the administrative ...</v>
-    <v>1189</v>
     <v>1190</v>
     <v>1191</v>
     <v>1192</v>
+    <v>1193</v>
     <v>Cheyyur</v>
     <v>Cheyyur</v>
     <v>mdp/vdpid/7472930476265570305</v>
@@ -16255,7 +16262,7 @@
   <rv s="2">
     <v>120</v>
     <v>6</v>
-    <v>394</v>
+    <v>395</v>
     <v>7</v>
     <v>0</v>
     <v>Image of Panipat</v>
@@ -16272,7 +16279,7 @@
     <v>Generic</v>
   </rv>
   <rv s="4">
-    <v>79</v>
+    <v>80</v>
   </rv>
   <rv s="3">
     <v>https://www.bing.com/search?q=panipat+india&amp;form=skydnc</v>
@@ -16292,7 +16299,7 @@
     <v>02cb7cc0-5b6a-19c5-96e5-8349bf0f867c</v>
     <v>536870912</v>
     <v>1</v>
-    <v>395</v>
+    <v>396</v>
     <v>44</v>
     <v>Panipat</v>
     <v>13</v>
@@ -16300,17 +16307,17 @@
     <v>Map</v>
     <v>6</v>
     <v>7</v>
-    <v>1195</v>
+    <v>1196</v>
     <v>772</v>
     <v>3</v>
     <v>Panipat is an industrial city, located 95 km north of Delhi and 169 km south of Chandigarh on NH-44 in Panipat district, Haryana, India. It is famous for three major battles fought in 1526, 1556 and 1761. The city is also known as 'city of ...</v>
-    <v>1196</v>
     <v>1197</v>
-    <v>1199</v>
+    <v>1198</v>
     <v>1200</v>
     <v>1201</v>
+    <v>1202</v>
     <v>Panipat</v>
-    <v>1202</v>
+    <v>1203</v>
     <v>8</v>
     <v>Panipat</v>
     <v>mdp/vdpid/7408179145131163650</v>
@@ -16325,7 +16332,7 @@
   <rv s="2">
     <v>121</v>
     <v>6</v>
-    <v>396</v>
+    <v>397</v>
     <v>7</v>
     <v>0</v>
     <v>Image of Fatehabad district</v>
@@ -16352,7 +16359,7 @@
     <v>a817ae10-5c3f-e6a6-2dd6-c9da9f1f79d8</v>
     <v>536870912</v>
     <v>1</v>
-    <v>397</v>
+    <v>398</v>
     <v>153</v>
     <v>Fatehabad district</v>
     <v>13</v>
@@ -16364,12 +16371,12 @@
     <v>829</v>
     <v>3</v>
     <v>Fatehabad district is one of the twenty two districts of the state of Haryana, India. Fatehabad was founded by Firuz Shah Tughlaq. Fatehabad district was carved out of Hisar district on 15 July 1997. It borders districts of Mansa and Sangrur in ...</v>
-    <v>1205</v>
     <v>1206</v>
     <v>1207</v>
     <v>1208</v>
+    <v>1209</v>
     <v>Fatehabad district</v>
-    <v>1209</v>
+    <v>1210</v>
     <v>8</v>
     <v>Fatehabad district</v>
     <v>mdp/vdpid/-7996806577</v>
@@ -16455,7 +16462,7 @@
   <rv s="2">
     <v>122</v>
     <v>6</v>
-    <v>399</v>
+    <v>400</v>
     <v>7</v>
     <v>0</v>
     <v>Image of Nepal</v>
@@ -16493,7 +16500,7 @@
     <v>Generic</v>
   </rv>
   <rv s="4">
-    <v>80</v>
+    <v>81</v>
   </rv>
   <rv s="3">
     <v>https://www.bing.com/search?q=nepal&amp;form=skydnc</v>
@@ -16512,7 +16519,7 @@
     <v>39</v>
   </rv>
   <rv s="4">
-    <v>81</v>
+    <v>82</v>
   </rv>
   <rv s="1">
     <fb>0.6040867741</fb>
@@ -16563,7 +16570,7 @@
     <v>34</v>
   </rv>
   <rv s="4">
-    <v>82</v>
+    <v>83</v>
   </rv>
   <rv s="1">
     <fb>0.41799999999999998</fb>
@@ -16577,22 +16584,21 @@
     <fb>5765513</fb>
     <v>8</v>
   </rv>
-  <rv s="50">
+  <rv s="51">
     <v>#VALUE!</v>
     <v>en-US</v>
     <v>bd25e121-3806-b6fe-1af9-3f5745ae2708</v>
     <v>536870912</v>
     <v>1</v>
-    <v>402</v>
     <v>403</v>
+    <v>404</v>
     <v>Nepal</v>
     <v>13</v>
     <v>5</v>
     <v>Map</v>
     <v>6</v>
-    <v>404</v>
+    <v>405</v>
     <v>NP</v>
-    <v>1212</v>
     <v>1213</v>
     <v>1214</v>
     <v>1215</v>
@@ -16601,9 +16607,9 @@
     <v>1218</v>
     <v>1219</v>
     <v>1220</v>
+    <v>1221</v>
     <v>NPR</v>
     <v>Nepal, officially the Federal Democratic Republic of Nepal, is a landlocked country in South Asia. It is mainly situated in the Himalayas, but also includes parts of the Indo-Gangetic Plain. It borders the Tibet Autonomous Region of China to the ...</v>
-    <v>1221</v>
     <v>1222</v>
     <v>1223</v>
     <v>1224</v>
@@ -16613,17 +16619,17 @@
     <v>1228</v>
     <v>1229</v>
     <v>1230</v>
-    <v>1217</v>
-    <v>1235</v>
+    <v>1231</v>
+    <v>1218</v>
     <v>1236</v>
     <v>1237</v>
     <v>1238</v>
     <v>1239</v>
+    <v>1240</v>
     <v>Nepal</v>
     <v>Sayaun Thunga Phulka</v>
-    <v>1240</v>
+    <v>1241</v>
     <v>नेपाल</v>
-    <v>1241</v>
     <v>1242</v>
     <v>1243</v>
     <v>1244</v>
@@ -16638,8 +16644,9 @@
     <v>1253</v>
     <v>1254</v>
     <v>1255</v>
+    <v>1256</v>
     <v>Nepal</v>
-    <v>1256</v>
+    <v>1257</v>
     <v>mdp/vdpid/178</v>
   </rv>
   <rv s="0">
@@ -16663,7 +16670,7 @@
   <rv s="2">
     <v>123</v>
     <v>6</v>
-    <v>405</v>
+    <v>406</v>
     <v>7</v>
     <v>0</v>
     <v>Image of Ahmednagar</v>
@@ -16680,7 +16687,7 @@
     <v>Generic</v>
   </rv>
   <rv s="4">
-    <v>83</v>
+    <v>84</v>
   </rv>
   <rv s="3">
     <v>https://www.bing.com/search?q=ahmednagar&amp;form=skydnc</v>
@@ -16700,7 +16707,7 @@
     <v>2386dbc3-e719-333a-b367-c42042ab9c62</v>
     <v>536870912</v>
     <v>1</v>
-    <v>406</v>
+    <v>407</v>
     <v>140</v>
     <v>Ahmednagar</v>
     <v>13</v>
@@ -16708,17 +16715,17 @@
     <v>Map</v>
     <v>6</v>
     <v>7</v>
-    <v>1259</v>
     <v>1260</v>
+    <v>1261</v>
     <v>3</v>
     <v>Ahmednagar is a city in the Ahmednagar district, Maharashtra, India, about 120 km northeast of Pune and 114 km from Aurangabad. It is the seat of its namesake district. Ahmednagar has several dozen buildings and sites from the Nizam Shahi ...</v>
-    <v>1261</v>
     <v>1262</v>
-    <v>1264</v>
+    <v>1263</v>
     <v>1265</v>
     <v>1266</v>
+    <v>1267</v>
     <v>Ahmednagar</v>
-    <v>1267</v>
+    <v>1268</v>
     <v>Ahmednagar</v>
     <v>mdp/vdpid/7461504013956022273</v>
   </rv>
@@ -16736,7 +16743,7 @@
   <rv s="2">
     <v>124</v>
     <v>6</v>
-    <v>407</v>
+    <v>408</v>
     <v>7</v>
     <v>0</v>
     <v>Image of Rajkot</v>
@@ -16760,7 +16767,7 @@
     <v>Generic</v>
   </rv>
   <rv s="4">
-    <v>84</v>
+    <v>85</v>
   </rv>
   <rv s="3">
     <v>https://www.bing.com/search?q=rajkot&amp;form=skydnc</v>
@@ -16780,7 +16787,7 @@
     <v>cb746b59-d22e-8f7d-e192-c6e8f4f6fa1b</v>
     <v>536870912</v>
     <v>1</v>
-    <v>408</v>
+    <v>409</v>
     <v>124</v>
     <v>Rajkot</v>
     <v>13</v>
@@ -16788,16 +16795,16 @@
     <v>Map</v>
     <v>6</v>
     <v>228</v>
-    <v>1270</v>
+    <v>1271</v>
     <v>3</v>
     <v>Rajkot is the fourth-largest city in the Indian state of Gujarat after Ahmedabad, Vadodara, and Surat, and is in the centre of the Saurashtra region of Gujarat. Rajkot is the 35th-largest metropolitan area in India, with a population of more ...</v>
-    <v>1271</v>
     <v>1272</v>
-    <v>1275</v>
+    <v>1273</v>
     <v>1276</v>
     <v>1277</v>
+    <v>1278</v>
     <v>Rajkot</v>
-    <v>1278</v>
+    <v>1279</v>
     <v>Rajkot</v>
     <v>mdp/vdpid/7458534917459148801</v>
   </rv>
@@ -16811,7 +16818,7 @@
   <rv s="2">
     <v>125</v>
     <v>6</v>
-    <v>409</v>
+    <v>410</v>
     <v>7</v>
     <v>0</v>
     <v>Image of Bhachau</v>
@@ -16832,30 +16839,30 @@
     <fb>180000</fb>
     <v>8</v>
   </rv>
-  <rv s="51">
+  <rv s="52">
     <v>#VALUE!</v>
     <v>en-US</v>
     <v>81756b85-936b-ea94-8eea-ccf853bed777</v>
     <v>536870912</v>
     <v>1</v>
-    <v>410</v>
     <v>411</v>
+    <v>412</v>
     <v>Bhachau</v>
     <v>13</v>
     <v>5</v>
     <v>Map</v>
     <v>6</v>
-    <v>412</v>
+    <v>413</v>
     <v>1</v>
     <v>0</v>
     <v>3</v>
     <v>Bhachau is a city and a municipality in Kutch district in the state of Gujarat, India. Bhachau was one of many devastated towns in the Kutch region of the Indian state of Gujarat, during the 1956 Anjar earthquake as well as in the 2001 Gujarat ...</v>
-    <v>1281</v>
     <v>1282</v>
     <v>1283</v>
     <v>1284</v>
+    <v>1285</v>
     <v>Bhachau</v>
-    <v>1285</v>
+    <v>1286</v>
     <v>8</v>
     <v>Bhachau</v>
     <v>mdp/vdpid/7458592167510933505</v>
@@ -16881,7 +16888,7 @@
   <rv s="2">
     <v>126</v>
     <v>6</v>
-    <v>413</v>
+    <v>414</v>
     <v>7</v>
     <v>0</v>
     <v>Image of Satna</v>
@@ -16898,7 +16905,7 @@
     <v>Generic</v>
   </rv>
   <rv s="4">
-    <v>85</v>
+    <v>86</v>
   </rv>
   <rv s="3">
     <v>https://www.bing.com/search?q=satna+india&amp;form=skydnc</v>
@@ -16918,7 +16925,7 @@
     <v>a2c3f636-4306-f1b8-11ee-a84c41049d0a</v>
     <v>536870912</v>
     <v>1</v>
-    <v>414</v>
+    <v>415</v>
     <v>127</v>
     <v>Satna</v>
     <v>13</v>
@@ -16926,17 +16933,17 @@
     <v>Map</v>
     <v>6</v>
     <v>7</v>
-    <v>1288</v>
     <v>1289</v>
+    <v>1290</v>
     <v>3</v>
     <v>Satna is a city in the Indian state of Madhya Pradesh. It serves as the headquarters of Satna district. It is 7th largest city and 8th most populous city of the state. The city is 500 km east of the state capital Bhopal. The city is distributed ...</v>
-    <v>1290</v>
     <v>1291</v>
-    <v>1293</v>
+    <v>1292</v>
     <v>1294</v>
     <v>1295</v>
+    <v>1296</v>
     <v>Satna</v>
-    <v>1296</v>
+    <v>1297</v>
     <v>8</v>
     <v>Satna</v>
     <v>mdp/vdpid/7418777364756168705</v>
@@ -16958,7 +16965,7 @@
   <rv s="2">
     <v>127</v>
     <v>6</v>
-    <v>415</v>
+    <v>416</v>
     <v>7</v>
     <v>0</v>
     <v>Image of Vikhroli</v>
@@ -16981,20 +16988,20 @@
     <v>8a286270-f5c7-79dc-1c02-e26eb03f01f3</v>
     <v>536870912</v>
     <v>1</v>
-    <v>416</v>
+    <v>417</v>
     <v>239</v>
     <v>Vikhroli</v>
     <v>13</v>
     <v>5</v>
     <v>Map</v>
     <v>6</v>
-    <v>1299</v>
+    <v>1300</v>
     <v>3</v>
     <v>Vikhroli is a suburb of Mumbai located on the northeastern side of the city. The suburb has a railway station by the name Vikhroli on the Central Railway line. It is also home to one of the largest mangrove forests in Maharashtra, India.</v>
-    <v>1300</v>
     <v>1301</v>
     <v>1302</v>
     <v>1303</v>
+    <v>1304</v>
     <v>Vikhroli</v>
     <v>Vikhroli</v>
     <v>mdp/vdpid/7459857524989100035</v>
@@ -17027,7 +17034,7 @@
   <rv s="2">
     <v>128</v>
     <v>6</v>
-    <v>417</v>
+    <v>418</v>
     <v>7</v>
     <v>0</v>
     <v>Image of Gwalior</v>
@@ -17054,7 +17061,7 @@
     <v>36527ca1-f371-5e37-926e-d864998447ef</v>
     <v>536870912</v>
     <v>1</v>
-    <v>418</v>
+    <v>419</v>
     <v>222</v>
     <v>Gwalior</v>
     <v>13</v>
@@ -17062,17 +17069,17 @@
     <v>Map</v>
     <v>6</v>
     <v>7</v>
-    <v>1306</v>
     <v>1307</v>
     <v>1308</v>
+    <v>1309</v>
     <v>3</v>
     <v>Gwalior is a major city in the central Indian state of Madhya Pradesh; it lies in northern part of Madhya Pradesh and is one of the Counter-magnet cities. Located 343 kilometres south of Delhi, the capital city of India, 120 kilometres from Agra ...</v>
-    <v>1309</v>
     <v>1310</v>
     <v>1311</v>
     <v>1312</v>
+    <v>1313</v>
     <v>Gwalior</v>
-    <v>1313</v>
+    <v>1314</v>
     <v>Gwalior</v>
     <v>mdp/vdpid/7411713632548945921</v>
   </rv>
@@ -17090,7 +17097,7 @@
   <rv s="2">
     <v>129</v>
     <v>6</v>
-    <v>419</v>
+    <v>420</v>
     <v>7</v>
     <v>0</v>
     <v>Image of Jalgaon</v>
@@ -17107,7 +17114,7 @@
     <v>Generic</v>
   </rv>
   <rv s="4">
-    <v>86</v>
+    <v>87</v>
   </rv>
   <rv s="3">
     <v>https://www.bing.com/search?q=jalgaon+india&amp;form=skydnc</v>
@@ -17127,7 +17134,7 @@
     <v>7cac123a-515e-4943-9722-8ed1ea769b29</v>
     <v>536870912</v>
     <v>1</v>
-    <v>420</v>
+    <v>421</v>
     <v>124</v>
     <v>Jalgaon</v>
     <v>13</v>
@@ -17135,16 +17142,16 @@
     <v>Map</v>
     <v>6</v>
     <v>7</v>
-    <v>1316</v>
+    <v>1317</v>
     <v>3</v>
     <v>Jalgaon is a city in Maharashtra, India. The city is located in North Maharashtra in the subregion of Khandesh, and serves as the administrative headquarters of its namesake district, the Jalgaon district. The Girna river flows from the western ...</v>
-    <v>1317</v>
     <v>1318</v>
-    <v>1320</v>
+    <v>1319</v>
     <v>1321</v>
     <v>1322</v>
+    <v>1323</v>
     <v>Jalgaon</v>
-    <v>1323</v>
+    <v>1324</v>
     <v>Jalgaon</v>
     <v>mdp/vdpid/7460674198524919809</v>
   </rv>
@@ -17162,7 +17169,7 @@
   <rv s="2">
     <v>130</v>
     <v>6</v>
-    <v>421</v>
+    <v>422</v>
     <v>7</v>
     <v>0</v>
     <v>Image of Rudrapur, Uttarakhand</v>
@@ -17179,7 +17186,7 @@
     <v>Generic</v>
   </rv>
   <rv s="4">
-    <v>87</v>
+    <v>88</v>
   </rv>
   <rv s="3">
     <v>https://www.bing.com/search?q=rudrapur+india&amp;form=skydnc</v>
@@ -17199,7 +17206,7 @@
     <v>80f6a5d1-1e52-7a06-4704-d2ddce7e2f75</v>
     <v>536870912</v>
     <v>1</v>
-    <v>422</v>
+    <v>423</v>
     <v>156</v>
     <v>Rudrapur, Uttarakhand</v>
     <v>13</v>
@@ -17208,17 +17215,17 @@
     <v>6</v>
     <v>7</v>
     <v>84</v>
-    <v>1152</v>
-    <v>1326</v>
+    <v>1153</v>
+    <v>1327</v>
     <v>3</v>
     <v>Rudrapur is a city that serves as the headquarters of the Udham Singh Nagar district in the Indian state of Uttarakhand. Located at a distance of about 250 km northeast of New Delhi and 250 km south of Dehradun, Rudrapur is located in the ...</v>
-    <v>1327</v>
     <v>1328</v>
-    <v>1330</v>
+    <v>1329</v>
     <v>1331</v>
     <v>1332</v>
+    <v>1333</v>
     <v>Rudrapur, Uttarakhand</v>
-    <v>1333</v>
+    <v>1334</v>
     <v>8</v>
     <v>Rudrapur, Uttarakhand</v>
     <v>mdp/vdpid/7414365959772700673</v>
@@ -17244,7 +17251,7 @@
   <rv s="2">
     <v>131</v>
     <v>6</v>
-    <v>423</v>
+    <v>424</v>
     <v>7</v>
     <v>0</v>
     <v>Image of Dhule</v>
@@ -17261,7 +17268,7 @@
     <v>Generic</v>
   </rv>
   <rv s="4">
-    <v>88</v>
+    <v>89</v>
   </rv>
   <rv s="3">
     <v>https://www.bing.com/search?q=dhule+india&amp;form=skydnc</v>
@@ -17281,7 +17288,7 @@
     <v>67c20b3a-e7ed-650b-8632-6c2520ba077d</v>
     <v>536870912</v>
     <v>1</v>
-    <v>425</v>
+    <v>426</v>
     <v>127</v>
     <v>Dhule</v>
     <v>13</v>
@@ -17289,17 +17296,17 @@
     <v>Map</v>
     <v>6</v>
     <v>148</v>
-    <v>1336</v>
     <v>1337</v>
+    <v>1338</v>
     <v>435</v>
     <v>Dhule is one of the largest cities in Maharashtra, and central region of India. The city located in the Dhule District in the northwestern part of Maharashtra state, India known as West Khandesh. Situated on the banks of Panzara River, Dhule is ...</v>
-    <v>1338</v>
     <v>1339</v>
-    <v>1341</v>
+    <v>1340</v>
     <v>1342</v>
     <v>1343</v>
+    <v>1344</v>
     <v>Dhule</v>
-    <v>1344</v>
+    <v>1345</v>
     <v>19</v>
     <v>Dhule</v>
     <v>mdp/vdpid/7460641755549925377</v>
@@ -17325,7 +17332,7 @@
   <rv s="2">
     <v>132</v>
     <v>6</v>
-    <v>426</v>
+    <v>427</v>
     <v>7</v>
     <v>0</v>
     <v>Image of Bhopal</v>
@@ -17342,7 +17349,7 @@
     <v>Generic</v>
   </rv>
   <rv s="4">
-    <v>89</v>
+    <v>90</v>
   </rv>
   <rv s="3">
     <v>https://www.bing.com/search?q=bmc+bhopal&amp;form=skydnc</v>
@@ -17358,7 +17365,7 @@
     <v>7843abc7-b7c1-2b4a-3376-24f0411fbc24</v>
     <v>536870912</v>
     <v>1</v>
-    <v>427</v>
+    <v>428</v>
     <v>127</v>
     <v>Bhopal</v>
     <v>13</v>
@@ -17366,17 +17373,17 @@
     <v>Map</v>
     <v>6</v>
     <v>7</v>
-    <v>1347</v>
     <v>1348</v>
+    <v>1349</v>
     <v>3</v>
     <v>Bhopal is the capital city of the Indian state of Madhya Pradesh and the administrative headquarters of both Bhopal district and Bhopal division. It is known as the City of Lakes, due to presence of various natural and artificial lakes near the ...</v>
-    <v>1349</v>
     <v>1350</v>
-    <v>1352</v>
+    <v>1351</v>
     <v>1353</v>
+    <v>1354</v>
     <v>594</v>
     <v>Bhopal</v>
-    <v>1354</v>
+    <v>1355</v>
     <v>8</v>
     <v>Bhopal</v>
     <v>mdp/vdpid/7412806543231418369</v>
@@ -17402,7 +17409,7 @@
   <rv s="2">
     <v>133</v>
     <v>6</v>
-    <v>428</v>
+    <v>429</v>
     <v>7</v>
     <v>0</v>
     <v>Image of Sikandrabad</v>
@@ -17429,7 +17436,7 @@
     <v>40a121ac-fd46-f3ca-2687-47d00b1d2d9b</v>
     <v>536870912</v>
     <v>1</v>
-    <v>430</v>
+    <v>431</v>
     <v>288</v>
     <v>Sikandrabad</v>
     <v>13</v>
@@ -17437,16 +17444,16 @@
     <v>Map</v>
     <v>6</v>
     <v>7</v>
-    <v>1357</v>
     <v>1358</v>
+    <v>1359</v>
     <v>3</v>
     <v>Sikandrabad is a city and a municipal board, just outside of Bulandshahr city in Bulandshahr district in the Indian state of Uttar Pradesh. It is part of the Delhi NCR region. Sikandrabad tehsil is now a part of Bulandshahr district which is ...</v>
-    <v>1359</v>
     <v>1360</v>
     <v>1361</v>
     <v>1362</v>
+    <v>1363</v>
     <v>Sikandrabad</v>
-    <v>1363</v>
+    <v>1364</v>
     <v>Sikandrabad</v>
     <v>mdp/vdpid/7408371560202895361</v>
   </rv>
@@ -17473,14 +17480,14 @@
     <fb>34155</fb>
     <v>8</v>
   </rv>
-  <rv s="52">
+  <rv s="53">
     <v>#VALUE!</v>
     <v>en-US</v>
     <v>f77c17ef-2e2a-32f0-1d17-119981810097</v>
     <v>536870912</v>
     <v>1</v>
-    <v>433</v>
     <v>434</v>
+    <v>435</v>
     <v>Kunigal</v>
     <v>13</v>
     <v>299</v>
@@ -17490,11 +17497,11 @@
     <v>780</v>
     <v>3</v>
     <v>Kunigal is a town in Tumakuru district in the Indian state of Karnataka. It is the headquarters of Kunigal taluk. As of 2011 census, the town has a population of 34155. Kunigal is famous for stud farm established by Hyderali and Tippu Sulthan ...</v>
-    <v>1366</v>
     <v>1367</v>
     <v>1368</v>
+    <v>1369</v>
     <v>Kunigal</v>
-    <v>1369</v>
+    <v>1370</v>
     <v>Kunigal</v>
     <v>mdp/vdpid/7466525412156243969</v>
   </rv>
@@ -17519,7 +17526,7 @@
   <rv s="2">
     <v>134</v>
     <v>6</v>
-    <v>435</v>
+    <v>436</v>
     <v>7</v>
     <v>0</v>
     <v>Image of Kadapa</v>
@@ -17536,7 +17543,7 @@
     <v>Generic</v>
   </rv>
   <rv s="4">
-    <v>90</v>
+    <v>91</v>
   </rv>
   <rv s="3">
     <v>https://www.bing.com/search?q=kadapa+india&amp;form=skydnc</v>
@@ -17556,26 +17563,26 @@
     <v>554efe8e-9468-877b-47da-700d7b6a1060</v>
     <v>536870912</v>
     <v>1</v>
-    <v>436</v>
+    <v>437</v>
     <v>156</v>
     <v>Kadapa</v>
     <v>13</v>
     <v>5</v>
     <v>Map</v>
     <v>6</v>
-    <v>437</v>
+    <v>438</v>
     <v>92</v>
-    <v>1372</v>
     <v>1373</v>
+    <v>1374</v>
     <v>3</v>
     <v>Kadapa is a city in the southern part of Andhra Pradesh, India. It is located in the Rayalaseema region, and is the district headquarters of YSR Kadapa district. As of the 2022 Census of India, the city had a population of 466,000, a 2.42% ...</v>
-    <v>1374</v>
     <v>1375</v>
-    <v>1377</v>
+    <v>1376</v>
     <v>1378</v>
     <v>1379</v>
+    <v>1380</v>
     <v>Kadapa</v>
-    <v>1380</v>
+    <v>1381</v>
     <v>8</v>
     <v>Kadapa</v>
     <v>mdp/vdpid/7471829767298220033</v>
@@ -17594,7 +17601,7 @@
   <rv s="2">
     <v>135</v>
     <v>6</v>
-    <v>438</v>
+    <v>439</v>
     <v>7</v>
     <v>0</v>
     <v>Image of Ballari</v>
@@ -17611,7 +17618,7 @@
     <v>Generic</v>
   </rv>
   <rv s="4">
-    <v>91</v>
+    <v>92</v>
   </rv>
   <rv s="3">
     <v>https://www.bing.com/search?q=bellary+india&amp;form=skydnc</v>
@@ -17631,7 +17638,7 @@
     <v>7138b345-7193-8070-b860-d12925237099</v>
     <v>536870912</v>
     <v>1</v>
-    <v>440</v>
+    <v>441</v>
     <v>130</v>
     <v>Ballari</v>
     <v>13</v>
@@ -17639,16 +17646,16 @@
     <v>Map</v>
     <v>6</v>
     <v>7</v>
-    <v>1383</v>
+    <v>1384</v>
     <v>3</v>
     <v>Ballari in the eponymous Ballari district, is a city in the state of Karnataka, India. Ballari houses many steel plants such as JSW Vijayanagar, one of the largest in Asia. Ballari district is also known as the ‘Steel city of South India’.</v>
-    <v>1384</v>
     <v>1385</v>
-    <v>1387</v>
+    <v>1386</v>
     <v>1388</v>
     <v>1389</v>
+    <v>1390</v>
     <v>Ballari</v>
-    <v>1390</v>
+    <v>1391</v>
     <v>8</v>
     <v>Ballari</v>
     <v>mdp/vdpid/7465604574087217153</v>
@@ -17667,7 +17674,7 @@
   <rv s="2">
     <v>136</v>
     <v>6</v>
-    <v>442</v>
+    <v>443</v>
     <v>7</v>
     <v>0</v>
     <v>Image of Kukatpally</v>
@@ -17694,7 +17701,7 @@
     <v>37a3c9fb-ebd0-c54e-8082-b66dc35110f6</v>
     <v>536870912</v>
     <v>1</v>
-    <v>443</v>
+    <v>444</v>
     <v>222</v>
     <v>Kukatpally</v>
     <v>13</v>
@@ -17704,15 +17711,15 @@
     <v>63</v>
     <v>433</v>
     <v>307</v>
-    <v>1393</v>
+    <v>1394</v>
     <v>3</v>
     <v>Kukatpally is a suburb located in north western part of Hyderabad in the Indian state of Telangana. It is the headquarters of Balanagar mandal in Malkajgiri revenue division of Medchal-Malkajgiri district. It was a municipality prior to its ...</v>
-    <v>1394</v>
     <v>1395</v>
     <v>1396</v>
     <v>1397</v>
+    <v>1398</v>
     <v>Kukatpally</v>
-    <v>1398</v>
+    <v>1399</v>
     <v>Kukatpally</v>
     <v>mdp/vdpid/7462439346600148993</v>
   </rv>
@@ -17730,7 +17737,7 @@
   <rv s="2">
     <v>137</v>
     <v>6</v>
-    <v>444</v>
+    <v>445</v>
     <v>7</v>
     <v>0</v>
     <v>Image of Kondapur, Sangarreddy</v>
@@ -17757,7 +17764,7 @@
     <v>ab95baee-b312-4d64-c9f9-ff0cdf219008</v>
     <v>536870912</v>
     <v>1</v>
-    <v>445</v>
+    <v>446</v>
     <v>261</v>
     <v>Kondapur, Sangarreddy</v>
     <v>13</v>
@@ -17766,15 +17773,15 @@
     <v>6</v>
     <v>112</v>
     <v>91</v>
-    <v>1401</v>
+    <v>1402</v>
     <v>3</v>
     <v>Kondapur is a Village and Mandal in a newly formed Sangareddy district of Telangana State, India. Kondapur belongs to Sangareddy revenue division.Kondapur was a Mandal in the former Medak district of Telangana.</v>
-    <v>1402</v>
     <v>1403</v>
     <v>1404</v>
     <v>1405</v>
+    <v>1406</v>
     <v>Kondapur, Sangarreddy</v>
-    <v>1406</v>
+    <v>1407</v>
     <v>Kondapur, Sangarreddy</v>
     <v>mdp/vdpid/7462405986850963457</v>
   </rv>
@@ -17805,29 +17812,29 @@
     <fb>52679</fb>
     <v>8</v>
   </rv>
-  <rv s="53">
+  <rv s="54">
     <v>#VALUE!</v>
     <v>en-US</v>
     <v>e39e0295-218f-b544-7fb0-b89976c6d3b2</v>
     <v>536870912</v>
     <v>1</v>
-    <v>447</v>
     <v>448</v>
+    <v>449</v>
     <v>Shamirpet</v>
-    <v>450</v>
     <v>451</v>
+    <v>452</v>
     <v>Map</v>
     <v>6</v>
     <v>112</v>
     <v>91</v>
-    <v>1409</v>
+    <v>1410</v>
     <v>3</v>
     <v>Shamirpet is a major revenue village panchayat, and also a suburb of Hyderabad city and district headquarters of Medchal-Malkajgiri district of the Indian state of Telangana. It is also the mandal headquarter of Shamirpet mandal in Keesara revenue division. Many clubs and resorts such as Aalankrita 4-star resort, Leonia Holistic Destination, Celebrity Resorts, Darling Caves, Honeyberg Resort etc., are located here.</v>
-    <v>1410</v>
     <v>1411</v>
     <v>1412</v>
+    <v>1413</v>
     <v>Shamirpet</v>
-    <v>1413</v>
+    <v>1414</v>
     <v>8</v>
     <v>Shamirpet</v>
     <v>mdp/vdpid/7462393482120790017</v>
@@ -17842,7 +17849,7 @@
   <rv s="2">
     <v>138</v>
     <v>6</v>
-    <v>452</v>
+    <v>453</v>
     <v>7</v>
     <v>0</v>
     <v>Image of Patancheru</v>
@@ -17865,7 +17872,7 @@
     <v>65991039-4396-5aa3-b1a2-d30911c17f32</v>
     <v>536870912</v>
     <v>1</v>
-    <v>454</v>
+    <v>455</v>
     <v>269</v>
     <v>Patancheru</v>
     <v>13</v>
@@ -17876,12 +17883,12 @@
     <v>91</v>
     <v>3</v>
     <v>Patancheruvu is located in the north western end of Hyderabad. It is an industrial zone located about 32 km from the city centre on the Hyderabad-Solapur highway, and around 18 km from HITEC City. Earlier, it was the headquarters of Bidar and ...</v>
-    <v>1416</v>
+    <v>1417</v>
     <v>747</v>
-    <v>1417</v>
     <v>1418</v>
+    <v>1419</v>
     <v>Patancheru</v>
-    <v>1419</v>
+    <v>1420</v>
     <v>8</v>
     <v>Patancheru</v>
     <v>mdp/vdpid/7462432032488947713</v>
@@ -17896,7 +17903,7 @@
   <rv s="2">
     <v>139</v>
     <v>6</v>
-    <v>455</v>
+    <v>456</v>
     <v>7</v>
     <v>0</v>
     <v>Image of L. B. Nagar</v>
@@ -17917,14 +17924,14 @@
     <fb>268689</fb>
     <v>8</v>
   </rv>
-  <rv s="54">
+  <rv s="55">
     <v>#VALUE!</v>
     <v>en-US</v>
     <v>bf81ebd2-88ea-a049-9cb2-3b3554043600</v>
     <v>536870912</v>
     <v>1</v>
-    <v>457</v>
     <v>458</v>
+    <v>459</v>
     <v>L. B. Nagar</v>
     <v>13</v>
     <v>5</v>
@@ -17935,12 +17942,12 @@
     <v>307</v>
     <v>3</v>
     <v>Lal Bahadur Nagar, commonly known as L. B. Nagar, is a commercial and residential hub in Hyderabad, Telangana, India. It was once a Municipality in Ranga Reddy district.</v>
-    <v>1422</v>
     <v>1423</v>
     <v>1424</v>
     <v>1425</v>
+    <v>1426</v>
     <v>L. B. Nagar</v>
-    <v>1426</v>
+    <v>1427</v>
     <v>L. B. Nagar</v>
     <v>mdp/vdpid/7462443586101968897</v>
   </rv>
@@ -17958,7 +17965,7 @@
   <rv s="2">
     <v>140</v>
     <v>6</v>
-    <v>459</v>
+    <v>460</v>
     <v>7</v>
     <v>0</v>
     <v>Image of Kodad</v>
@@ -17975,7 +17982,7 @@
     <v>Generic</v>
   </rv>
   <rv s="4">
-    <v>92</v>
+    <v>93</v>
   </rv>
   <rv s="3">
     <v>https://www.bing.com/search?q=kodad+andhra+pradesh&amp;form=skydnc</v>
@@ -17995,7 +18002,7 @@
     <v>745d722e-53bc-3262-c8d5-33d68f8fc4dd</v>
     <v>536870912</v>
     <v>1</v>
-    <v>460</v>
+    <v>461</v>
     <v>130</v>
     <v>Kodad</v>
     <v>13</v>
@@ -18003,16 +18010,16 @@
     <v>Map</v>
     <v>6</v>
     <v>7</v>
-    <v>1429</v>
+    <v>1430</v>
     <v>3</v>
     <v>Kodad is a town in Suryapet district of the Indian state of Telangana. It is a municipality and the mandal headquarters of Kodad mandal in Kodad revenue division. It lies on the National Highway 65 between Hyderabad and Vijayawada.</v>
-    <v>1430</v>
     <v>1431</v>
-    <v>1433</v>
+    <v>1432</v>
     <v>1434</v>
     <v>1435</v>
+    <v>1436</v>
     <v>Kodad</v>
-    <v>1436</v>
+    <v>1437</v>
     <v>8</v>
     <v>Kodad</v>
     <v>mdp/vdpid/7468512918875668481</v>
@@ -18038,7 +18045,7 @@
   <rv s="2">
     <v>141</v>
     <v>6</v>
-    <v>461</v>
+    <v>462</v>
     <v>7</v>
     <v>0</v>
     <v>Image of Durgapur</v>
@@ -18055,7 +18062,7 @@
     <v>Generic</v>
   </rv>
   <rv s="4">
-    <v>93</v>
+    <v>94</v>
   </rv>
   <rv s="3">
     <v>https://www.bing.com/search?q=durgapur&amp;form=skydnc</v>
@@ -18075,7 +18082,7 @@
     <v>fc7d999e-924d-1f3a-1e36-f9ef8c977a87</v>
     <v>536870912</v>
     <v>1</v>
-    <v>462</v>
+    <v>463</v>
     <v>140</v>
     <v>Durgapur</v>
     <v>13</v>
@@ -18083,17 +18090,17 @@
     <v>Map</v>
     <v>6</v>
     <v>7</v>
-    <v>1439</v>
     <v>1440</v>
+    <v>1441</v>
     <v>3</v>
     <v>Durgapur is a major industrial city and a planned urban agglomeration in the Indian state of West Bengal. Located in Paschim Bardhaman district, economy and technology wise it is the most important city and urban agglomeration of West Bengal ...</v>
-    <v>1441</v>
     <v>1442</v>
-    <v>1444</v>
+    <v>1443</v>
     <v>1445</v>
     <v>1446</v>
+    <v>1447</v>
     <v>Durgapur</v>
-    <v>1447</v>
+    <v>1448</v>
     <v>Durgapur</v>
     <v>mdp/vdpid/7421670588575383553</v>
   </rv>
@@ -18118,7 +18125,7 @@
   <rv s="2">
     <v>142</v>
     <v>6</v>
-    <v>464</v>
+    <v>465</v>
     <v>7</v>
     <v>0</v>
     <v>Image of Mohali</v>
@@ -18135,7 +18142,7 @@
     <v>Generic</v>
   </rv>
   <rv s="4">
-    <v>94</v>
+    <v>95</v>
   </rv>
   <rv s="3">
     <v>https://www.bing.com/search?q=ajitgarh&amp;form=skydnc</v>
@@ -18155,7 +18162,7 @@
     <v>b4290864-644e-d24c-9c17-e90d10d449f9</v>
     <v>536870912</v>
     <v>1</v>
-    <v>465</v>
+    <v>466</v>
     <v>156</v>
     <v>Mohali</v>
     <v>13</v>
@@ -18163,18 +18170,18 @@
     <v>Map</v>
     <v>6</v>
     <v>7</v>
-    <v>1450</v>
-    <v>1450</v>
     <v>1451</v>
+    <v>1451</v>
+    <v>1452</v>
     <v>3</v>
     <v>Mohali, officially Sahibzada Ajit Singh Nagar, is a planned city in the Mohali district in Punjab, India, which is an administrative and a commercial hub lying south-west of Chandigarh. It is the headquarters of the Mohali district and one of ...</v>
-    <v>1452</v>
     <v>1453</v>
-    <v>1455</v>
+    <v>1454</v>
     <v>1456</v>
     <v>1457</v>
+    <v>1458</v>
     <v>Mohali</v>
-    <v>1458</v>
+    <v>1459</v>
     <v>8</v>
     <v>Mohali</v>
     <v>mdp/vdpid/7407898179762388993</v>
@@ -18193,7 +18200,7 @@
   <rv s="2">
     <v>143</v>
     <v>6</v>
-    <v>466</v>
+    <v>467</v>
     <v>7</v>
     <v>0</v>
     <v>Image of Bahadurgarh</v>
@@ -18220,7 +18227,7 @@
     <v>0a7046c9-d8fe-cbde-6904-1ca3179a60b7</v>
     <v>536870912</v>
     <v>1</v>
-    <v>467</v>
+    <v>468</v>
     <v>174</v>
     <v>Bahadurgarh</v>
     <v>13</v>
@@ -18228,16 +18235,16 @@
     <v>Map</v>
     <v>6</v>
     <v>7</v>
-    <v>1099</v>
-    <v>1461</v>
+    <v>1100</v>
+    <v>1462</v>
     <v>3</v>
     <v>Bahadurgarh is a city and municipal council within Jhajjar district in the Indian state of Haryana and Part of National Capital Region or NCR of Delhi. The city comprises 31 wards and is approximately 21 km from National Capital Territory of ...</v>
-    <v>1462</v>
     <v>1463</v>
     <v>1464</v>
     <v>1465</v>
+    <v>1466</v>
     <v>Bahadurgarh</v>
-    <v>1466</v>
+    <v>1467</v>
     <v>8</v>
     <v>Bahadurgarh</v>
     <v>mdp/vdpid/7408249443847241729</v>
@@ -18256,7 +18263,7 @@
   <rv s="2">
     <v>144</v>
     <v>6</v>
-    <v>468</v>
+    <v>469</v>
     <v>7</v>
     <v>0</v>
     <v>Image of Bokaro Steel City</v>
@@ -18283,7 +18290,7 @@
     <v>424c4896-5b52-7d6d-3a5e-36cb74f1f38f</v>
     <v>536870912</v>
     <v>1</v>
-    <v>470</v>
+    <v>471</v>
     <v>49</v>
     <v>Bokaro Steel City</v>
     <v>13</v>
@@ -18291,15 +18298,15 @@
     <v>Map</v>
     <v>6</v>
     <v>148</v>
-    <v>1469</v>
+    <v>1470</v>
     <v>3</v>
     <v>Bokaro, officially known as Bokaro Steel City, is a large and planned city in Jharkhand, India. It is the fourth most populous city in the state and one of the first planned cities of India started in late 1960's. Bokaro is the administrative ...</v>
-    <v>1470</v>
     <v>1471</v>
     <v>1472</v>
     <v>1473</v>
+    <v>1474</v>
     <v>Bokaro Steel City</v>
-    <v>1474</v>
+    <v>1475</v>
     <v>8</v>
     <v>Bokaro Steel City</v>
     <v>mdp/vdpid/7421241820413165569</v>
@@ -18318,7 +18325,7 @@
   <rv s="2">
     <v>145</v>
     <v>6</v>
-    <v>471</v>
+    <v>472</v>
     <v>7</v>
     <v>0</v>
     <v>Image of Tiruvallur</v>
@@ -18345,7 +18352,7 @@
     <v>ce47981f-8b0a-c573-62f6-b838caa9370b</v>
     <v>536870912</v>
     <v>1</v>
-    <v>472</v>
+    <v>473</v>
     <v>261</v>
     <v>Tiruvallur</v>
     <v>13</v>
@@ -18354,15 +18361,15 @@
     <v>6</v>
     <v>148</v>
     <v>81</v>
-    <v>1477</v>
+    <v>1478</v>
     <v>3</v>
     <v>Tiruvallur is a Grade I municipality in the Indian state of Tamil Nadu. It is located on the banks of Coovum river about 46 km from downtown Chennai and just 5 km from megacity border, in the western part of the Chennai Metropolitan Area. It is ...</v>
-    <v>1478</v>
     <v>1479</v>
     <v>1480</v>
     <v>1481</v>
+    <v>1482</v>
     <v>Tiruvallur</v>
-    <v>1482</v>
+    <v>1483</v>
     <v>Tiruvallur</v>
     <v>mdp/vdpid/7472717274692976641</v>
   </rv>
@@ -18376,7 +18383,7 @@
   <rv s="2">
     <v>146</v>
     <v>6</v>
-    <v>473</v>
+    <v>474</v>
     <v>7</v>
     <v>0</v>
     <v>Image of Kosi division</v>
@@ -18397,14 +18404,14 @@
     <fb>12120117</fb>
     <v>8</v>
   </rv>
-  <rv s="44">
+  <rv s="45">
     <v>#VALUE!</v>
     <v>en-US</v>
     <v>1d98fb9a-e819-9edf-97b4-ab3ff5180bdb</v>
     <v>536870912</v>
     <v>1</v>
-    <v>474</v>
-    <v>360</v>
+    <v>475</v>
+    <v>361</v>
     <v>Kosi division</v>
     <v>13</v>
     <v>5</v>
@@ -18414,12 +18421,12 @@
     <v>63</v>
     <v>3</v>
     <v>Kosi division is an administrative geographical unit of Bihar state of India. Saharsa is the administrative headquarters of the division. Currently, the division consists of Saharsa district, Madhepura district, and Supaul district.</v>
-    <v>1485</v>
     <v>1486</v>
     <v>1487</v>
     <v>1488</v>
+    <v>1489</v>
     <v>Kosi division</v>
-    <v>1489</v>
+    <v>1490</v>
     <v>Kosi division</v>
     <v>mdp/vdpid/7420210142156685313</v>
   </rv>
@@ -18433,7 +18440,7 @@
   <rv s="2">
     <v>147</v>
     <v>6</v>
-    <v>475</v>
+    <v>476</v>
     <v>7</v>
     <v>0</v>
     <v>Image of Bhiwandi</v>
@@ -18450,7 +18457,7 @@
     <v>Generic</v>
   </rv>
   <rv s="4">
-    <v>95</v>
+    <v>96</v>
   </rv>
   <rv s="3">
     <v>https://www.bing.com/search?q=bhiwandi&amp;form=skydnc</v>
@@ -18464,14 +18471,14 @@
     <fb>709665</fb>
     <v>8</v>
   </rv>
-  <rv s="55">
+  <rv s="56">
     <v>#VALUE!</v>
     <v>en-US</v>
     <v>47aa2655-c04b-c57f-5b27-7eea82e36a7b</v>
     <v>536870912</v>
     <v>1</v>
-    <v>476</v>
     <v>477</v>
+    <v>478</v>
     <v>Bhiwandi</v>
     <v>13</v>
     <v>5</v>
@@ -18481,13 +18488,13 @@
     <v>838</v>
     <v>3</v>
     <v>Bhiwandi is a city in the Thane district of Maharashtra, India. It is located 20 kilometres northeast of Mumbai, and 15 km northeast of the city of Thane. The city is a part of the Mumbai Metropolitan Region.</v>
-    <v>1492</v>
     <v>1493</v>
-    <v>1495</v>
+    <v>1494</v>
     <v>1496</v>
     <v>1497</v>
+    <v>1498</v>
     <v>Bhiwandi</v>
-    <v>1498</v>
+    <v>1499</v>
     <v>Bhiwandi</v>
     <v>mdp/vdpid/7459841414734544897</v>
   </rv>
@@ -18519,7 +18526,7 @@
   <rv s="2">
     <v>148</v>
     <v>6</v>
-    <v>478</v>
+    <v>479</v>
     <v>7</v>
     <v>0</v>
     <v>Image of Guntur</v>
@@ -18536,7 +18543,7 @@
     <v>Generic</v>
   </rv>
   <rv s="4">
-    <v>96</v>
+    <v>97</v>
   </rv>
   <rv s="3">
     <v>https://www.bing.com/search?q=guntur&amp;form=skydnc</v>
@@ -18556,7 +18563,7 @@
     <v>bb1c7c34-e37d-ca58-faf5-2907a3a07fe8</v>
     <v>536870912</v>
     <v>1</v>
-    <v>479</v>
+    <v>480</v>
     <v>156</v>
     <v>Guntur</v>
     <v>13</v>
@@ -18564,18 +18571,18 @@
     <v>Map</v>
     <v>6</v>
     <v>7</v>
-    <v>1501</v>
     <v>1502</v>
     <v>1503</v>
+    <v>1504</v>
     <v>3</v>
     <v>Guntur is a city in the Indian state of Andhra Pradesh and the administrative headquarters of Guntur district. The city is part of the Andhra Pradesh Capital Region and is located on the Eastern Coastal Plains approximately 30 kilometres south ...</v>
-    <v>1504</v>
     <v>1505</v>
-    <v>1507</v>
+    <v>1506</v>
     <v>1508</v>
     <v>1509</v>
+    <v>1510</v>
     <v>Guntur</v>
-    <v>1510</v>
+    <v>1511</v>
     <v>19</v>
     <v>Guntur</v>
     <v>mdp/vdpid/7471637595831664678</v>
@@ -18601,7 +18608,7 @@
   <rv s="2">
     <v>149</v>
     <v>6</v>
-    <v>480</v>
+    <v>481</v>
     <v>7</v>
     <v>0</v>
     <v>Image of Indore</v>
@@ -18618,7 +18625,7 @@
     <v>Generic</v>
   </rv>
   <rv s="4">
-    <v>97</v>
+    <v>98</v>
   </rv>
   <rv s="3">
     <v>https://www.bing.com/search?q=indore&amp;form=skydnc</v>
@@ -18638,7 +18645,7 @@
     <v>a4f416e4-7232-8717-602f-7e108d1f164e</v>
     <v>536870912</v>
     <v>1</v>
-    <v>481</v>
+    <v>482</v>
     <v>127</v>
     <v>Indore</v>
     <v>13</v>
@@ -18646,17 +18653,17 @@
     <v>Map</v>
     <v>6</v>
     <v>7</v>
-    <v>1513</v>
     <v>1514</v>
+    <v>1515</v>
     <v>3</v>
     <v>Indore is the largest and most populous city in the Indian state of Madhya Pradesh. It is the commercial hub of Madhya Pradesh. It is consistently ranked as the cleanest city in India. It serves as the headquarters of both the Indore District ...</v>
-    <v>1515</v>
     <v>1516</v>
-    <v>1518</v>
+    <v>1517</v>
     <v>1519</v>
     <v>1520</v>
+    <v>1521</v>
     <v>Indore</v>
-    <v>1521</v>
+    <v>1522</v>
     <v>8</v>
     <v>Indore</v>
     <v>mdp/vdpid/7412356253659168769</v>
@@ -18675,7 +18682,7 @@
   <rv s="2">
     <v>150</v>
     <v>6</v>
-    <v>482</v>
+    <v>483</v>
     <v>7</v>
     <v>0</v>
     <v>Image of Jamshedpur</v>
@@ -18702,7 +18709,7 @@
     <v>84be5b35-d91d-aa80-5a96-8fd419dca00f</v>
     <v>536870912</v>
     <v>1</v>
-    <v>483</v>
+    <v>484</v>
     <v>153</v>
     <v>Jamshedpur</v>
     <v>13</v>
@@ -18711,25 +18718,25 @@
     <v>6</v>
     <v>112</v>
     <v>63</v>
-    <v>1524</v>
+    <v>1525</v>
     <v>3</v>
     <v>Jamshedpur, also known as Tatanagar, is a major industrial city in eastern India. It is the largest city in the state of Jharkhand. In terms of economy Jamshedpur has second largest economy in Jharkhand after Dhanbad. Jamshedpur stands as the ...</v>
-    <v>1525</v>
     <v>1526</v>
     <v>1527</v>
     <v>1528</v>
+    <v>1529</v>
     <v>Jamshedpur</v>
-    <v>1529</v>
+    <v>1530</v>
     <v>8</v>
     <v>Jamshedpur</v>
     <v>mdp/vdpid/7421313694526603265</v>
   </rv>
-  <rv s="56">
+  <rv s="57">
     <v>12</v>
     <v>Latitude</v>
     <v>0</v>
   </rv>
-  <rv s="56">
+  <rv s="57">
     <v>12</v>
     <v>Longitude</v>
     <v>0</v>
@@ -18744,7 +18751,7 @@
   <rv s="2">
     <v>151</v>
     <v>6</v>
-    <v>484</v>
+    <v>485</v>
     <v>7</v>
     <v>0</v>
     <v>Image of Kaniyuru</v>
@@ -18761,14 +18768,14 @@
     <fb>77.380277777778005</fb>
     <v>46</v>
   </rv>
-  <rv s="45">
+  <rv s="46">
     <v>#VALUE!</v>
     <v>en-US</v>
     <v>a8451b28-be44-f363-ba3e-730854f4a387</v>
     <v>536870912</v>
     <v>1</v>
-    <v>485</v>
-    <v>373</v>
+    <v>486</v>
+    <v>374</v>
     <v>Kaniyuru</v>
     <v>13</v>
     <v>5</v>
@@ -18777,10 +18784,10 @@
     <v>69</v>
     <v>3</v>
     <v>Kaniyooru, also spelled Kaniyooru, is a village in Puttur taluk in Dakshina Kannada district of Karnataka state, India. It houses one of the Ashta Mathas established by Madhvacharya, the Dvaita philosopher. The village is located on Mangalore to ...</v>
-    <v>1534</v>
     <v>1535</v>
     <v>1536</v>
     <v>1537</v>
+    <v>1538</v>
     <v>Kaniyuru</v>
     <v>19</v>
     <v>Kaniyuru</v>
@@ -18796,7 +18803,7 @@
   <rv s="2">
     <v>152</v>
     <v>6</v>
-    <v>486</v>
+    <v>487</v>
     <v>7</v>
     <v>0</v>
     <v>Image of Sanand</v>
@@ -18823,7 +18830,7 @@
     <v>2c26ecc4-9b1b-9116-5016-12bc45a84ad7</v>
     <v>536870912</v>
     <v>1</v>
-    <v>488</v>
+    <v>489</v>
     <v>232</v>
     <v>Sanand</v>
     <v>13</v>
@@ -18833,12 +18840,12 @@
     <v>233</v>
     <v>3</v>
     <v>Sanand is a city and a municipality in Ahmedabad district in the Indian state of Gujarat. It is a major industrial hub of Western India, with manufacturing plants of major domestic and foreign companies.</v>
-    <v>1540</v>
     <v>1541</v>
     <v>1542</v>
     <v>1543</v>
+    <v>1544</v>
     <v>Sanand</v>
-    <v>1544</v>
+    <v>1545</v>
     <v>Sanand</v>
     <v>mdp/vdpid/7410619202756673537</v>
   </rv>
@@ -18856,7 +18863,7 @@
   <rv s="2">
     <v>153</v>
     <v>6</v>
-    <v>489</v>
+    <v>490</v>
     <v>7</v>
     <v>0</v>
     <v>Image of Dubai</v>
@@ -18866,20 +18873,20 @@
     <v>Learn more on Bing</v>
   </rv>
   <rv s="4">
-    <v>98</v>
+    <v>99</v>
   </rv>
   <rv s="1">
     <fb>3790000</fb>
     <v>8</v>
   </rv>
-  <rv s="57">
+  <rv s="58">
     <v>#VALUE!</v>
     <v>en-US</v>
     <v>be495e21-8e36-a64d-d87a-350ba05996eb</v>
     <v>536870912</v>
     <v>1</v>
-    <v>491</v>
     <v>492</v>
+    <v>493</v>
     <v>Dubai</v>
     <v>13</v>
     <v>5</v>
@@ -18887,15 +18894,15 @@
     <v>6</v>
     <v>45</v>
     <v>AE-DU</v>
-    <v>1547</v>
-    <v>1051</v>
+    <v>1548</v>
+    <v>1052</v>
     <v>Dubai is the most populous city in the United Arab Emirates and the capital of the Emirate of Dubai, the most populous of the country's seven emirates. As of 2024, the city has a population of around 3.79 million, more than 90% of which are ...</v>
-    <v>1548</v>
     <v>1549</v>
+    <v>1550</v>
     <v>Dubai</v>
-    <v>1550</v>
     <v>1551</v>
-    <v>1057</v>
+    <v>1552</v>
+    <v>1058</v>
     <v>Dubai</v>
     <v>mdp/vdpid/7376477268119388161</v>
   </rv>
@@ -18913,7 +18920,7 @@
   <rv s="2">
     <v>154</v>
     <v>6</v>
-    <v>493</v>
+    <v>494</v>
     <v>7</v>
     <v>0</v>
     <v>Image of Cuttack</v>
@@ -18940,7 +18947,7 @@
     <v>f0802c62-c506-23d6-3484-ac1cd7938177</v>
     <v>536870912</v>
     <v>1</v>
-    <v>494</v>
+    <v>495</v>
     <v>49</v>
     <v>Cuttack</v>
     <v>13</v>
@@ -18948,15 +18955,15 @@
     <v>Map</v>
     <v>6</v>
     <v>7</v>
-    <v>1554</v>
+    <v>1555</v>
     <v>545</v>
     <v>Cuttack, is the former capital, deputy capital and the 2nd largest city of the Indian state of Odisha. It is also the headquarters of the Cuttack district. The name of the city is an anglicised form of the Odia and Sanskrit name Kataka, which ...</v>
-    <v>1555</v>
     <v>1556</v>
     <v>1557</v>
     <v>1558</v>
+    <v>1559</v>
     <v>Cuttack</v>
-    <v>1559</v>
+    <v>1560</v>
     <v>8</v>
     <v>Cuttack</v>
     <v>mdp/vdpid/7469664684803620865</v>
@@ -18975,7 +18982,7 @@
   <rv s="2">
     <v>155</v>
     <v>6</v>
-    <v>495</v>
+    <v>496</v>
     <v>7</v>
     <v>0</v>
     <v>Image of Hazira</v>
@@ -19002,7 +19009,7 @@
     <v>dba37387-741b-f401-17c4-22456957d959</v>
     <v>536870912</v>
     <v>1</v>
-    <v>497</v>
+    <v>498</v>
     <v>261</v>
     <v>Hazira</v>
     <v>13</v>
@@ -19011,15 +19018,15 @@
     <v>6</v>
     <v>7</v>
     <v>1</v>
-    <v>1562</v>
+    <v>1563</v>
     <v>3</v>
     <v>Hazira is a suburb and a transshipment port in the Surat City in the Gujarat state of India. It is the west most end of Surat. Hazira is one of the major ports of India and the most important element of Surat Metropolitan Region. The town is ...</v>
-    <v>1563</v>
     <v>1564</v>
     <v>1565</v>
     <v>1566</v>
+    <v>1567</v>
     <v>Hazira</v>
-    <v>1567</v>
+    <v>1568</v>
     <v>Hazira</v>
     <v>mdp/vdpid/7458795948190203905</v>
   </rv>
@@ -19037,7 +19044,7 @@
   <rv s="2">
     <v>156</v>
     <v>6</v>
-    <v>498</v>
+    <v>499</v>
     <v>7</v>
     <v>0</v>
     <v>Image of Nalagarh</v>
@@ -19064,7 +19071,7 @@
     <v>02d24de1-9181-f712-223e-8ecb916db735</v>
     <v>536870912</v>
     <v>1</v>
-    <v>500</v>
+    <v>501</v>
     <v>261</v>
     <v>Nalagarh</v>
     <v>13</v>
@@ -19073,15 +19080,15 @@
     <v>6</v>
     <v>7</v>
     <v>67</v>
-    <v>1570</v>
+    <v>1571</v>
     <v>3</v>
     <v>Nalagarh is a city and a municipal committee, near the city of Solan in Solan district in the Indian state of Himachal Pradesh. Nalagarh is a gateway to Himachal Pradesh in North India, 95.6 km from Shimla, 300 km from Delhi and 60 km from ...</v>
-    <v>1571</v>
     <v>1572</v>
     <v>1573</v>
     <v>1574</v>
+    <v>1575</v>
     <v>Nalagarh</v>
-    <v>1575</v>
+    <v>1576</v>
     <v>Nalagarh</v>
     <v>mdp/vdpid/7407142025855762433</v>
   </rv>
@@ -19099,7 +19106,7 @@
   <rv s="2">
     <v>157</v>
     <v>6</v>
-    <v>501</v>
+    <v>502</v>
     <v>7</v>
     <v>0</v>
     <v>Image of Baramati</v>
@@ -19126,7 +19133,7 @@
     <v>2a2afe78-1a52-c7bc-2bd2-b3627f8eaf86</v>
     <v>536870912</v>
     <v>1</v>
-    <v>502</v>
+    <v>503</v>
     <v>174</v>
     <v>Baramati</v>
     <v>13</v>
@@ -19135,15 +19142,15 @@
     <v>6</v>
     <v>7</v>
     <v>611</v>
-    <v>1578</v>
+    <v>1579</v>
     <v>435</v>
     <v>Baramati is a city, a tehsil and a municipal council in Pune district in the state of Maharashtra, India. The city is about 100 km southeast of the city of Pune and about 250 km from Mumbai. The population of Baramati taluka as per the census of ...</v>
-    <v>1579</v>
     <v>1580</v>
     <v>1581</v>
     <v>1582</v>
+    <v>1583</v>
     <v>Baramati</v>
-    <v>1583</v>
+    <v>1584</v>
     <v>8</v>
     <v>Baramati</v>
     <v>mdp/vdpid/7461761369604358145</v>
@@ -19162,7 +19169,7 @@
   <rv s="2">
     <v>158</v>
     <v>6</v>
-    <v>504</v>
+    <v>505</v>
     <v>7</v>
     <v>0</v>
     <v>Image of Bawal</v>
@@ -19189,7 +19196,7 @@
     <v>289503e1-f531-c285-0e9c-b37e051f2ba9</v>
     <v>536870912</v>
     <v>1</v>
-    <v>505</v>
+    <v>506</v>
     <v>225</v>
     <v>Bawal</v>
     <v>13</v>
@@ -19197,15 +19204,15 @@
     <v>Map</v>
     <v>6</v>
     <v>7</v>
-    <v>1586</v>
+    <v>1587</v>
     <v>3</v>
     <v>Bawal is a big industrial town located, near Rewari city in Rewari district in Indian state of Haryana. It lies in the National Capital Region of India. It is located on national highway NH 48, 11 km from Rewari, the district headquarter, 50 km ...</v>
-    <v>1587</v>
     <v>1588</v>
     <v>1589</v>
     <v>1590</v>
+    <v>1591</v>
     <v>Bawal</v>
-    <v>1591</v>
+    <v>1592</v>
     <v>Bawal</v>
     <v>mdp/vdpid/7411247772663283713</v>
   </rv>
@@ -19219,7 +19226,7 @@
   <rv s="2">
     <v>159</v>
     <v>6</v>
-    <v>506</v>
+    <v>507</v>
     <v>7</v>
     <v>0</v>
     <v>Image of Dharuhera</v>
@@ -19246,22 +19253,22 @@
     <v>c54132b9-d4c7-f196-e8bd-64e3e8cd5e4a</v>
     <v>536870912</v>
     <v>1</v>
-    <v>508</v>
+    <v>509</v>
     <v>232</v>
     <v>Dharuhera</v>
     <v>13</v>
     <v>5</v>
     <v>Map</v>
     <v>6</v>
-    <v>509</v>
+    <v>510</v>
     <v>3</v>
     <v>Dharuhera is a census town located, just 19 km from Rewari city in Rewari district of the state of Haryana, India. Dharuhera comes under Delhi NCR region and it is a big Industrial hub in Rewari District. Dharuhera is the new growth corridor of ...</v>
-    <v>1594</v>
     <v>1595</v>
     <v>1596</v>
     <v>1597</v>
+    <v>1598</v>
     <v>Dharuhera</v>
-    <v>1598</v>
+    <v>1599</v>
     <v>Dharuhera</v>
     <v>mdp/vdpid/7408268471877763073</v>
   </rv>
@@ -19275,7 +19282,7 @@
   <rv s="2">
     <v>160</v>
     <v>6</v>
-    <v>510</v>
+    <v>511</v>
     <v>7</v>
     <v>0</v>
     <v>Image of Pantnagar</v>
@@ -19296,29 +19303,29 @@
     <fb>35820</fb>
     <v>8</v>
   </rv>
-  <rv s="44">
+  <rv s="45">
     <v>#VALUE!</v>
     <v>en-US</v>
     <v>52d004e3-ee0b-c90e-2aa4-15f2d91b3597</v>
     <v>536870912</v>
     <v>1</v>
-    <v>512</v>
-    <v>360</v>
+    <v>513</v>
+    <v>361</v>
     <v>Pantnagar</v>
     <v>13</v>
     <v>5</v>
     <v>Map</v>
     <v>6</v>
     <v>270</v>
-    <v>1152</v>
+    <v>1153</v>
     <v>3</v>
     <v>Pantnagar is a town and a university campus in Udham Singh Nagar District, Uttarakhand. Nainital, Kashipur, Rudrapur, Kiccha and Haldwani are the major cities surrounding Pantnagar. The town is home to the first agricultural university of India ...</v>
-    <v>1601</v>
     <v>1602</v>
     <v>1603</v>
     <v>1604</v>
+    <v>1605</v>
     <v>Pantnagar</v>
-    <v>1605</v>
+    <v>1606</v>
     <v>Pantnagar</v>
     <v>mdp/vdpid/7414386643680886785</v>
   </rv>
@@ -19336,7 +19343,7 @@
   <rv s="2">
     <v>161</v>
     <v>6</v>
-    <v>513</v>
+    <v>514</v>
     <v>7</v>
     <v>0</v>
     <v>Image of Chakan, Pune</v>
@@ -19363,7 +19370,7 @@
     <v>2fc0325e-177f-f6c6-c8b6-e29a33dc3a84</v>
     <v>536870912</v>
     <v>1</v>
-    <v>515</v>
+    <v>516</v>
     <v>288</v>
     <v>Chakan, Pune</v>
     <v>13</v>
@@ -19372,15 +19379,15 @@
     <v>6</v>
     <v>148</v>
     <v>611</v>
-    <v>1608</v>
+    <v>1609</v>
     <v>3</v>
     <v>Chakan is a census town in India, in Pune district of the Indian state of Maharashtra. While agriculture remains an important factor, the town's industrial development is quickly urbanizing the area. The Independent referred Chakan as India's ...</v>
-    <v>1609</v>
     <v>1610</v>
     <v>1611</v>
     <v>1612</v>
+    <v>1613</v>
     <v>Chakan, Pune</v>
-    <v>1613</v>
+    <v>1614</v>
     <v>Chakan, Pune</v>
     <v>mdp/vdpid/7461448867649683457</v>
   </rv>
@@ -19405,7 +19412,7 @@
   <rv s="2">
     <v>162</v>
     <v>6</v>
-    <v>516</v>
+    <v>517</v>
     <v>7</v>
     <v>0</v>
     <v>Image of Kolhapur</v>
@@ -19432,7 +19439,7 @@
     <v>bb5fe950-bf68-5ac4-a7b0-6cb3b179fb50</v>
     <v>536870912</v>
     <v>1</v>
-    <v>518</v>
+    <v>519</v>
     <v>288</v>
     <v>Kolhapur</v>
     <v>13</v>
@@ -19440,16 +19447,16 @@
     <v>Map</v>
     <v>6</v>
     <v>7</v>
-    <v>1616</v>
     <v>1617</v>
+    <v>1618</v>
     <v>3</v>
     <v>Kolhapur is a city on the banks of the Panchganga River in the southern part of the Indian state of Maharashtra. Kolhapur, an epitome of beauty and richness in the Indian state of Maharashtra, stands tall as one of the most significant cities in ...</v>
-    <v>1618</v>
     <v>1619</v>
     <v>1620</v>
     <v>1621</v>
+    <v>1622</v>
     <v>Kolhapur</v>
-    <v>1622</v>
+    <v>1623</v>
     <v>Kolhapur</v>
     <v>mdp/vdpid/7464761701234114561</v>
   </rv>
@@ -19457,7 +19464,7 @@
 </file>
 
 <file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
-<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="58">
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="59">
   <s t="_linkedentity2">
     <k n="%EntityServiceId" t="i"/>
     <k n="_DisplayString" t="s"/>
@@ -20546,6 +20553,32 @@
     <k n="_Format" t="spb"/>
     <k n="_Icon" t="s"/>
     <k n="_Provider" t="spb"/>
+    <k n="_SubLabel" t="spb"/>
+    <k n="Country/region" t="r"/>
+    <k n="Description" t="s"/>
+    <k n="Image" t="r"/>
+    <k n="Latitude" t="r"/>
+    <k n="Leader(s)" t="r"/>
+    <k n="LearnMoreOnLink" t="r"/>
+    <k n="Longitude" t="r"/>
+    <k n="Name" t="s"/>
+    <k n="Population" t="r"/>
+    <k n="UniqueName" t="s"/>
+    <k n="VDPID/VSID" t="s"/>
+  </s>
+  <s t="_linkedentity2core">
+    <k n="_CRID" t="e"/>
+    <k n="%EntityCulture" t="s"/>
+    <k n="%EntityId" t="s"/>
+    <k n="%EntityServiceId" t="i"/>
+    <k n="%IsRefreshable" t="b"/>
+    <k n="_Attribution" t="spb"/>
+    <k n="_Display" t="spb"/>
+    <k n="_DisplayString" t="s"/>
+    <k n="_Flags" t="spb"/>
+    <k n="_Format" t="spb"/>
+    <k n="_Icon" t="s"/>
+    <k n="_Provider" t="spb"/>
     <k n="Admin Division 2 (County/district/other)" t="r"/>
     <k n="Country/region" t="r"/>
     <k n="Description" t="s"/>
@@ -20974,7 +21007,7 @@
 
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
-  <spbArrays count="52">
+  <spbArrays count="53">
     <a count="24">
       <v t="s">%EntityServiceId</v>
       <v t="s">%IsRefreshable</v>
@@ -21988,6 +22021,31 @@
       <v t="s">LearnMoreOnLink</v>
       <v t="s">Description</v>
     </a>
+    <a count="23">
+      <v t="s">%EntityServiceId</v>
+      <v t="s">%IsRefreshable</v>
+      <v t="s">%EntityCulture</v>
+      <v t="s">%EntityId</v>
+      <v t="s">_Icon</v>
+      <v t="s">_Provider</v>
+      <v t="s">_Attribution</v>
+      <v t="s">_Display</v>
+      <v t="s">Name</v>
+      <v t="s">_Format</v>
+      <v t="s">Country/region</v>
+      <v t="s">Leader(s)</v>
+      <v t="s">_SubLabel</v>
+      <v t="s">Population</v>
+      <v t="s">Latitude</v>
+      <v t="s">Longitude</v>
+      <v t="s">_Flags</v>
+      <v t="s">VDPID/VSID</v>
+      <v t="s">UniqueName</v>
+      <v t="s">_DisplayString</v>
+      <v t="s">LearnMoreOnLink</v>
+      <v t="s">Image</v>
+      <v t="s">Description</v>
+    </a>
     <a count="20">
       <v t="s">%EntityServiceId</v>
       <v t="s">%IsRefreshable</v>
@@ -22405,7 +22463,7 @@
       <v t="s">Description</v>
     </a>
   </spbArrays>
-  <spbData count="519">
+  <spbData count="520">
     <spb s="0">
       <v xml:space="preserve">Wikipedia	</v>
       <v xml:space="preserve">CC BY-SA 3.0	</v>
@@ -24825,20 +24883,28 @@
     <spb s="0">
       <v xml:space="preserve">Wikipedia	</v>
       <v xml:space="preserve">CC BY-SA 3.0	</v>
-      <v xml:space="preserve">https://en.wikipedia.org/wiki/Dalur	</v>
+      <v xml:space="preserve">https://en.wikipedia.org/wiki/Himatnagar	</v>
       <v xml:space="preserve">https://creativecommons.org/licenses/by-sa/3.0	</v>
+    </spb>
+    <spb s="0">
+      <v xml:space="preserve">Wikipedia	</v>
+      <v xml:space="preserve">CC-BY-SA	</v>
+      <v xml:space="preserve">http://en.wikipedia.org/wiki/Himatnagar	</v>
+      <v xml:space="preserve">http://creativecommons.org/licenses/by-sa/3.0/	</v>
     </spb>
     <spb s="23">
       <v>332</v>
       <v>332</v>
       <v>332</v>
+      <v>333</v>
       <v>332</v>
       <v>332</v>
       <v>332</v>
-      <v>332</v>
-    </spb>
-    <spb s="24">
-      <v>2021</v>
+    </spb>
+    <spb s="2">
+      <v>37</v>
+      <v>Name</v>
+      <v>LearnMoreOnLink</v>
     </spb>
     <spb s="0">
       <v xml:space="preserve">Wikipedia	</v>
@@ -24853,14 +24919,14 @@
       <v xml:space="preserve">https://creativecommons.org/licenses/by-sa/3.0	</v>
     </spb>
     <spb s="14">
-      <v>335</v>
       <v>336</v>
+      <v>337</v>
+      <v>337</v>
+      <v>337</v>
       <v>336</v>
-      <v>336</v>
-      <v>335</v>
-      <v>336</v>
-      <v>336</v>
-      <v>336</v>
+      <v>337</v>
+      <v>337</v>
+      <v>337</v>
     </spb>
     <spb s="0">
       <v xml:space="preserve">Wikipedia	</v>
@@ -24869,16 +24935,16 @@
       <v xml:space="preserve">https://creativecommons.org/licenses/by-sa/3.0	</v>
     </spb>
     <spb s="25">
-      <v>338</v>
-      <v>338</v>
-      <v>338</v>
-      <v>338</v>
-      <v>338</v>
-      <v>338</v>
-      <v>338</v>
+      <v>339</v>
+      <v>339</v>
+      <v>339</v>
+      <v>339</v>
+      <v>339</v>
+      <v>339</v>
+      <v>339</v>
     </spb>
     <spb s="2">
-      <v>37</v>
+      <v>38</v>
       <v>Name</v>
       <v>LearnMoreOnLink</v>
     </spb>
@@ -24889,15 +24955,15 @@
       <v xml:space="preserve">https://creativecommons.org/licenses/by-sa/3.0	</v>
     </spb>
     <spb s="13">
-      <v>341</v>
-      <v>341</v>
-      <v>341</v>
-      <v>341</v>
-      <v>341</v>
-      <v>341</v>
-      <v>341</v>
-      <v>341</v>
-      <v>341</v>
+      <v>342</v>
+      <v>342</v>
+      <v>342</v>
+      <v>342</v>
+      <v>342</v>
+      <v>342</v>
+      <v>342</v>
+      <v>342</v>
+      <v>342</v>
     </spb>
     <spb s="0">
       <v xml:space="preserve">Wikipedia	</v>
@@ -24906,15 +24972,15 @@
       <v xml:space="preserve">https://creativecommons.org/licenses/by-sa/3.0	</v>
     </spb>
     <spb s="13">
-      <v>343</v>
-      <v>343</v>
-      <v>343</v>
-      <v>343</v>
-      <v>343</v>
-      <v>343</v>
-      <v>343</v>
-      <v>343</v>
-      <v>343</v>
+      <v>344</v>
+      <v>344</v>
+      <v>344</v>
+      <v>344</v>
+      <v>344</v>
+      <v>344</v>
+      <v>344</v>
+      <v>344</v>
+      <v>344</v>
     </spb>
     <spb s="0">
       <v xml:space="preserve">Wikipedia	</v>
@@ -24923,15 +24989,15 @@
       <v xml:space="preserve">https://creativecommons.org/licenses/by-sa/3.0	</v>
     </spb>
     <spb s="13">
-      <v>345</v>
-      <v>345</v>
-      <v>345</v>
-      <v>345</v>
-      <v>345</v>
-      <v>345</v>
-      <v>345</v>
-      <v>345</v>
-      <v>345</v>
+      <v>346</v>
+      <v>346</v>
+      <v>346</v>
+      <v>346</v>
+      <v>346</v>
+      <v>346</v>
+      <v>346</v>
+      <v>346</v>
+      <v>346</v>
     </spb>
     <spb s="0">
       <v xml:space="preserve">Wikipedia	</v>
@@ -24940,14 +25006,14 @@
       <v xml:space="preserve">https://creativecommons.org/licenses/by-sa/3.0	</v>
     </spb>
     <spb s="14">
-      <v>347</v>
-      <v>347</v>
-      <v>347</v>
-      <v>347</v>
-      <v>347</v>
-      <v>347</v>
-      <v>347</v>
-      <v>347</v>
+      <v>348</v>
+      <v>348</v>
+      <v>348</v>
+      <v>348</v>
+      <v>348</v>
+      <v>348</v>
+      <v>348</v>
+      <v>348</v>
     </spb>
     <spb s="0">
       <v xml:space="preserve">Wikipedia	</v>
@@ -24956,15 +25022,15 @@
       <v xml:space="preserve">https://creativecommons.org/licenses/by-sa/3.0	</v>
     </spb>
     <spb s="13">
-      <v>349</v>
-      <v>349</v>
-      <v>349</v>
-      <v>349</v>
-      <v>349</v>
-      <v>349</v>
-      <v>349</v>
-      <v>349</v>
-      <v>349</v>
+      <v>350</v>
+      <v>350</v>
+      <v>350</v>
+      <v>350</v>
+      <v>350</v>
+      <v>350</v>
+      <v>350</v>
+      <v>350</v>
+      <v>350</v>
     </spb>
     <spb s="0">
       <v xml:space="preserve">Wikipedia	</v>
@@ -24973,15 +25039,15 @@
       <v xml:space="preserve">https://creativecommons.org/licenses/by-sa/3.0	</v>
     </spb>
     <spb s="13">
-      <v>351</v>
-      <v>351</v>
-      <v>351</v>
-      <v>351</v>
-      <v>351</v>
-      <v>351</v>
-      <v>351</v>
-      <v>351</v>
-      <v>351</v>
+      <v>352</v>
+      <v>352</v>
+      <v>352</v>
+      <v>352</v>
+      <v>352</v>
+      <v>352</v>
+      <v>352</v>
+      <v>352</v>
+      <v>352</v>
     </spb>
     <spb s="0">
       <v xml:space="preserve">Wikipedia	</v>
@@ -24996,16 +25062,16 @@
       <v xml:space="preserve">https://creativecommons.org/licenses/by-sa/3.0	</v>
     </spb>
     <spb s="29">
-      <v>353</v>
       <v>354</v>
-      <v>354</v>
-      <v>354</v>
-      <v>354</v>
-      <v>354</v>
-      <v>354</v>
+      <v>355</v>
+      <v>355</v>
+      <v>355</v>
+      <v>355</v>
+      <v>355</v>
+      <v>355</v>
     </spb>
     <spb s="2">
-      <v>38</v>
+      <v>39</v>
       <v>Name</v>
       <v>LearnMoreOnLink</v>
     </spb>
@@ -25022,17 +25088,17 @@
       <v xml:space="preserve">http://creativecommons.org/licenses/by-sa/3.0/	</v>
     </spb>
     <spb s="26">
-      <v>357</v>
-      <v>357</v>
-      <v>357</v>
       <v>358</v>
-      <v>357</v>
-      <v>357</v>
-      <v>357</v>
-      <v>357</v>
+      <v>358</v>
+      <v>358</v>
+      <v>359</v>
+      <v>358</v>
+      <v>358</v>
+      <v>358</v>
+      <v>358</v>
     </spb>
     <spb s="2">
-      <v>39</v>
+      <v>40</v>
       <v>Name</v>
       <v>LearnMoreOnLink</v>
     </spb>
@@ -25049,15 +25115,15 @@
       <v xml:space="preserve">https://creativecommons.org/licenses/by-sa/3.0	</v>
     </spb>
     <spb s="17">
-      <v>361</v>
       <v>362</v>
-      <v>362</v>
-      <v>362</v>
-      <v>362</v>
-      <v>362</v>
-      <v>362</v>
-      <v>362</v>
-      <v>362</v>
+      <v>363</v>
+      <v>363</v>
+      <v>363</v>
+      <v>363</v>
+      <v>363</v>
+      <v>363</v>
+      <v>363</v>
+      <v>363</v>
     </spb>
     <spb s="0">
       <v xml:space="preserve">Wikipedia	</v>
@@ -25066,14 +25132,14 @@
       <v xml:space="preserve">https://creativecommons.org/licenses/by-sa/3.0	</v>
     </spb>
     <spb s="1">
-      <v>364</v>
-      <v>364</v>
-      <v>364</v>
-      <v>364</v>
-      <v>364</v>
-      <v>364</v>
-      <v>364</v>
-      <v>364</v>
+      <v>365</v>
+      <v>365</v>
+      <v>365</v>
+      <v>365</v>
+      <v>365</v>
+      <v>365</v>
+      <v>365</v>
+      <v>365</v>
     </spb>
     <spb s="0">
       <v xml:space="preserve">Wikipedia	</v>
@@ -25082,13 +25148,13 @@
       <v xml:space="preserve">https://creativecommons.org/licenses/by-sa/3.0	</v>
     </spb>
     <spb s="27">
-      <v>366</v>
-      <v>366</v>
-      <v>366</v>
-      <v>366</v>
-      <v>366</v>
-      <v>366</v>
-      <v>366</v>
+      <v>367</v>
+      <v>367</v>
+      <v>367</v>
+      <v>367</v>
+      <v>367</v>
+      <v>367</v>
+      <v>367</v>
     </spb>
     <spb s="0">
       <v xml:space="preserve">Wikipedia	</v>
@@ -25103,14 +25169,14 @@
       <v xml:space="preserve">http://creativecommons.org/licenses/by-sa/3.0/	</v>
     </spb>
     <spb s="14">
-      <v>368</v>
-      <v>368</v>
-      <v>368</v>
-      <v>368</v>
       <v>369</v>
-      <v>368</v>
-      <v>368</v>
-      <v>368</v>
+      <v>369</v>
+      <v>369</v>
+      <v>369</v>
+      <v>370</v>
+      <v>369</v>
+      <v>369</v>
+      <v>369</v>
     </spb>
     <spb s="0">
       <v xml:space="preserve">Wikipedia	</v>
@@ -25119,16 +25185,16 @@
       <v xml:space="preserve">https://creativecommons.org/licenses/by-sa/3.0	</v>
     </spb>
     <spb s="27">
-      <v>371</v>
-      <v>371</v>
-      <v>371</v>
-      <v>371</v>
-      <v>371</v>
-      <v>371</v>
-      <v>371</v>
+      <v>372</v>
+      <v>372</v>
+      <v>372</v>
+      <v>372</v>
+      <v>372</v>
+      <v>372</v>
+      <v>372</v>
     </spb>
     <spb s="2">
-      <v>40</v>
+      <v>41</v>
       <v>Name</v>
       <v>LearnMoreOnLink</v>
     </spb>
@@ -25139,19 +25205,19 @@
       <v xml:space="preserve">https://creativecommons.org/licenses/by-sa/3.0	</v>
     </spb>
     <spb s="18">
-      <v>374</v>
-      <v>374</v>
-      <v>374</v>
-      <v>374</v>
-      <v>374</v>
-      <v>374</v>
-      <v>374</v>
-      <v>374</v>
-      <v>374</v>
-      <v>374</v>
+      <v>375</v>
+      <v>375</v>
+      <v>375</v>
+      <v>375</v>
+      <v>375</v>
+      <v>375</v>
+      <v>375</v>
+      <v>375</v>
+      <v>375</v>
+      <v>375</v>
     </spb>
     <spb s="2">
-      <v>41</v>
+      <v>42</v>
       <v>Name</v>
       <v>LearnMoreOnLink</v>
     </spb>
@@ -25168,15 +25234,15 @@
       <v xml:space="preserve">http://creativecommons.org/licenses/by-sa/3.0/	</v>
     </spb>
     <spb s="13">
-      <v>377</v>
-      <v>377</v>
-      <v>377</v>
-      <v>377</v>
       <v>378</v>
-      <v>377</v>
-      <v>377</v>
-      <v>377</v>
-      <v>377</v>
+      <v>378</v>
+      <v>378</v>
+      <v>378</v>
+      <v>379</v>
+      <v>378</v>
+      <v>378</v>
+      <v>378</v>
+      <v>378</v>
     </spb>
     <spb s="0">
       <v xml:space="preserve">Wikipedia	</v>
@@ -25185,17 +25251,17 @@
       <v xml:space="preserve">https://creativecommons.org/licenses/by-sa/3.0	</v>
     </spb>
     <spb s="21">
-      <v>380</v>
-      <v>380</v>
-      <v>380</v>
-      <v>380</v>
-      <v>380</v>
-      <v>380</v>
-      <v>380</v>
-      <v>380</v>
+      <v>381</v>
+      <v>381</v>
+      <v>381</v>
+      <v>381</v>
+      <v>381</v>
+      <v>381</v>
+      <v>381</v>
+      <v>381</v>
     </spb>
     <spb s="2">
-      <v>42</v>
+      <v>43</v>
       <v>Name</v>
       <v>LearnMoreOnLink</v>
     </spb>
@@ -25206,15 +25272,15 @@
       <v xml:space="preserve">https://creativecommons.org/licenses/by-sa/3.0	</v>
     </spb>
     <spb s="17">
-      <v>383</v>
-      <v>383</v>
-      <v>383</v>
-      <v>383</v>
-      <v>383</v>
-      <v>383</v>
-      <v>383</v>
-      <v>383</v>
-      <v>383</v>
+      <v>384</v>
+      <v>384</v>
+      <v>384</v>
+      <v>384</v>
+      <v>384</v>
+      <v>384</v>
+      <v>384</v>
+      <v>384</v>
+      <v>384</v>
     </spb>
     <spb s="0">
       <v xml:space="preserve">Wikipedia	</v>
@@ -25223,15 +25289,15 @@
       <v xml:space="preserve">https://creativecommons.org/licenses/by-sa/3.0	</v>
     </spb>
     <spb s="13">
-      <v>385</v>
-      <v>385</v>
-      <v>385</v>
-      <v>385</v>
-      <v>385</v>
-      <v>385</v>
-      <v>385</v>
-      <v>385</v>
-      <v>385</v>
+      <v>386</v>
+      <v>386</v>
+      <v>386</v>
+      <v>386</v>
+      <v>386</v>
+      <v>386</v>
+      <v>386</v>
+      <v>386</v>
+      <v>386</v>
     </spb>
     <spb s="0">
       <v xml:space="preserve">Wikipedia	</v>
@@ -25246,17 +25312,17 @@
       <v xml:space="preserve">http://creativecommons.org/licenses/by-sa/3.0/	</v>
     </spb>
     <spb s="19">
-      <v>387</v>
-      <v>387</v>
-      <v>387</v>
       <v>388</v>
-      <v>387</v>
-      <v>387</v>
-      <v>387</v>
-      <v>387</v>
+      <v>388</v>
+      <v>388</v>
+      <v>389</v>
+      <v>388</v>
+      <v>388</v>
+      <v>388</v>
+      <v>388</v>
     </spb>
     <spb s="2">
-      <v>43</v>
+      <v>44</v>
       <v>Name</v>
       <v>LearnMoreOnLink</v>
     </spb>
@@ -25267,15 +25333,15 @@
       <v xml:space="preserve">https://creativecommons.org/licenses/by-sa/3.0	</v>
     </spb>
     <spb s="30">
-      <v>391</v>
-      <v>391</v>
-      <v>391</v>
-      <v>391</v>
-      <v>391</v>
-      <v>391</v>
+      <v>392</v>
+      <v>392</v>
+      <v>392</v>
+      <v>392</v>
+      <v>392</v>
+      <v>392</v>
     </spb>
     <spb s="2">
-      <v>44</v>
+      <v>45</v>
       <v>Name</v>
       <v>LearnMoreOnLink</v>
     </spb>
@@ -25286,15 +25352,15 @@
       <v xml:space="preserve">https://creativecommons.org/licenses/by-sa/3.0	</v>
     </spb>
     <spb s="13">
-      <v>394</v>
-      <v>394</v>
-      <v>394</v>
-      <v>394</v>
-      <v>394</v>
-      <v>394</v>
-      <v>394</v>
-      <v>394</v>
-      <v>394</v>
+      <v>395</v>
+      <v>395</v>
+      <v>395</v>
+      <v>395</v>
+      <v>395</v>
+      <v>395</v>
+      <v>395</v>
+      <v>395</v>
+      <v>395</v>
     </spb>
     <spb s="0">
       <v xml:space="preserve">Wikipedia	</v>
@@ -25303,15 +25369,15 @@
       <v xml:space="preserve">https://creativecommons.org/licenses/by-sa/3.0	</v>
     </spb>
     <spb s="13">
-      <v>396</v>
-      <v>396</v>
-      <v>396</v>
-      <v>396</v>
-      <v>396</v>
-      <v>396</v>
-      <v>396</v>
-      <v>396</v>
-      <v>396</v>
+      <v>397</v>
+      <v>397</v>
+      <v>397</v>
+      <v>397</v>
+      <v>397</v>
+      <v>397</v>
+      <v>397</v>
+      <v>397</v>
+      <v>397</v>
     </spb>
     <spb s="0">
       <v xml:space="preserve">Wikipedia	Cia	travel.state.gov	</v>
@@ -25339,52 +25405,52 @@
     </spb>
     <spb s="31">
       <v>14</v>
-      <v>398</v>
-      <v>399</v>
-      <v>399</v>
-      <v>17</v>
-      <v>399</v>
-      <v>399</v>
       <v>399</v>
       <v>400</v>
+      <v>400</v>
+      <v>17</v>
+      <v>400</v>
+      <v>400</v>
+      <v>400</v>
+      <v>401</v>
+      <v>400</v>
+      <v>400</v>
+      <v>401</v>
+      <v>400</v>
+      <v>400</v>
+      <v>402</v>
+      <v>20</v>
       <v>399</v>
-      <v>399</v>
+      <v>402</v>
+      <v>22</v>
       <v>400</v>
-      <v>399</v>
-      <v>399</v>
-      <v>401</v>
-      <v>20</v>
-      <v>398</v>
-      <v>401</v>
-      <v>22</v>
-      <v>399</v>
-      <v>401</v>
+      <v>402</v>
       <v>23</v>
       <v>24</v>
       <v>25</v>
-      <v>401</v>
-      <v>401</v>
-      <v>399</v>
-      <v>401</v>
+      <v>402</v>
+      <v>402</v>
+      <v>400</v>
+      <v>402</v>
       <v>26</v>
       <v>27</v>
       <v>28</v>
       <v>29</v>
-      <v>401</v>
-      <v>401</v>
-      <v>401</v>
-      <v>401</v>
-      <v>401</v>
-      <v>401</v>
-      <v>401</v>
-      <v>401</v>
-      <v>401</v>
-      <v>401</v>
-      <v>401</v>
+      <v>402</v>
+      <v>402</v>
+      <v>402</v>
+      <v>402</v>
+      <v>402</v>
+      <v>402</v>
+      <v>402</v>
+      <v>402</v>
+      <v>402</v>
+      <v>402</v>
+      <v>402</v>
       <v>30</v>
     </spb>
     <spb s="2">
-      <v>45</v>
+      <v>46</v>
       <v>Name</v>
       <v>LearnMoreOnLink</v>
     </spb>
@@ -25430,15 +25496,15 @@
       <v xml:space="preserve">https://creativecommons.org/licenses/by-sa/3.0	</v>
     </spb>
     <spb s="17">
-      <v>405</v>
-      <v>405</v>
-      <v>405</v>
-      <v>405</v>
-      <v>405</v>
-      <v>405</v>
-      <v>405</v>
-      <v>405</v>
-      <v>405</v>
+      <v>406</v>
+      <v>406</v>
+      <v>406</v>
+      <v>406</v>
+      <v>406</v>
+      <v>406</v>
+      <v>406</v>
+      <v>406</v>
+      <v>406</v>
     </spb>
     <spb s="0">
       <v xml:space="preserve">Wikipedia	</v>
@@ -25447,14 +25513,14 @@
       <v xml:space="preserve">https://creativecommons.org/licenses/by-sa/3.0	</v>
     </spb>
     <spb s="14">
-      <v>407</v>
-      <v>407</v>
-      <v>407</v>
-      <v>407</v>
-      <v>407</v>
-      <v>407</v>
-      <v>407</v>
-      <v>407</v>
+      <v>408</v>
+      <v>408</v>
+      <v>408</v>
+      <v>408</v>
+      <v>408</v>
+      <v>408</v>
+      <v>408</v>
+      <v>408</v>
     </spb>
     <spb s="0">
       <v xml:space="preserve">Wikipedia	</v>
@@ -25463,18 +25529,18 @@
       <v xml:space="preserve">https://creativecommons.org/licenses/by-sa/3.0	</v>
     </spb>
     <spb s="33">
-      <v>409</v>
-      <v>409</v>
-      <v>409</v>
-      <v>409</v>
-      <v>409</v>
-      <v>409</v>
-      <v>409</v>
-      <v>409</v>
-      <v>409</v>
+      <v>410</v>
+      <v>410</v>
+      <v>410</v>
+      <v>410</v>
+      <v>410</v>
+      <v>410</v>
+      <v>410</v>
+      <v>410</v>
+      <v>410</v>
     </spb>
     <spb s="2">
-      <v>46</v>
+      <v>47</v>
       <v>Name</v>
       <v>LearnMoreOnLink</v>
     </spb>
@@ -25488,15 +25554,15 @@
       <v xml:space="preserve">https://creativecommons.org/licenses/by-sa/3.0	</v>
     </spb>
     <spb s="17">
-      <v>413</v>
-      <v>413</v>
-      <v>413</v>
-      <v>413</v>
-      <v>413</v>
-      <v>413</v>
-      <v>413</v>
-      <v>413</v>
-      <v>413</v>
+      <v>414</v>
+      <v>414</v>
+      <v>414</v>
+      <v>414</v>
+      <v>414</v>
+      <v>414</v>
+      <v>414</v>
+      <v>414</v>
+      <v>414</v>
     </spb>
     <spb s="0">
       <v xml:space="preserve">Wikipedia	</v>
@@ -25505,13 +25571,13 @@
       <v xml:space="preserve">https://creativecommons.org/licenses/by-sa/3.0	</v>
     </spb>
     <spb s="25">
-      <v>415</v>
-      <v>415</v>
-      <v>415</v>
-      <v>415</v>
-      <v>415</v>
-      <v>415</v>
-      <v>415</v>
+      <v>416</v>
+      <v>416</v>
+      <v>416</v>
+      <v>416</v>
+      <v>416</v>
+      <v>416</v>
+      <v>416</v>
     </spb>
     <spb s="0">
       <v xml:space="preserve">Wikipedia	</v>
@@ -25520,16 +25586,16 @@
       <v xml:space="preserve">https://creativecommons.org/licenses/by-sa/3.0	</v>
     </spb>
     <spb s="18">
-      <v>417</v>
-      <v>417</v>
-      <v>417</v>
-      <v>417</v>
-      <v>417</v>
-      <v>417</v>
-      <v>417</v>
-      <v>417</v>
-      <v>417</v>
-      <v>417</v>
+      <v>418</v>
+      <v>418</v>
+      <v>418</v>
+      <v>418</v>
+      <v>418</v>
+      <v>418</v>
+      <v>418</v>
+      <v>418</v>
+      <v>418</v>
+      <v>418</v>
     </spb>
     <spb s="0">
       <v xml:space="preserve">Wikipedia	</v>
@@ -25538,14 +25604,14 @@
       <v xml:space="preserve">https://creativecommons.org/licenses/by-sa/3.0	</v>
     </spb>
     <spb s="14">
-      <v>419</v>
-      <v>419</v>
-      <v>419</v>
-      <v>419</v>
-      <v>419</v>
-      <v>419</v>
-      <v>419</v>
-      <v>419</v>
+      <v>420</v>
+      <v>420</v>
+      <v>420</v>
+      <v>420</v>
+      <v>420</v>
+      <v>420</v>
+      <v>420</v>
+      <v>420</v>
     </spb>
     <spb s="0">
       <v xml:space="preserve">Wikipedia	</v>
@@ -25554,16 +25620,16 @@
       <v xml:space="preserve">https://creativecommons.org/licenses/by-sa/3.0	</v>
     </spb>
     <spb s="18">
-      <v>421</v>
-      <v>421</v>
-      <v>421</v>
-      <v>421</v>
-      <v>421</v>
-      <v>421</v>
-      <v>421</v>
-      <v>421</v>
-      <v>421</v>
-      <v>421</v>
+      <v>422</v>
+      <v>422</v>
+      <v>422</v>
+      <v>422</v>
+      <v>422</v>
+      <v>422</v>
+      <v>422</v>
+      <v>422</v>
+      <v>422</v>
+      <v>422</v>
     </spb>
     <spb s="0">
       <v xml:space="preserve">Wikipedia	</v>
@@ -25578,15 +25644,15 @@
       <v xml:space="preserve">http://creativecommons.org/licenses/by-sa/3.0/	</v>
     </spb>
     <spb s="17">
-      <v>423</v>
-      <v>423</v>
-      <v>423</v>
-      <v>423</v>
       <v>424</v>
-      <v>423</v>
-      <v>423</v>
-      <v>423</v>
-      <v>423</v>
+      <v>424</v>
+      <v>424</v>
+      <v>424</v>
+      <v>425</v>
+      <v>424</v>
+      <v>424</v>
+      <v>424</v>
+      <v>424</v>
     </spb>
     <spb s="0">
       <v xml:space="preserve">Wikipedia	</v>
@@ -25595,15 +25661,15 @@
       <v xml:space="preserve">https://creativecommons.org/licenses/by-sa/3.0	</v>
     </spb>
     <spb s="17">
-      <v>426</v>
-      <v>426</v>
-      <v>426</v>
-      <v>426</v>
-      <v>426</v>
-      <v>426</v>
-      <v>426</v>
-      <v>426</v>
-      <v>426</v>
+      <v>427</v>
+      <v>427</v>
+      <v>427</v>
+      <v>427</v>
+      <v>427</v>
+      <v>427</v>
+      <v>427</v>
+      <v>427</v>
+      <v>427</v>
     </spb>
     <spb s="0">
       <v xml:space="preserve">Wikipedia	</v>
@@ -25618,15 +25684,15 @@
       <v xml:space="preserve">http://creativecommons.org/licenses/by-sa/3.0/	</v>
     </spb>
     <spb s="17">
-      <v>428</v>
-      <v>428</v>
-      <v>428</v>
-      <v>428</v>
       <v>429</v>
-      <v>428</v>
-      <v>428</v>
-      <v>428</v>
-      <v>428</v>
+      <v>429</v>
+      <v>429</v>
+      <v>429</v>
+      <v>430</v>
+      <v>429</v>
+      <v>429</v>
+      <v>429</v>
+      <v>429</v>
     </spb>
     <spb s="0">
       <v xml:space="preserve">Wikipedia	</v>
@@ -25641,17 +25707,17 @@
       <v xml:space="preserve">http://creativecommons.org/licenses/by-sa/3.0/	</v>
     </spb>
     <spb s="19">
-      <v>431</v>
-      <v>431</v>
-      <v>431</v>
       <v>432</v>
-      <v>431</v>
-      <v>431</v>
-      <v>431</v>
-      <v>431</v>
+      <v>432</v>
+      <v>432</v>
+      <v>433</v>
+      <v>432</v>
+      <v>432</v>
+      <v>432</v>
+      <v>432</v>
     </spb>
     <spb s="2">
-      <v>47</v>
+      <v>48</v>
       <v>Name</v>
       <v>LearnMoreOnLink</v>
     </spb>
@@ -25662,16 +25728,16 @@
       <v xml:space="preserve">https://creativecommons.org/licenses/by-sa/3.0	</v>
     </spb>
     <spb s="18">
-      <v>435</v>
-      <v>435</v>
-      <v>435</v>
-      <v>435</v>
-      <v>435</v>
-      <v>435</v>
-      <v>435</v>
-      <v>435</v>
-      <v>435</v>
-      <v>435</v>
+      <v>436</v>
+      <v>436</v>
+      <v>436</v>
+      <v>436</v>
+      <v>436</v>
+      <v>436</v>
+      <v>436</v>
+      <v>436</v>
+      <v>436</v>
+      <v>436</v>
     </spb>
     <spb s="7">
       <v>square km</v>
@@ -25690,14 +25756,14 @@
       <v xml:space="preserve">http://creativecommons.org/licenses/by-sa/3.0/	</v>
     </spb>
     <spb s="14">
-      <v>438</v>
-      <v>438</v>
-      <v>438</v>
-      <v>438</v>
       <v>439</v>
-      <v>438</v>
-      <v>438</v>
-      <v>438</v>
+      <v>439</v>
+      <v>439</v>
+      <v>439</v>
+      <v>440</v>
+      <v>439</v>
+      <v>439</v>
+      <v>439</v>
     </spb>
     <spb s="0">
       <v xml:space="preserve">Wikipedia	</v>
@@ -25712,16 +25778,16 @@
       <v xml:space="preserve">https://creativecommons.org/licenses/by-sa/3.0	</v>
     </spb>
     <spb s="18">
-      <v>441</v>
       <v>442</v>
+      <v>443</v>
+      <v>443</v>
+      <v>443</v>
       <v>442</v>
-      <v>442</v>
-      <v>441</v>
-      <v>442</v>
-      <v>442</v>
-      <v>442</v>
-      <v>442</v>
-      <v>442</v>
+      <v>443</v>
+      <v>443</v>
+      <v>443</v>
+      <v>443</v>
+      <v>443</v>
     </spb>
     <spb s="0">
       <v xml:space="preserve">Wikipedia	</v>
@@ -25730,15 +25796,15 @@
       <v xml:space="preserve">https://creativecommons.org/licenses/by-sa/3.0	</v>
     </spb>
     <spb s="13">
-      <v>444</v>
-      <v>444</v>
-      <v>444</v>
-      <v>444</v>
-      <v>444</v>
-      <v>444</v>
-      <v>444</v>
-      <v>444</v>
-      <v>444</v>
+      <v>445</v>
+      <v>445</v>
+      <v>445</v>
+      <v>445</v>
+      <v>445</v>
+      <v>445</v>
+      <v>445</v>
+      <v>445</v>
+      <v>445</v>
     </spb>
     <spb s="0">
       <v xml:space="preserve">Wikipedia	</v>
@@ -25747,18 +25813,18 @@
       <v xml:space="preserve">https://creativecommons.org/licenses/by-sa/3.0	</v>
     </spb>
     <spb s="13">
-      <v>446</v>
-      <v>446</v>
-      <v>446</v>
-      <v>446</v>
-      <v>446</v>
-      <v>446</v>
-      <v>446</v>
-      <v>446</v>
-      <v>446</v>
+      <v>447</v>
+      <v>447</v>
+      <v>447</v>
+      <v>447</v>
+      <v>447</v>
+      <v>447</v>
+      <v>447</v>
+      <v>447</v>
+      <v>447</v>
     </spb>
     <spb s="2">
-      <v>48</v>
+      <v>49</v>
       <v>Name</v>
       <v>LearnMoreOnLink</v>
     </spb>
@@ -25769,7 +25835,7 @@
     <spb s="35">
       <v>3</v>
       <v>3</v>
-      <v>449</v>
+      <v>450</v>
       <v>3</v>
     </spb>
     <spb s="36">
@@ -25789,14 +25855,14 @@
       <v xml:space="preserve">http://creativecommons.org/licenses/by-sa/3.0/	</v>
     </spb>
     <spb s="26">
-      <v>452</v>
-      <v>452</v>
-      <v>452</v>
       <v>453</v>
-      <v>452</v>
-      <v>452</v>
-      <v>452</v>
-      <v>452</v>
+      <v>453</v>
+      <v>453</v>
+      <v>454</v>
+      <v>453</v>
+      <v>453</v>
+      <v>453</v>
+      <v>453</v>
     </spb>
     <spb s="0">
       <v xml:space="preserve">Wikipedia	</v>
@@ -25811,18 +25877,18 @@
       <v xml:space="preserve">http://creativecommons.org/licenses/by-sa/3.0/	</v>
     </spb>
     <spb s="33">
-      <v>455</v>
-      <v>455</v>
-      <v>455</v>
       <v>456</v>
-      <v>455</v>
-      <v>455</v>
-      <v>455</v>
-      <v>455</v>
-      <v>455</v>
+      <v>456</v>
+      <v>456</v>
+      <v>457</v>
+      <v>456</v>
+      <v>456</v>
+      <v>456</v>
+      <v>456</v>
+      <v>456</v>
     </spb>
     <spb s="2">
-      <v>49</v>
+      <v>50</v>
       <v>Name</v>
       <v>LearnMoreOnLink</v>
     </spb>
@@ -25833,14 +25899,14 @@
       <v xml:space="preserve">https://creativecommons.org/licenses/by-sa/3.0	</v>
     </spb>
     <spb s="14">
-      <v>459</v>
-      <v>459</v>
-      <v>459</v>
-      <v>459</v>
-      <v>459</v>
-      <v>459</v>
-      <v>459</v>
-      <v>459</v>
+      <v>460</v>
+      <v>460</v>
+      <v>460</v>
+      <v>460</v>
+      <v>460</v>
+      <v>460</v>
+      <v>460</v>
+      <v>460</v>
     </spb>
     <spb s="0">
       <v xml:space="preserve">Wikipedia	</v>
@@ -25849,15 +25915,15 @@
       <v xml:space="preserve">https://creativecommons.org/licenses/by-sa/3.0	</v>
     </spb>
     <spb s="17">
-      <v>461</v>
-      <v>461</v>
-      <v>461</v>
-      <v>461</v>
-      <v>461</v>
-      <v>461</v>
-      <v>461</v>
-      <v>461</v>
-      <v>461</v>
+      <v>462</v>
+      <v>462</v>
+      <v>462</v>
+      <v>462</v>
+      <v>462</v>
+      <v>462</v>
+      <v>462</v>
+      <v>462</v>
+      <v>462</v>
     </spb>
     <spb s="0">
       <v xml:space="preserve">Wikipedia	</v>
@@ -25872,16 +25938,16 @@
       <v xml:space="preserve">https://creativecommons.org/licenses/by-sa/3.0	</v>
     </spb>
     <spb s="18">
-      <v>463</v>
       <v>464</v>
-      <v>464</v>
-      <v>464</v>
-      <v>464</v>
-      <v>464</v>
-      <v>464</v>
-      <v>464</v>
-      <v>464</v>
-      <v>464</v>
+      <v>465</v>
+      <v>465</v>
+      <v>465</v>
+      <v>465</v>
+      <v>465</v>
+      <v>465</v>
+      <v>465</v>
+      <v>465</v>
+      <v>465</v>
     </spb>
     <spb s="0">
       <v xml:space="preserve">Wikipedia	</v>
@@ -25890,15 +25956,15 @@
       <v xml:space="preserve">https://creativecommons.org/licenses/by-sa/3.0	</v>
     </spb>
     <spb s="17">
-      <v>466</v>
-      <v>466</v>
-      <v>466</v>
-      <v>466</v>
-      <v>466</v>
-      <v>466</v>
-      <v>466</v>
-      <v>466</v>
-      <v>466</v>
+      <v>467</v>
+      <v>467</v>
+      <v>467</v>
+      <v>467</v>
+      <v>467</v>
+      <v>467</v>
+      <v>467</v>
+      <v>467</v>
+      <v>467</v>
     </spb>
     <spb s="0">
       <v xml:space="preserve">Wikipedia	</v>
@@ -25913,14 +25979,14 @@
       <v xml:space="preserve">http://creativecommons.org/licenses/by-sa/3.0/	</v>
     </spb>
     <spb s="14">
-      <v>468</v>
-      <v>468</v>
-      <v>468</v>
-      <v>468</v>
       <v>469</v>
-      <v>468</v>
-      <v>468</v>
-      <v>468</v>
+      <v>469</v>
+      <v>469</v>
+      <v>469</v>
+      <v>470</v>
+      <v>469</v>
+      <v>469</v>
+      <v>469</v>
     </spb>
     <spb s="0">
       <v xml:space="preserve">Wikipedia	</v>
@@ -25929,15 +25995,15 @@
       <v xml:space="preserve">https://creativecommons.org/licenses/by-sa/3.0	</v>
     </spb>
     <spb s="13">
-      <v>471</v>
-      <v>471</v>
-      <v>471</v>
-      <v>471</v>
-      <v>471</v>
-      <v>471</v>
-      <v>471</v>
-      <v>471</v>
-      <v>471</v>
+      <v>472</v>
+      <v>472</v>
+      <v>472</v>
+      <v>472</v>
+      <v>472</v>
+      <v>472</v>
+      <v>472</v>
+      <v>472</v>
+      <v>472</v>
     </spb>
     <spb s="0">
       <v xml:space="preserve">Wikipedia	</v>
@@ -25946,14 +26012,14 @@
       <v xml:space="preserve">https://creativecommons.org/licenses/by-sa/3.0	</v>
     </spb>
     <spb s="26">
-      <v>473</v>
-      <v>473</v>
-      <v>473</v>
-      <v>473</v>
-      <v>473</v>
-      <v>473</v>
-      <v>473</v>
-      <v>473</v>
+      <v>474</v>
+      <v>474</v>
+      <v>474</v>
+      <v>474</v>
+      <v>474</v>
+      <v>474</v>
+      <v>474</v>
+      <v>474</v>
     </spb>
     <spb s="0">
       <v xml:space="preserve">Wikipedia	</v>
@@ -25962,17 +26028,17 @@
       <v xml:space="preserve">https://creativecommons.org/licenses/by-sa/3.0	</v>
     </spb>
     <spb s="19">
-      <v>475</v>
-      <v>475</v>
-      <v>475</v>
-      <v>475</v>
-      <v>475</v>
-      <v>475</v>
-      <v>475</v>
-      <v>475</v>
+      <v>476</v>
+      <v>476</v>
+      <v>476</v>
+      <v>476</v>
+      <v>476</v>
+      <v>476</v>
+      <v>476</v>
+      <v>476</v>
     </spb>
     <spb s="2">
-      <v>50</v>
+      <v>51</v>
       <v>Name</v>
       <v>LearnMoreOnLink</v>
     </spb>
@@ -25983,16 +26049,16 @@
       <v xml:space="preserve">https://creativecommons.org/licenses/by-sa/3.0	</v>
     </spb>
     <spb s="18">
-      <v>478</v>
-      <v>478</v>
-      <v>478</v>
-      <v>478</v>
-      <v>478</v>
-      <v>478</v>
-      <v>478</v>
-      <v>478</v>
-      <v>478</v>
-      <v>478</v>
+      <v>479</v>
+      <v>479</v>
+      <v>479</v>
+      <v>479</v>
+      <v>479</v>
+      <v>479</v>
+      <v>479</v>
+      <v>479</v>
+      <v>479</v>
+      <v>479</v>
     </spb>
     <spb s="0">
       <v xml:space="preserve">Wikipedia	</v>
@@ -26001,15 +26067,15 @@
       <v xml:space="preserve">https://creativecommons.org/licenses/by-sa/3.0	</v>
     </spb>
     <spb s="17">
-      <v>480</v>
-      <v>480</v>
-      <v>480</v>
-      <v>480</v>
-      <v>480</v>
-      <v>480</v>
-      <v>480</v>
-      <v>480</v>
-      <v>480</v>
+      <v>481</v>
+      <v>481</v>
+      <v>481</v>
+      <v>481</v>
+      <v>481</v>
+      <v>481</v>
+      <v>481</v>
+      <v>481</v>
+      <v>481</v>
     </spb>
     <spb s="0">
       <v xml:space="preserve">Wikipedia	</v>
@@ -26018,15 +26084,15 @@
       <v xml:space="preserve">https://creativecommons.org/licenses/by-sa/3.0	</v>
     </spb>
     <spb s="13">
-      <v>482</v>
-      <v>482</v>
-      <v>482</v>
-      <v>482</v>
-      <v>482</v>
-      <v>482</v>
-      <v>482</v>
-      <v>482</v>
-      <v>482</v>
+      <v>483</v>
+      <v>483</v>
+      <v>483</v>
+      <v>483</v>
+      <v>483</v>
+      <v>483</v>
+      <v>483</v>
+      <v>483</v>
+      <v>483</v>
     </spb>
     <spb s="0">
       <v xml:space="preserve">Wikipedia	</v>
@@ -26035,13 +26101,13 @@
       <v xml:space="preserve">https://creativecommons.org/licenses/by-sa/3.0	</v>
     </spb>
     <spb s="27">
-      <v>484</v>
-      <v>484</v>
-      <v>484</v>
-      <v>484</v>
-      <v>484</v>
-      <v>484</v>
-      <v>484</v>
+      <v>485</v>
+      <v>485</v>
+      <v>485</v>
+      <v>485</v>
+      <v>485</v>
+      <v>485</v>
+      <v>485</v>
     </spb>
     <spb s="0">
       <v xml:space="preserve">Wikipedia	</v>
@@ -26056,13 +26122,13 @@
       <v xml:space="preserve">http://creativecommons.org/licenses/by-sa/3.0/	</v>
     </spb>
     <spb s="23">
-      <v>486</v>
-      <v>486</v>
-      <v>486</v>
       <v>487</v>
-      <v>486</v>
-      <v>486</v>
-      <v>486</v>
+      <v>487</v>
+      <v>487</v>
+      <v>488</v>
+      <v>487</v>
+      <v>487</v>
+      <v>487</v>
     </spb>
     <spb s="0">
       <v xml:space="preserve">Wikipedia	</v>
@@ -26077,16 +26143,16 @@
       <v xml:space="preserve">http://creativecommons.org/licenses/by-sa/3.0/	</v>
     </spb>
     <spb s="37">
-      <v>489</v>
-      <v>489</v>
-      <v>489</v>
-      <v>489</v>
-      <v>489</v>
       <v>490</v>
-      <v>489</v>
+      <v>490</v>
+      <v>490</v>
+      <v>490</v>
+      <v>490</v>
+      <v>491</v>
+      <v>490</v>
     </spb>
     <spb s="2">
-      <v>51</v>
+      <v>52</v>
       <v>Name</v>
       <v>LearnMoreOnLink</v>
     </spb>
@@ -26097,14 +26163,14 @@
       <v xml:space="preserve">https://creativecommons.org/licenses/by-sa/3.0	</v>
     </spb>
     <spb s="14">
-      <v>493</v>
-      <v>493</v>
-      <v>493</v>
-      <v>493</v>
-      <v>493</v>
-      <v>493</v>
-      <v>493</v>
-      <v>493</v>
+      <v>494</v>
+      <v>494</v>
+      <v>494</v>
+      <v>494</v>
+      <v>494</v>
+      <v>494</v>
+      <v>494</v>
+      <v>494</v>
     </spb>
     <spb s="0">
       <v xml:space="preserve">Wikipedia	</v>
@@ -26119,15 +26185,15 @@
       <v xml:space="preserve">http://creativecommons.org/licenses/by-sa/3.0/	</v>
     </spb>
     <spb s="13">
-      <v>495</v>
-      <v>495</v>
-      <v>495</v>
-      <v>495</v>
       <v>496</v>
-      <v>495</v>
-      <v>495</v>
-      <v>495</v>
-      <v>495</v>
+      <v>496</v>
+      <v>496</v>
+      <v>496</v>
+      <v>497</v>
+      <v>496</v>
+      <v>496</v>
+      <v>496</v>
+      <v>496</v>
     </spb>
     <spb s="0">
       <v xml:space="preserve">Wikipedia	</v>
@@ -26142,15 +26208,15 @@
       <v xml:space="preserve">http://creativecommons.org/licenses/by-sa/3.0/	</v>
     </spb>
     <spb s="13">
-      <v>498</v>
-      <v>498</v>
-      <v>498</v>
-      <v>498</v>
       <v>499</v>
-      <v>498</v>
-      <v>498</v>
-      <v>498</v>
-      <v>498</v>
+      <v>499</v>
+      <v>499</v>
+      <v>499</v>
+      <v>500</v>
+      <v>499</v>
+      <v>499</v>
+      <v>499</v>
+      <v>499</v>
     </spb>
     <spb s="0">
       <v xml:space="preserve">Wikipedia	</v>
@@ -26159,15 +26225,15 @@
       <v xml:space="preserve">https://creativecommons.org/licenses/by-sa/3.0	</v>
     </spb>
     <spb s="17">
-      <v>501</v>
-      <v>501</v>
-      <v>501</v>
-      <v>501</v>
-      <v>501</v>
-      <v>501</v>
-      <v>501</v>
-      <v>501</v>
-      <v>501</v>
+      <v>502</v>
+      <v>502</v>
+      <v>502</v>
+      <v>502</v>
+      <v>502</v>
+      <v>502</v>
+      <v>502</v>
+      <v>502</v>
+      <v>502</v>
     </spb>
     <spb s="0">
       <v xml:space="preserve">Wikipedia	</v>
@@ -26182,14 +26248,14 @@
       <v xml:space="preserve">https://creativecommons.org/licenses/by-sa/3.0	</v>
     </spb>
     <spb s="14">
-      <v>503</v>
       <v>504</v>
+      <v>505</v>
+      <v>505</v>
+      <v>505</v>
       <v>504</v>
-      <v>504</v>
-      <v>503</v>
-      <v>504</v>
-      <v>504</v>
-      <v>504</v>
+      <v>505</v>
+      <v>505</v>
+      <v>505</v>
     </spb>
     <spb s="0">
       <v xml:space="preserve">Wikipedia	</v>
@@ -26204,13 +26270,13 @@
       <v xml:space="preserve">http://creativecommons.org/licenses/by-sa/3.0/	</v>
     </spb>
     <spb s="23">
-      <v>506</v>
-      <v>506</v>
-      <v>506</v>
       <v>507</v>
-      <v>506</v>
-      <v>506</v>
-      <v>506</v>
+      <v>507</v>
+      <v>507</v>
+      <v>508</v>
+      <v>507</v>
+      <v>507</v>
+      <v>507</v>
     </spb>
     <spb s="24">
       <v>2013</v>
@@ -26228,14 +26294,14 @@
       <v xml:space="preserve">http://creativecommons.org/licenses/by-sa/3.0/	</v>
     </spb>
     <spb s="26">
-      <v>510</v>
-      <v>510</v>
-      <v>510</v>
       <v>511</v>
-      <v>510</v>
-      <v>510</v>
-      <v>510</v>
-      <v>510</v>
+      <v>511</v>
+      <v>511</v>
+      <v>512</v>
+      <v>511</v>
+      <v>511</v>
+      <v>511</v>
+      <v>511</v>
     </spb>
     <spb s="0">
       <v xml:space="preserve">Wikipedia	</v>
@@ -26250,15 +26316,15 @@
       <v xml:space="preserve">http://creativecommons.org/licenses/by-sa/3.0/	</v>
     </spb>
     <spb s="17">
-      <v>513</v>
-      <v>513</v>
-      <v>513</v>
-      <v>513</v>
       <v>514</v>
-      <v>513</v>
-      <v>513</v>
-      <v>513</v>
-      <v>513</v>
+      <v>514</v>
+      <v>514</v>
+      <v>514</v>
+      <v>515</v>
+      <v>514</v>
+      <v>514</v>
+      <v>514</v>
+      <v>514</v>
     </spb>
     <spb s="0">
       <v xml:space="preserve">Wikipedia	</v>
@@ -26273,15 +26339,15 @@
       <v xml:space="preserve">http://creativecommons.org/licenses/by-sa/3.0/	</v>
     </spb>
     <spb s="17">
-      <v>516</v>
-      <v>516</v>
-      <v>516</v>
-      <v>516</v>
       <v>517</v>
-      <v>516</v>
-      <v>516</v>
-      <v>516</v>
-      <v>516</v>
+      <v>517</v>
+      <v>517</v>
+      <v>517</v>
+      <v>518</v>
+      <v>517</v>
+      <v>517</v>
+      <v>517</v>
+      <v>517</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -27094,8 +27160,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE9A6602-B321-4885-AC95-A67957842A95}">
   <dimension ref="A1:L442"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A430" workbookViewId="0">
-      <selection activeCell="A391" sqref="A391:J442"/>
+    <sheetView tabSelected="1" topLeftCell="A134" workbookViewId="0">
+      <selection activeCell="D155" sqref="D155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -31914,10 +31980,10 @@
         <v>#VALUE!</v>
       </c>
       <c r="B153" vm="216">
-        <v>61.782222222222003</v>
+        <v>23.6</v>
       </c>
       <c r="C153" vm="217">
-        <v>-6.6755555555555999</v>
+        <v>72.95</v>
       </c>
       <c r="D153" t="s">
         <v>199</v>

--- a/dataset.xlsx
+++ b/dataset.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ciiindia-my.sharepoint.com/personal/alan_sam_cii_in/Documents/Documents/Tracker Map Code + Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="21" documentId="13_ncr:1_{1A41A2D0-B556-4CF2-B1FD-C6BB52EFC2FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CC1CE66B-C5E1-49CB-982F-47D7A30FCF08}"/>
+  <xr:revisionPtr revIDLastSave="26" documentId="13_ncr:1_{1A41A2D0-B556-4CF2-B1FD-C6BB52EFC2FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DC554B40-A5CB-4ED2-A0ED-F03886A14EFD}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4F9A9B44-54FA-4D5C-A39D-44836A046FE4}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{4F9A9B44-54FA-4D5C-A39D-44836A046FE4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
   <metadataTypes count="1">
     <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
   </metadataTypes>
-  <futureMetadata name="XLRICHVALUE" count="441">
+  <futureMetadata name="XLRICHVALUE" count="448">
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
@@ -3131,8 +3131,57 @@
         </ext>
       </extLst>
     </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="1625"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="1627"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="1629"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="1632"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="1694"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="1697"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="1701"/>
+        </ext>
+      </extLst>
+    </bk>
   </futureMetadata>
-  <valueMetadata count="441">
+  <valueMetadata count="448">
     <bk>
       <rc t="1" v="0"/>
     </bk>
@@ -4455,13 +4504,34 @@
     </bk>
     <bk>
       <rc t="1" v="440"/>
+    </bk>
+    <bk>
+      <rc t="1" v="441"/>
+    </bk>
+    <bk>
+      <rc t="1" v="442"/>
+    </bk>
+    <bk>
+      <rc t="1" v="443"/>
+    </bk>
+    <bk>
+      <rc t="1" v="444"/>
+    </bk>
+    <bk>
+      <rc t="1" v="445"/>
+    </bk>
+    <bk>
+      <rc t="1" v="446"/>
+    </bk>
+    <bk>
+      <rc t="1" v="447"/>
     </bk>
   </valueMetadata>
 </metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2616" uniqueCount="479">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2778" uniqueCount="521">
   <si>
     <t>City</t>
   </si>
@@ -5898,6 +5968,132 @@
   </si>
   <si>
     <t>Kolhapur Cluster - Marvellous Vimercati</t>
+  </si>
+  <si>
+    <t>Dynachem Deep India Pvt Ltd</t>
+  </si>
+  <si>
+    <t>Cleaning Products</t>
+  </si>
+  <si>
+    <t>Consumer</t>
+  </si>
+  <si>
+    <t>Satol Chemicals</t>
+  </si>
+  <si>
+    <t>Reshared EOI. Still awaiting. Deciding on product list</t>
+  </si>
+  <si>
+    <t>Happi Planet</t>
+  </si>
+  <si>
+    <t>HARVEY CLEANPRO INDUSTRIES</t>
+  </si>
+  <si>
+    <t>TMT Marketing and Sales Pvt Ltd</t>
+  </si>
+  <si>
+    <t>Product Perfomance to be reviewed by client</t>
+  </si>
+  <si>
+    <t>Reliable Chemicals</t>
+  </si>
+  <si>
+    <t>Parry Fertilizer</t>
+  </si>
+  <si>
+    <t>Finishol Green Technologies Pvt. Ltd.- Additional</t>
+  </si>
+  <si>
+    <t>GG Organics Care Pvt Ltd</t>
+  </si>
+  <si>
+    <t>Rossari Biotech Ltd</t>
+  </si>
+  <si>
+    <t>Phase 2 ongoing</t>
+  </si>
+  <si>
+    <t>Organica Biotech Pvt Ltd/Hyperion Bioscience Private Limited</t>
+  </si>
+  <si>
+    <t>Chemtex Speciality Limited</t>
+  </si>
+  <si>
+    <t>Report pending</t>
+  </si>
+  <si>
+    <t>Pal Fashions Pvt Ltd</t>
+  </si>
+  <si>
+    <t>Textiles</t>
+  </si>
+  <si>
+    <t>UPL Limited</t>
+  </si>
+  <si>
+    <t>Consumer Products</t>
+  </si>
+  <si>
+    <t>Crompton</t>
+  </si>
+  <si>
+    <t>Fans</t>
+  </si>
+  <si>
+    <t>Natur Tec</t>
+  </si>
+  <si>
+    <t>Grenove Services Pvt Ltd</t>
+  </si>
+  <si>
+    <t>Earthonomic Ecosolutions Pvt Ltd</t>
+  </si>
+  <si>
+    <t>IAQ</t>
+  </si>
+  <si>
+    <t>Euronics- Consumer Products</t>
+  </si>
+  <si>
+    <t>Not pursuing - products not meeting the criteria</t>
+  </si>
+  <si>
+    <t>Ennwin Industries Pvt Ltd</t>
+  </si>
+  <si>
+    <t>Stas Chem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dyson </t>
+  </si>
+  <si>
+    <t>Hand Dryers</t>
+  </si>
+  <si>
+    <t>Swadesh International</t>
+  </si>
+  <si>
+    <t>Completed - Do not want to pursue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Emiclean </t>
+  </si>
+  <si>
+    <t>Revachemicals</t>
+  </si>
+  <si>
+    <t>Consultant is doing a feasiblity study and then intro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IntelliGreen Technologies Pvt Ltd </t>
+  </si>
+  <si>
+    <t>Clove Lighting</t>
+  </si>
+  <si>
+    <t>Lighting</t>
   </si>
 </sst>
 </file>
@@ -6770,11 +6966,19 @@
     <address r:id="rId325"/>
     <moreImagesAddress r:id="rId326"/>
   </webImageSrd>
+  <webImageSrd>
+    <address r:id="rId327"/>
+    <moreImagesAddress r:id="rId328"/>
+  </webImageSrd>
+  <webImageSrd>
+    <address r:id="rId329"/>
+    <moreImagesAddress r:id="rId330"/>
+  </webImageSrd>
 </webImagesSrd>
 </file>
 
 <file path=xl/richData/rdarray.xml><?xml version="1.0" encoding="utf-8"?>
-<arrayData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="100">
+<arrayData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="105">
   <a r="1">
     <v t="s">UTC+05:30</v>
   </a>
@@ -7184,11 +7388,43 @@
   <a r="1">
     <v t="s">Arabic</v>
   </a>
+  <a r="3">
+    <v t="r">1652</v>
+    <v t="r">1652</v>
+    <v t="r">1653</v>
+  </a>
+  <a r="1">
+    <v t="s">Malay language</v>
+  </a>
+  <a r="16">
+    <v t="r">1672</v>
+    <v t="r">1673</v>
+    <v t="r">1674</v>
+    <v t="r">1675</v>
+    <v t="r">1676</v>
+    <v t="r">1677</v>
+    <v t="r">1678</v>
+    <v t="r">1679</v>
+    <v t="r">1680</v>
+    <v t="r">1681</v>
+    <v t="r">1682</v>
+    <v t="r">1683</v>
+    <v t="r">1684</v>
+    <v t="r">1638</v>
+    <v t="r">1685</v>
+    <v t="r">1686</v>
+  </a>
+  <a r="1">
+    <v t="s">UTC+08:00</v>
+  </a>
+  <a r="1">
+    <v t="r">1698</v>
+  </a>
 </arrayData>
 </file>
 
 <file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
-<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1625">
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1704">
   <rv s="0">
     <v>536870912</v>
     <v>Kutch district</v>
@@ -19460,11 +19696,505 @@
     <v>Kolhapur</v>
     <v>mdp/vdpid/7464761701234114561</v>
   </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Tarapur, Maharashtra</v>
+    <v>0253505b-622e-ed6d-c8d3-27bfa2ed1f4f</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="1">
+    <fb>7.21</fb>
+    <v>8</v>
+  </rv>
+  <rv s="1">
+    <fb>19.850000000000001</fb>
+    <v>46</v>
+  </rv>
+  <rv s="3">
+    <v>https://www.bing.com/search?q=tarapur+india&amp;form=skydnc</v>
+    <v>Learn more on Bing</v>
+  </rv>
+  <rv s="1">
+    <fb>72.7</fb>
+    <v>46</v>
+  </rv>
+  <rv s="1">
+    <fb>37541</fb>
+    <v>8</v>
+  </rv>
+  <rv s="59">
+    <v>#VALUE!</v>
+    <v>en-US</v>
+    <v>0253505b-622e-ed6d-c8d3-27bfa2ed1f4f</v>
+    <v>536870912</v>
+    <v>1</v>
+    <v>522</v>
+    <v>523</v>
+    <v>Tarapur, Maharashtra</v>
+    <v>13</v>
+    <v>299</v>
+    <v>Map</v>
+    <v>6</v>
+    <v>148</v>
+    <v>1626</v>
+    <v>3</v>
+    <v>Tarapur is a census town in Palghar district in the Indian state of Maharashtra. Railway line of Mumbai Suburban Division. Tarapur can be reached from Boisar, the nearest railway station. It is 20 km off National Highway NH-8.</v>
+    <v>1627</v>
+    <v>1628</v>
+    <v>1629</v>
+    <v>Tarapur, Maharashtra</v>
+    <v>1630</v>
+    <v>Tarapur, Maharashtra</v>
+    <v>mdp/vdpid/7459076466714607617</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Malaysia</v>
+    <v>b3abad47-1313-e000-0d95-f77f69e2fcdd</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="1">
+    <fb>0.262577994217014</fb>
+    <v>34</v>
+  </rv>
+  <rv s="1">
+    <fb>330803</fb>
+    <v>8</v>
+  </rv>
+  <rv s="1">
+    <fb>136000</fb>
+    <v>8</v>
+  </rv>
+  <rv s="1">
+    <fb>16.751999999999999</fb>
+    <v>35</v>
+  </rv>
+  <rv s="1">
+    <fb>60</fb>
+    <v>36</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Kuala Lumpur</v>
+    <v>22f00b26-6726-bd5c-180f-3ff38ae380f3</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="1">
+    <fb>248288.90299999999</fb>
+    <v>8</v>
+  </rv>
+  <rv s="1">
+    <fb>121.463089485086</fb>
+    <v>37</v>
+  </rv>
+  <rv s="1">
+    <fb>6.6289186576437599E-3</fb>
+    <v>34</v>
+  </rv>
+  <rv s="1">
+    <fb>4651.9587341816004</fb>
+    <v>8</v>
+  </rv>
+  <rv s="1">
+    <fb>2.0009999999999999</fb>
+    <v>35</v>
+  </rv>
+  <rv s="1">
+    <fb>0.67597623554253505</fb>
+    <v>34</v>
+  </rv>
+  <rv s="1">
+    <fb>96.628198897808105</fb>
+    <v>38</v>
+  </rv>
+  <rv s="1">
+    <fb>0.45</fb>
+    <v>39</v>
+  </rv>
+  <rv s="1">
+    <fb>364701517787.84399</fb>
+    <v>40</v>
+  </rv>
+  <rv s="1">
+    <fb>1.052916</fb>
+    <v>34</v>
+  </rv>
+  <rv s="1">
+    <fb>0.45125390000000004</fb>
+    <v>34</v>
+  </rv>
+  <rv s="2">
+    <v>163</v>
+    <v>6</v>
+    <v>525</v>
+    <v>7</v>
+    <v>0</v>
+    <v>Image of Malaysia</v>
+  </rv>
+  <rv s="1">
+    <fb>6.7</fb>
+    <v>38</v>
+  </rv>
+  <rv s="0">
+    <v>805306368</v>
+    <v>Ibrahim Iskandar of Johor (King)</v>
+    <v>cf1473be-96e1-a155-b8da-dd2b83f222ad</v>
+    <v>en-US</v>
+    <v>Generic</v>
+  </rv>
+  <rv s="0">
+    <v>805306368</v>
+    <v>Anwar Ibrahim (Prime minister)</v>
+    <v>f9e60a62-71ef-3f6b-17a3-8c09746c314e</v>
+    <v>en-US</v>
+    <v>Generic</v>
+  </rv>
+  <rv s="4">
+    <v>100</v>
+  </rv>
+  <rv s="3">
+    <v>https://www.bing.com/search?q=malaysia&amp;form=skydnc</v>
+    <v>Learn more on Bing</v>
+  </rv>
+  <rv s="1">
+    <fb>75.997</fb>
+    <v>38</v>
+  </rv>
+  <rv s="1">
+    <fb>403957380000</fb>
+    <v>40</v>
+  </rv>
+  <rv s="1">
+    <fb>29</fb>
+    <v>38</v>
+  </rv>
+  <rv s="1">
+    <fb>0.93</fb>
+    <v>39</v>
+  </rv>
+  <rv s="4">
+    <v>101</v>
+  </rv>
+  <rv s="1">
+    <fb>0.36668219639999999</fb>
+    <v>34</v>
+  </rv>
+  <rv s="1">
+    <fb>1.5132000000000001</fb>
+    <v>35</v>
+  </rv>
+  <rv s="1">
+    <fb>33938221</fb>
+    <v>8</v>
+  </rv>
+  <rv s="1">
+    <fb>0.22</fb>
+    <v>34</v>
+  </rv>
+  <rv s="1">
+    <fb>0.313</fb>
+    <v>34</v>
+  </rv>
+  <rv s="1">
+    <fb>0.47299999999999998</fb>
+    <v>34</v>
+  </rv>
+  <rv s="1">
+    <fb>2.3E-2</fb>
+    <v>34</v>
+  </rv>
+  <rv s="1">
+    <fb>5.7999999999999996E-2</fb>
+    <v>34</v>
+  </rv>
+  <rv s="1">
+    <fb>0.10099999999999999</fb>
+    <v>34</v>
+  </rv>
+  <rv s="1">
+    <fb>0.14800000000000002</fb>
+    <v>34</v>
+  </rv>
+  <rv s="1">
+    <fb>0.64289001464843809</fb>
+    <v>34</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Johor</v>
+    <v>592580f7-38da-e7c1-18ba-b603c80b3d69</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Kedah</v>
+    <v>1ad802ca-b889-4b0f-9d8c-d335fad09909</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Kelantan</v>
+    <v>4ce27f56-2eb0-d77a-ba8c-f8a03a225785</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Malacca</v>
+    <v>44a9355d-c135-72b5-fc60-4291a89e003e</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Negeri Sembilan</v>
+    <v>db3e30e6-d597-cb37-b5d7-d3dd4e8b5d00</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Pahang</v>
+    <v>829da6d6-c70a-85d9-8d5d-b70db574854d</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Perak</v>
+    <v>6ca4b1a2-6a13-0976-d0f4-e53c93091316</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Perlis</v>
+    <v>671c3535-7aad-076b-5860-99706390b32b</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Penang</v>
+    <v>bf464054-864b-9148-4d71-cc74f94e1588</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Sabah</v>
+    <v>6441d726-276d-e074-b446-2e6612c2e9e2</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Sarawak</v>
+    <v>dce6889b-8572-6739-b867-e448e9f0fc11</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Selangor</v>
+    <v>c58b8d2f-8526-6b7e-ae27-d302d98eb422</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Terengganu</v>
+    <v>4c426c92-33a4-e12c-382a-d84a8509dfa2</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Labuan</v>
+    <v>c205ca77-748f-befb-6130-2a7a0eb87dbc</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Putrajaya</v>
+    <v>703ccf1a-052c-03ee-0599-1ef25799d8dc</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="4">
+    <v>102</v>
+  </rv>
+  <rv s="1">
+    <fb>0.12029692391138701</fb>
+    <v>34</v>
+  </rv>
+  <rv s="4">
+    <v>103</v>
+  </rv>
+  <rv s="1">
+    <fb>0.38700000000000001</fb>
+    <v>34</v>
+  </rv>
+  <rv s="1">
+    <fb>3.32399988174438E-2</fb>
+    <v>41</v>
+  </rv>
+  <rv s="1">
+    <fb>24475766</fb>
+    <v>8</v>
+  </rv>
+  <rv s="7">
+    <v>#VALUE!</v>
+    <v>en-US</v>
+    <v>b3abad47-1313-e000-0d95-f77f69e2fcdd</v>
+    <v>536870912</v>
+    <v>1</v>
+    <v>528</v>
+    <v>32</v>
+    <v>Malaysia</v>
+    <v>13</v>
+    <v>5</v>
+    <v>Map</v>
+    <v>6</v>
+    <v>529</v>
+    <v>MY</v>
+    <v>1633</v>
+    <v>1634</v>
+    <v>1635</v>
+    <v>1636</v>
+    <v>1637</v>
+    <v>1638</v>
+    <v>1639</v>
+    <v>1640</v>
+    <v>1641</v>
+    <v>MYR</v>
+    <v>Malaysia is a country in Southeast Asia. A federal constitutional monarchy, it consists of 13 states and three federal territories, separated by the South China Sea into two regions: Peninsular Malaysia and Borneo's East Malaysia. Peninsular ...</v>
+    <v>1642</v>
+    <v>1643</v>
+    <v>1644</v>
+    <v>1645</v>
+    <v>1646</v>
+    <v>1647</v>
+    <v>1648</v>
+    <v>1649</v>
+    <v>1650</v>
+    <v>1651</v>
+    <v>1638</v>
+    <v>1654</v>
+    <v>1655</v>
+    <v>1656</v>
+    <v>1657</v>
+    <v>1658</v>
+    <v>1659</v>
+    <v>Malaysia</v>
+    <v>Negaraku</v>
+    <v>1660</v>
+    <v>Malaysia</v>
+    <v>1661</v>
+    <v>1662</v>
+    <v>1663</v>
+    <v>1664</v>
+    <v>1665</v>
+    <v>1666</v>
+    <v>1667</v>
+    <v>1668</v>
+    <v>1669</v>
+    <v>1670</v>
+    <v>1671</v>
+    <v>1687</v>
+    <v>1688</v>
+    <v>1689</v>
+    <v>1690</v>
+    <v>1691</v>
+    <v>Malaysia</v>
+    <v>1692</v>
+    <v>mdp/vdpid/167</v>
+  </rv>
+  <rv s="0">
+    <v>536870912</v>
+    <v>Gurgaon</v>
+    <v>0744da87-5b33-132f-8cc6-6bd94376edf9</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="1">
+    <fb>738.8</fb>
+    <v>8</v>
+  </rv>
+  <rv s="2">
+    <v>164</v>
+    <v>6</v>
+    <v>531</v>
+    <v>7</v>
+    <v>0</v>
+    <v>Image of Gurgaon</v>
+  </rv>
+  <rv s="1">
+    <fb>28.466666666666999</fb>
+    <v>46</v>
+  </rv>
+  <rv s="0">
+    <v>805306368</v>
+    <v>Madhu Azad (Mayor)</v>
+    <v>5f494c54-8cc0-4d17-4f05-5ca9ebbb4556</v>
+    <v>en-US</v>
+    <v>Generic</v>
+  </rv>
+  <rv s="4">
+    <v>104</v>
+  </rv>
+  <rv s="3">
+    <v>https://www.bing.com/search?q=gurgaon&amp;form=skydnc</v>
+    <v>Learn more on Bing</v>
+  </rv>
+  <rv s="1">
+    <fb>77.033333333333005</fb>
+    <v>46</v>
+  </rv>
+  <rv s="1">
+    <fb>876824</fb>
+    <v>8</v>
+  </rv>
+  <rv s="17">
+    <v>#VALUE!</v>
+    <v>en-US</v>
+    <v>0744da87-5b33-132f-8cc6-6bd94376edf9</v>
+    <v>536870912</v>
+    <v>1</v>
+    <v>532</v>
+    <v>127</v>
+    <v>Gurgaon</v>
+    <v>13</v>
+    <v>5</v>
+    <v>Map</v>
+    <v>6</v>
+    <v>7</v>
+    <v>630</v>
+    <v>1695</v>
+    <v>3</v>
+    <v>Gurgaon, officially named Gurugram, is a tier-2 satellite city of Delhi and administrative headquarters of Gurgaon district, located in the northern Indian state of Haryana. It is situated near the Delhi–Haryana border, about 30 kilometres ...</v>
+    <v>1696</v>
+    <v>1697</v>
+    <v>1699</v>
+    <v>1700</v>
+    <v>1701</v>
+    <v>Gurgaon</v>
+    <v>1702</v>
+    <v>8</v>
+    <v>Gurgaon</v>
+    <v>mdp/vdpid/7408259858589286401</v>
+  </rv>
 </rvData>
 </file>
 
 <file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
-<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="59">
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="60">
   <s t="_linkedentity2">
     <k n="%EntityServiceId" t="i"/>
     <k n="_DisplayString" t="s"/>
@@ -21002,12 +21732,37 @@
     <k n="UniqueName" t="s"/>
     <k n="VDPID/VSID" t="s"/>
   </s>
+  <s t="_linkedentity2core">
+    <k n="_CRID" t="e"/>
+    <k n="%EntityCulture" t="s"/>
+    <k n="%EntityId" t="s"/>
+    <k n="%EntityServiceId" t="i"/>
+    <k n="%IsRefreshable" t="b"/>
+    <k n="_Attribution" t="spb"/>
+    <k n="_Display" t="spb"/>
+    <k n="_DisplayString" t="s"/>
+    <k n="_Flags" t="spb"/>
+    <k n="_Format" t="spb"/>
+    <k n="_Icon" t="s"/>
+    <k n="_Provider" t="spb"/>
+    <k n="_SubLabel" t="spb"/>
+    <k n="Area" t="r"/>
+    <k n="Country/region" t="r"/>
+    <k n="Description" t="s"/>
+    <k n="Latitude" t="r"/>
+    <k n="LearnMoreOnLink" t="r"/>
+    <k n="Longitude" t="r"/>
+    <k n="Name" t="s"/>
+    <k n="Population" t="r"/>
+    <k n="UniqueName" t="s"/>
+    <k n="VDPID/VSID" t="s"/>
+  </s>
 </rvStructures>
 </file>
 
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
-  <spbArrays count="53">
+  <spbArrays count="54">
     <a count="24">
       <v t="s">%EntityServiceId</v>
       <v t="s">%IsRefreshable</v>
@@ -22462,8 +23217,32 @@
       <v t="s">Image</v>
       <v t="s">Description</v>
     </a>
+    <a count="22">
+      <v t="s">%EntityServiceId</v>
+      <v t="s">%IsRefreshable</v>
+      <v t="s">%EntityCulture</v>
+      <v t="s">%EntityId</v>
+      <v t="s">_Icon</v>
+      <v t="s">_Provider</v>
+      <v t="s">_Attribution</v>
+      <v t="s">_Display</v>
+      <v t="s">Name</v>
+      <v t="s">_Format</v>
+      <v t="s">Country/region</v>
+      <v t="s">_SubLabel</v>
+      <v t="s">Population</v>
+      <v t="s">Area</v>
+      <v t="s">Latitude</v>
+      <v t="s">Longitude</v>
+      <v t="s">_Flags</v>
+      <v t="s">VDPID/VSID</v>
+      <v t="s">UniqueName</v>
+      <v t="s">_DisplayString</v>
+      <v t="s">LearnMoreOnLink</v>
+      <v t="s">Description</v>
+    </a>
   </spbArrays>
-  <spbData count="520">
+  <spbData count="533">
     <spb s="0">
       <v xml:space="preserve">Wikipedia	</v>
       <v xml:space="preserve">CC BY-SA 3.0	</v>
@@ -26348,6 +27127,163 @@
       <v>517</v>
       <v>517</v>
       <v>517</v>
+    </spb>
+    <spb s="0">
+      <v xml:space="preserve">Wikipedia	</v>
+      <v xml:space="preserve">CC BY-SA 3.0	</v>
+      <v xml:space="preserve">https://en.wikipedia.org/wiki/Tarapur,_Maharashtra	</v>
+      <v xml:space="preserve">https://creativecommons.org/licenses/by-sa/3.0	</v>
+    </spb>
+    <spb s="0">
+      <v xml:space="preserve">Wikipedia	</v>
+      <v xml:space="preserve">CC-BY-SA	</v>
+      <v xml:space="preserve">http://en.wikipedia.org/wiki/Tarapur,_Maharashtra	</v>
+      <v xml:space="preserve">http://creativecommons.org/licenses/by-sa/3.0/	</v>
+    </spb>
+    <spb s="14">
+      <v>520</v>
+      <v>520</v>
+      <v>520</v>
+      <v>520</v>
+      <v>521</v>
+      <v>520</v>
+      <v>520</v>
+      <v>520</v>
+    </spb>
+    <spb s="2">
+      <v>53</v>
+      <v>Name</v>
+      <v>LearnMoreOnLink</v>
+    </spb>
+    <spb s="0">
+      <v xml:space="preserve">Wikipedia	Cia	travel.state.gov	</v>
+      <v xml:space="preserve">CC-BY-SA			</v>
+      <v xml:space="preserve">http://en.wikipedia.org/wiki/Malaysia	https://www.cia.gov/library/publications/the-world-factbook/geos/my.html?Transportation	https://travel.state.gov/content/travel/en/international-travel/International-Travel-Country-Information-Pages/Malaysia.html	</v>
+      <v xml:space="preserve">http://creativecommons.org/licenses/by-sa/3.0/			</v>
+    </spb>
+    <spb s="0">
+      <v xml:space="preserve">Wikipedia	</v>
+      <v xml:space="preserve">CC BY-SA 3.0	</v>
+      <v xml:space="preserve">https://en.wikipedia.org/wiki/Malaysia	</v>
+      <v xml:space="preserve">https://creativecommons.org/licenses/by-sa/3.0	</v>
+    </spb>
+    <spb s="0">
+      <v xml:space="preserve">Wikipedia	</v>
+      <v xml:space="preserve">CC-BY-SA	</v>
+      <v xml:space="preserve">http://en.wikipedia.org/wiki/Malaysia	</v>
+      <v xml:space="preserve">http://creativecommons.org/licenses/by-sa/3.0/	</v>
+    </spb>
+    <spb s="0">
+      <v xml:space="preserve">Cia	</v>
+      <v xml:space="preserve">	</v>
+      <v xml:space="preserve">https://www.cia.gov/library/publications/the-world-factbook/geos/my.html?Transportation	</v>
+      <v xml:space="preserve">	</v>
+    </spb>
+    <spb s="11">
+      <v>14</v>
+      <v>524</v>
+      <v>525</v>
+      <v>525</v>
+      <v>17</v>
+      <v>525</v>
+      <v>525</v>
+      <v>525</v>
+      <v>526</v>
+      <v>525</v>
+      <v>525</v>
+      <v>526</v>
+      <v>525</v>
+      <v>525</v>
+      <v>527</v>
+      <v>20</v>
+      <v>524</v>
+      <v>527</v>
+      <v>22</v>
+      <v>525</v>
+      <v>527</v>
+      <v>23</v>
+      <v>24</v>
+      <v>25</v>
+      <v>527</v>
+      <v>527</v>
+      <v>525</v>
+      <v>527</v>
+      <v>26</v>
+      <v>27</v>
+      <v>28</v>
+      <v>29</v>
+      <v>527</v>
+      <v>524</v>
+      <v>527</v>
+      <v>527</v>
+      <v>527</v>
+      <v>527</v>
+      <v>527</v>
+      <v>527</v>
+      <v>527</v>
+      <v>527</v>
+      <v>527</v>
+      <v>527</v>
+      <v>30</v>
+    </spb>
+    <spb s="12">
+      <v>2019</v>
+      <v>2019</v>
+      <v>square km</v>
+      <v>per thousand (2018)</v>
+      <v>2022</v>
+      <v>2019</v>
+      <v>2018</v>
+      <v>per liter (2016)</v>
+      <v>2019</v>
+      <v>years (2018)</v>
+      <v>2018</v>
+      <v>per thousand (2018)</v>
+      <v>2019</v>
+      <v>2017</v>
+      <v>2016</v>
+      <v>2019</v>
+      <v>2016</v>
+      <v>2015</v>
+      <v>kilotons per year (2016)</v>
+      <v>deaths per 100,000 (2017)</v>
+      <v>kWh (2014)</v>
+      <v>2014</v>
+      <v>2019</v>
+      <v>2015</v>
+      <v>2015</v>
+      <v>2015</v>
+      <v>2015</v>
+      <v>2015</v>
+      <v>2015</v>
+      <v>2015</v>
+      <v>2015</v>
+      <v>2017</v>
+      <v>2018</v>
+      <v>2019</v>
+    </spb>
+    <spb s="0">
+      <v xml:space="preserve">Wikipedia	</v>
+      <v xml:space="preserve">CC-BY-SA	</v>
+      <v xml:space="preserve">http://en.wikipedia.org/wiki/Gurgaon	</v>
+      <v xml:space="preserve">http://creativecommons.org/licenses/by-sa/3.0/	</v>
+    </spb>
+    <spb s="0">
+      <v xml:space="preserve">Wikipedia	</v>
+      <v xml:space="preserve">CC BY-SA 3.0	</v>
+      <v xml:space="preserve">https://en.wikipedia.org/wiki/Gurgaon	</v>
+      <v xml:space="preserve">https://creativecommons.org/licenses/by-sa/3.0	</v>
+    </spb>
+    <spb s="17">
+      <v>530</v>
+      <v>531</v>
+      <v>531</v>
+      <v>531</v>
+      <v>531</v>
+      <v>531</v>
+      <v>531</v>
+      <v>531</v>
+      <v>531</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -27158,10 +28094,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE9A6602-B321-4885-AC95-A67957842A95}">
-  <dimension ref="A1:L442"/>
+  <dimension ref="A1:L469"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A134" workbookViewId="0">
-      <selection activeCell="D155" sqref="D155"/>
+    <sheetView tabSelected="1" topLeftCell="A435" workbookViewId="0">
+      <selection activeCell="C451" sqref="C451"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -41198,6 +42134,870 @@
         <v>325</v>
       </c>
     </row>
+    <row r="443" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A443" t="e" vm="155">
+        <v>#VALUE!</v>
+      </c>
+      <c r="B443" vm="156">
+        <v>28.416666666666998</v>
+      </c>
+      <c r="C443" vm="157">
+        <v>77.3</v>
+      </c>
+      <c r="D443" t="s">
+        <v>479</v>
+      </c>
+      <c r="E443" t="s">
+        <v>480</v>
+      </c>
+      <c r="F443" t="s">
+        <v>28</v>
+      </c>
+      <c r="G443" t="s">
+        <v>74</v>
+      </c>
+      <c r="H443">
+        <v>2025</v>
+      </c>
+      <c r="I443" t="s">
+        <v>481</v>
+      </c>
+      <c r="J443" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="444" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A444" t="e" vm="8">
+        <v>#VALUE!</v>
+      </c>
+      <c r="B444" vm="9">
+        <v>19.0758333333333</v>
+      </c>
+      <c r="C444" vm="10">
+        <v>72.877499999999998</v>
+      </c>
+      <c r="D444" t="s">
+        <v>482</v>
+      </c>
+      <c r="E444" t="s">
+        <v>480</v>
+      </c>
+      <c r="F444" t="s">
+        <v>31</v>
+      </c>
+      <c r="G444" t="s">
+        <v>74</v>
+      </c>
+      <c r="H444">
+        <v>2025</v>
+      </c>
+      <c r="I444" t="s">
+        <v>481</v>
+      </c>
+      <c r="J444" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="445" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A445" t="e" vm="63">
+        <v>#VALUE!</v>
+      </c>
+      <c r="B445" vm="64">
+        <v>18.519573999999999</v>
+      </c>
+      <c r="C445" vm="65">
+        <v>73.855287000000004</v>
+      </c>
+      <c r="D445" t="s">
+        <v>484</v>
+      </c>
+      <c r="E445" t="s">
+        <v>480</v>
+      </c>
+      <c r="F445" t="s">
+        <v>31</v>
+      </c>
+      <c r="G445" t="s">
+        <v>74</v>
+      </c>
+      <c r="H445">
+        <v>2025</v>
+      </c>
+      <c r="I445" t="s">
+        <v>481</v>
+      </c>
+      <c r="J445" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="446" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A446" t="e" vm="54">
+        <v>#VALUE!</v>
+      </c>
+      <c r="B446" vm="55">
+        <v>12.979119799999999</v>
+      </c>
+      <c r="C446" vm="56">
+        <v>77.591299699999993</v>
+      </c>
+      <c r="D446" t="s">
+        <v>485</v>
+      </c>
+      <c r="E446" t="s">
+        <v>480</v>
+      </c>
+      <c r="F446" t="s">
+        <v>28</v>
+      </c>
+      <c r="G446" t="s">
+        <v>74</v>
+      </c>
+      <c r="H446">
+        <v>2025</v>
+      </c>
+      <c r="I446" t="s">
+        <v>481</v>
+      </c>
+      <c r="J446" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="447" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A447" t="e" vm="418">
+        <v>#VALUE!</v>
+      </c>
+      <c r="B447" vm="419">
+        <v>11.93</v>
+      </c>
+      <c r="C447" vm="420">
+        <v>79.83</v>
+      </c>
+      <c r="D447" t="s">
+        <v>486</v>
+      </c>
+      <c r="E447" t="s">
+        <v>480</v>
+      </c>
+      <c r="F447" t="s">
+        <v>31</v>
+      </c>
+      <c r="G447" t="s">
+        <v>74</v>
+      </c>
+      <c r="H447">
+        <v>2025</v>
+      </c>
+      <c r="I447" t="s">
+        <v>481</v>
+      </c>
+      <c r="J447" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="448" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A448" t="e" vm="63">
+        <v>#VALUE!</v>
+      </c>
+      <c r="B448" vm="64">
+        <v>18.519573999999999</v>
+      </c>
+      <c r="C448" vm="65">
+        <v>73.855287000000004</v>
+      </c>
+      <c r="D448" t="s">
+        <v>488</v>
+      </c>
+      <c r="E448" t="s">
+        <v>480</v>
+      </c>
+      <c r="F448" t="s">
+        <v>31</v>
+      </c>
+      <c r="G448" t="s">
+        <v>74</v>
+      </c>
+      <c r="H448">
+        <v>2025</v>
+      </c>
+      <c r="I448" t="s">
+        <v>481</v>
+      </c>
+      <c r="J448" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="449" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A449" t="e" vm="322">
+        <v>#VALUE!</v>
+      </c>
+      <c r="B449">
+        <v>31.147099999999998</v>
+      </c>
+      <c r="C449">
+        <v>75.341200000000001</v>
+      </c>
+      <c r="D449" t="s">
+        <v>489</v>
+      </c>
+      <c r="E449" t="s">
+        <v>480</v>
+      </c>
+      <c r="F449" t="s">
+        <v>31</v>
+      </c>
+      <c r="G449" t="s">
+        <v>74</v>
+      </c>
+      <c r="H449">
+        <v>2025</v>
+      </c>
+      <c r="I449" t="s">
+        <v>481</v>
+      </c>
+      <c r="J449" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="450" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A450" t="e" vm="2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="B450" vm="3">
+        <v>20</v>
+      </c>
+      <c r="C450" vm="4">
+        <v>73.783333333333005</v>
+      </c>
+      <c r="D450" t="s">
+        <v>490</v>
+      </c>
+      <c r="E450" t="s">
+        <v>480</v>
+      </c>
+      <c r="F450" t="s">
+        <v>6</v>
+      </c>
+      <c r="G450" t="s">
+        <v>74</v>
+      </c>
+      <c r="H450">
+        <v>2025</v>
+      </c>
+      <c r="I450" t="s">
+        <v>481</v>
+      </c>
+      <c r="J450" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="451" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A451" t="e" vm="35">
+        <v>#VALUE!</v>
+      </c>
+      <c r="B451" vm="36">
+        <v>13.0825</v>
+      </c>
+      <c r="C451" vm="37">
+        <v>80.275000000000006</v>
+      </c>
+      <c r="D451" t="s">
+        <v>491</v>
+      </c>
+      <c r="E451" t="s">
+        <v>480</v>
+      </c>
+      <c r="F451" t="s">
+        <v>28</v>
+      </c>
+      <c r="G451" t="s">
+        <v>74</v>
+      </c>
+      <c r="H451">
+        <v>2025</v>
+      </c>
+      <c r="I451" t="s">
+        <v>481</v>
+      </c>
+      <c r="J451" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="452" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A452" t="e" vm="174">
+        <v>#VALUE!</v>
+      </c>
+      <c r="B452" vm="175">
+        <v>20.266666666667</v>
+      </c>
+      <c r="C452" vm="176">
+        <v>73.016666666667007</v>
+      </c>
+      <c r="D452" t="s">
+        <v>492</v>
+      </c>
+      <c r="E452" t="s">
+        <v>480</v>
+      </c>
+      <c r="F452" t="s">
+        <v>31</v>
+      </c>
+      <c r="G452" t="s">
+        <v>74</v>
+      </c>
+      <c r="H452">
+        <v>2025</v>
+      </c>
+      <c r="I452" t="s">
+        <v>481</v>
+      </c>
+      <c r="J452" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="453" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A453" t="e" vm="8">
+        <v>#VALUE!</v>
+      </c>
+      <c r="B453" vm="9">
+        <v>19.0758333333333</v>
+      </c>
+      <c r="C453" vm="10">
+        <v>72.877499999999998</v>
+      </c>
+      <c r="D453" t="s">
+        <v>494</v>
+      </c>
+      <c r="E453" t="s">
+        <v>480</v>
+      </c>
+      <c r="F453" t="s">
+        <v>28</v>
+      </c>
+      <c r="G453" t="s">
+        <v>74</v>
+      </c>
+      <c r="H453">
+        <v>2025</v>
+      </c>
+      <c r="I453" t="s">
+        <v>481</v>
+      </c>
+      <c r="J453" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="454" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A454" t="e" vm="130">
+        <v>#VALUE!</v>
+      </c>
+      <c r="B454" vm="131">
+        <v>22.572672300000001</v>
+      </c>
+      <c r="C454" vm="132">
+        <v>88.363881500000005</v>
+      </c>
+      <c r="D454" t="s">
+        <v>495</v>
+      </c>
+      <c r="E454" t="s">
+        <v>480</v>
+      </c>
+      <c r="F454" t="s">
+        <v>496</v>
+      </c>
+      <c r="G454" t="s">
+        <v>74</v>
+      </c>
+      <c r="H454">
+        <v>2025</v>
+      </c>
+      <c r="I454" t="s">
+        <v>481</v>
+      </c>
+      <c r="J454" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="455" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A455" t="e" vm="442">
+        <v>#VALUE!</v>
+      </c>
+      <c r="B455" vm="443">
+        <v>19.850000000000001</v>
+      </c>
+      <c r="C455" vm="444">
+        <v>72.7</v>
+      </c>
+      <c r="D455" t="s">
+        <v>497</v>
+      </c>
+      <c r="E455" t="s">
+        <v>498</v>
+      </c>
+      <c r="F455" t="s">
+        <v>28</v>
+      </c>
+      <c r="G455" t="s">
+        <v>74</v>
+      </c>
+      <c r="H455">
+        <v>2025</v>
+      </c>
+      <c r="I455" t="s">
+        <v>481</v>
+      </c>
+      <c r="J455" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="456" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A456" t="e" vm="8">
+        <v>#VALUE!</v>
+      </c>
+      <c r="B456" vm="9">
+        <v>19.0758333333333</v>
+      </c>
+      <c r="C456" vm="10">
+        <v>72.877499999999998</v>
+      </c>
+      <c r="D456" t="s">
+        <v>499</v>
+      </c>
+      <c r="E456" t="s">
+        <v>500</v>
+      </c>
+      <c r="F456" t="s">
+        <v>6</v>
+      </c>
+      <c r="G456" t="s">
+        <v>74</v>
+      </c>
+      <c r="H456">
+        <v>2025</v>
+      </c>
+      <c r="I456" t="s">
+        <v>481</v>
+      </c>
+      <c r="J456" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="457" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A457" t="e" vm="8">
+        <v>#VALUE!</v>
+      </c>
+      <c r="B457" vm="9">
+        <v>19.0758333333333</v>
+      </c>
+      <c r="C457" vm="10">
+        <v>72.877499999999998</v>
+      </c>
+      <c r="D457" t="s">
+        <v>501</v>
+      </c>
+      <c r="E457" t="s">
+        <v>502</v>
+      </c>
+      <c r="F457" t="s">
+        <v>28</v>
+      </c>
+      <c r="G457" t="s">
+        <v>74</v>
+      </c>
+      <c r="H457">
+        <v>2025</v>
+      </c>
+      <c r="I457" t="s">
+        <v>481</v>
+      </c>
+      <c r="J457" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="458" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A458" t="e" vm="35">
+        <v>#VALUE!</v>
+      </c>
+      <c r="B458" vm="36">
+        <v>13.0825</v>
+      </c>
+      <c r="C458" vm="37">
+        <v>80.275000000000006</v>
+      </c>
+      <c r="D458" t="s">
+        <v>503</v>
+      </c>
+      <c r="E458" t="s">
+        <v>500</v>
+      </c>
+      <c r="F458" t="s">
+        <v>31</v>
+      </c>
+      <c r="G458" t="s">
+        <v>74</v>
+      </c>
+      <c r="H458">
+        <v>2025</v>
+      </c>
+      <c r="I458" t="s">
+        <v>481</v>
+      </c>
+      <c r="J458" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="459" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A459" t="e" vm="63">
+        <v>#VALUE!</v>
+      </c>
+      <c r="B459" vm="64">
+        <v>18.519573999999999</v>
+      </c>
+      <c r="C459" vm="65">
+        <v>73.855287000000004</v>
+      </c>
+      <c r="D459" t="s">
+        <v>504</v>
+      </c>
+      <c r="E459" t="s">
+        <v>480</v>
+      </c>
+      <c r="F459" t="s">
+        <v>325</v>
+      </c>
+      <c r="G459" t="s">
+        <v>74</v>
+      </c>
+      <c r="H459">
+        <v>2025</v>
+      </c>
+      <c r="I459" t="s">
+        <v>481</v>
+      </c>
+      <c r="J459" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="460" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A460" t="e" vm="35">
+        <v>#VALUE!</v>
+      </c>
+      <c r="B460" vm="36">
+        <v>13.0825</v>
+      </c>
+      <c r="C460" vm="37">
+        <v>80.275000000000006</v>
+      </c>
+      <c r="D460" t="s">
+        <v>505</v>
+      </c>
+      <c r="E460" t="s">
+        <v>506</v>
+      </c>
+      <c r="F460" t="s">
+        <v>28</v>
+      </c>
+      <c r="G460" t="s">
+        <v>74</v>
+      </c>
+      <c r="H460">
+        <v>2025</v>
+      </c>
+      <c r="I460" t="s">
+        <v>481</v>
+      </c>
+      <c r="J460" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="461" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A461" t="e" vm="177">
+        <v>#VALUE!</v>
+      </c>
+      <c r="B461">
+        <v>29.065773</v>
+      </c>
+      <c r="C461">
+        <v>76.040497000000002</v>
+      </c>
+      <c r="D461" t="s">
+        <v>507</v>
+      </c>
+      <c r="E461" t="s">
+        <v>500</v>
+      </c>
+      <c r="F461" t="s">
+        <v>6</v>
+      </c>
+      <c r="G461" t="s">
+        <v>74</v>
+      </c>
+      <c r="H461">
+        <v>2025</v>
+      </c>
+      <c r="I461" t="s">
+        <v>481</v>
+      </c>
+      <c r="J461" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="462" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A462" t="e" vm="54">
+        <v>#VALUE!</v>
+      </c>
+      <c r="B462" vm="55">
+        <v>12.979119799999999</v>
+      </c>
+      <c r="C462" vm="56">
+        <v>77.591299699999993</v>
+      </c>
+      <c r="D462" t="s">
+        <v>509</v>
+      </c>
+      <c r="E462" t="s">
+        <v>480</v>
+      </c>
+      <c r="F462" t="s">
+        <v>31</v>
+      </c>
+      <c r="G462" t="s">
+        <v>74</v>
+      </c>
+      <c r="H462">
+        <v>2025</v>
+      </c>
+      <c r="I462" t="s">
+        <v>481</v>
+      </c>
+      <c r="J462" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="463" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A463" t="e" vm="155">
+        <v>#VALUE!</v>
+      </c>
+      <c r="B463" vm="156">
+        <v>28.416666666666998</v>
+      </c>
+      <c r="C463" vm="157">
+        <v>77.3</v>
+      </c>
+      <c r="D463" t="s">
+        <v>510</v>
+      </c>
+      <c r="E463" t="s">
+        <v>480</v>
+      </c>
+      <c r="F463" t="s">
+        <v>28</v>
+      </c>
+      <c r="G463" t="s">
+        <v>74</v>
+      </c>
+      <c r="H463">
+        <v>2025</v>
+      </c>
+      <c r="I463" t="s">
+        <v>481</v>
+      </c>
+      <c r="J463" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="464" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A464" t="e" vm="445">
+        <v>#VALUE!</v>
+      </c>
+      <c r="B464">
+        <v>4.2104840000000001</v>
+      </c>
+      <c r="C464">
+        <v>101.97576599999999</v>
+      </c>
+      <c r="D464" t="s">
+        <v>511</v>
+      </c>
+      <c r="E464" t="s">
+        <v>512</v>
+      </c>
+      <c r="F464" t="s">
+        <v>31</v>
+      </c>
+      <c r="G464" t="s">
+        <v>74</v>
+      </c>
+      <c r="H464">
+        <v>2025</v>
+      </c>
+      <c r="I464" t="s">
+        <v>481</v>
+      </c>
+      <c r="J464" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="465" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A465" t="e" vm="78">
+        <v>#VALUE!</v>
+      </c>
+      <c r="B465" vm="79">
+        <v>23.021944444444401</v>
+      </c>
+      <c r="C465" vm="80">
+        <v>72.579722222222202</v>
+      </c>
+      <c r="D465" t="s">
+        <v>513</v>
+      </c>
+      <c r="E465" t="s">
+        <v>480</v>
+      </c>
+      <c r="F465" t="s">
+        <v>28</v>
+      </c>
+      <c r="G465" t="s">
+        <v>74</v>
+      </c>
+      <c r="H465">
+        <v>2025</v>
+      </c>
+      <c r="I465" t="s">
+        <v>481</v>
+      </c>
+      <c r="J465" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="466" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A466" t="e" vm="35">
+        <v>#VALUE!</v>
+      </c>
+      <c r="B466" vm="36">
+        <v>13.0825</v>
+      </c>
+      <c r="C466" vm="37">
+        <v>80.275000000000006</v>
+      </c>
+      <c r="D466" t="s">
+        <v>515</v>
+      </c>
+      <c r="E466" t="s">
+        <v>480</v>
+      </c>
+      <c r="F466" t="s">
+        <v>31</v>
+      </c>
+      <c r="G466" t="s">
+        <v>74</v>
+      </c>
+      <c r="H466">
+        <v>2025</v>
+      </c>
+      <c r="I466" t="s">
+        <v>481</v>
+      </c>
+      <c r="J466" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="467" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A467" t="e" vm="78">
+        <v>#VALUE!</v>
+      </c>
+      <c r="B467" vm="79">
+        <v>23.021944444444401</v>
+      </c>
+      <c r="C467" vm="80">
+        <v>72.579722222222202</v>
+      </c>
+      <c r="D467" t="s">
+        <v>516</v>
+      </c>
+      <c r="E467" t="s">
+        <v>480</v>
+      </c>
+      <c r="F467" t="s">
+        <v>28</v>
+      </c>
+      <c r="G467" t="s">
+        <v>74</v>
+      </c>
+      <c r="H467">
+        <v>2025</v>
+      </c>
+      <c r="I467" t="s">
+        <v>481</v>
+      </c>
+      <c r="J467" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="468" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A468" t="e" vm="446">
+        <v>#VALUE!</v>
+      </c>
+      <c r="B468" vm="447">
+        <v>28.466666666666999</v>
+      </c>
+      <c r="C468" vm="448">
+        <v>77.033333333333005</v>
+      </c>
+      <c r="D468" t="s">
+        <v>518</v>
+      </c>
+      <c r="E468" t="s">
+        <v>506</v>
+      </c>
+      <c r="F468" t="s">
+        <v>28</v>
+      </c>
+      <c r="G468" t="s">
+        <v>74</v>
+      </c>
+      <c r="H468">
+        <v>2025</v>
+      </c>
+      <c r="I468" t="s">
+        <v>481</v>
+      </c>
+      <c r="J468" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="469" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A469" t="e" vm="63">
+        <v>#VALUE!</v>
+      </c>
+      <c r="B469" vm="64">
+        <v>18.519573999999999</v>
+      </c>
+      <c r="C469" vm="65">
+        <v>73.855287000000004</v>
+      </c>
+      <c r="D469" t="s">
+        <v>519</v>
+      </c>
+      <c r="E469" t="s">
+        <v>520</v>
+      </c>
+      <c r="F469" t="s">
+        <v>28</v>
+      </c>
+      <c r="G469" t="s">
+        <v>74</v>
+      </c>
+      <c r="H469">
+        <v>2025</v>
+      </c>
+      <c r="I469" t="s">
+        <v>481</v>
+      </c>
+      <c r="J469" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F29" xr:uid="{66A39C2B-1BB4-438C-AA57-7E71ACDB8E36}">
